--- a/miniproject/template/Lectures/Lecture 6.xlsx
+++ b/miniproject/template/Lectures/Lecture 6.xlsx
@@ -40,49 +40,22 @@
     <t>Example</t>
   </si>
   <si>
+    <t>Meaning</t>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Meaning </t>
+      <t>Meaning</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <rFont val="方正书宋_GBK"/>
         <charset val="134"/>
       </rPr>
-      <t>（</t>
+      <t>（中文）</t>
     </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>English</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <t>Meaning</t>
   </si>
   <si>
     <t>level_2</t>
@@ -2416,12 +2389,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2503,15 +2476,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2524,18 +2505,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2546,19 +2520,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2570,9 +2543,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2587,60 +2574,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2662,16 +2597,59 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="方正书宋_GBK"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -2714,31 +2692,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2750,67 +2734,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2828,6 +2752,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2840,7 +2794,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2852,49 +2866,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3008,6 +2986,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -3025,15 +3012,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3068,26 +3046,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3102,151 +3060,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="35" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3345,7 +3323,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3669,8 +3647,8 @@
   <sheetPr/>
   <dimension ref="A1:AE215"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" zoomScale="134" zoomScaleNormal="134" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.63392857142857" defaultRowHeight="11.6"/>
@@ -4094,11 +4072,11 @@
       </c>
       <c r="J5" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="22">
         <f t="shared" si="12"/>
@@ -4112,43 +4090,43 @@
       </c>
       <c r="O5" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20601004</v>
+        <v/>
       </c>
       <c r="P5" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v>What is the concept of "The hand that rocks the cradle rules the world" ?</v>
+        <v/>
       </c>
       <c r="Q5" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R5" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S5" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T5" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30601004</v>
       </c>
       <c r="U5" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>What is the meaning of "The hand that rocks the cradle rules the world" ?</v>
       </c>
       <c r="V5" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W5" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X5" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y5" s="22" t="str">
         <f t="shared" si="10"/>
@@ -4286,11 +4264,11 @@
       </c>
       <c r="J7" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="22">
         <f t="shared" si="12"/>
@@ -4304,43 +4282,43 @@
       </c>
       <c r="O7" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20601006</v>
       </c>
       <c r="P7" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v/>
+        <v>What is the concept of "nosebleed seats" ?</v>
       </c>
       <c r="Q7" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R7" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S7" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T7" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30601006</v>
+        <v/>
       </c>
       <c r="U7" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>What is the meaning of "nosebleed seats" ?</v>
+        <v/>
       </c>
       <c r="V7" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W7" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X7" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y7" s="22" t="str">
         <f t="shared" si="10"/>
@@ -4382,11 +4360,11 @@
       </c>
       <c r="J8" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="22">
         <f t="shared" si="12"/>
@@ -4400,43 +4378,43 @@
       </c>
       <c r="O8" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20601007</v>
+        <v/>
       </c>
       <c r="P8" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v>What is the concept of "The gloves are off" ?</v>
+        <v/>
       </c>
       <c r="Q8" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R8" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S8" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T8" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30601007</v>
       </c>
       <c r="U8" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>What is the meaning of "The gloves are off" ?</v>
       </c>
       <c r="V8" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W8" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X8" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y8" s="22" t="str">
         <f t="shared" si="10"/>
@@ -4478,11 +4456,11 @@
       </c>
       <c r="J9" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" s="22">
         <f t="shared" si="12"/>
@@ -4496,43 +4474,43 @@
       </c>
       <c r="O9" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20601008</v>
+        <v/>
       </c>
       <c r="P9" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v>What is the concept of "There are two people in this case. One of them is lying" ?</v>
+        <v/>
       </c>
       <c r="Q9" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R9" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S9" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T9" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30601008</v>
       </c>
       <c r="U9" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>What is the meaning of "There are two people in this case. One of them is lying" ?</v>
       </c>
       <c r="V9" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W9" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X9" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y9" s="22" t="str">
         <f t="shared" si="10"/>
@@ -4574,11 +4552,11 @@
       </c>
       <c r="J10" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" s="22">
         <f t="shared" si="12"/>
@@ -4592,43 +4570,43 @@
       </c>
       <c r="O10" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20601009</v>
       </c>
       <c r="P10" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v/>
+        <v>What is the concept of "I pinch myself every day" ?</v>
       </c>
       <c r="Q10" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R10" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S10" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T10" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30601009</v>
+        <v/>
       </c>
       <c r="U10" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>What is the meaning of "I pinch myself every day" ?</v>
+        <v/>
       </c>
       <c r="V10" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W10" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X10" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y10" s="22" t="str">
         <f t="shared" si="10"/>
@@ -4670,11 +4648,11 @@
       </c>
       <c r="J11" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" s="22">
         <f t="shared" si="12"/>
@@ -4688,43 +4666,43 @@
       </c>
       <c r="O11" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20601010</v>
+        <v/>
       </c>
       <c r="P11" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v>What is the concept of "I like to kill him. Join the club" ?</v>
+        <v/>
       </c>
       <c r="Q11" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R11" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S11" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T11" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30601010</v>
       </c>
       <c r="U11" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>What is the meaning of "I like to kill him. Join the club" ?</v>
       </c>
       <c r="V11" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W11" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X11" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y11" s="22" t="str">
         <f t="shared" si="10"/>
@@ -4740,7 +4718,7 @@
       <c r="AD11" s="13"/>
       <c r="AE11" s="13"/>
     </row>
-    <row r="12" ht="35" spans="1:31">
+    <row r="12" ht="24" spans="1:31">
       <c r="A12" s="2">
         <v>6</v>
       </c>
@@ -5439,11 +5417,11 @@
       </c>
       <c r="J19" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" s="22">
         <f t="shared" si="12"/>
@@ -5457,43 +5435,43 @@
       </c>
       <c r="O19" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20602018</v>
+        <v/>
       </c>
       <c r="P19" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v>What is the concept of "Being creative is a prison sentence" ?</v>
+        <v/>
       </c>
       <c r="Q19" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R19" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S19" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T19" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30602018</v>
       </c>
       <c r="U19" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>What is the meaning of "Being creative is a prison sentence" ?</v>
       </c>
       <c r="V19" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W19" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X19" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y19" s="22" t="str">
         <f t="shared" si="10"/>
@@ -5631,11 +5609,11 @@
       </c>
       <c r="J21" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" s="22">
         <f t="shared" si="12"/>
@@ -5649,43 +5627,43 @@
       </c>
       <c r="O21" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20602020</v>
+        <v/>
       </c>
       <c r="P21" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v>What is the concept of "Money is the root of all evil" ?</v>
+        <v/>
       </c>
       <c r="Q21" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R21" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S21" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T21" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30602020</v>
       </c>
       <c r="U21" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>What is the meaning of "Money is the root of all evil" ?</v>
       </c>
       <c r="V21" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W21" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X21" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y21" s="22" t="str">
         <f t="shared" si="10"/>
@@ -5823,11 +5801,11 @@
       </c>
       <c r="J23" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" s="22">
         <f t="shared" si="12"/>
@@ -5841,43 +5819,43 @@
       </c>
       <c r="O23" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20602022</v>
+        <v/>
       </c>
       <c r="P23" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v>What is the concept of "Kindness is a choice" ?</v>
+        <v/>
       </c>
       <c r="Q23" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R23" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S23" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T23" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30602022</v>
       </c>
       <c r="U23" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>What is the meaning of "Kindness is a choice" ?</v>
       </c>
       <c r="V23" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W23" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X23" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y23" s="22" t="str">
         <f t="shared" si="10"/>
@@ -5893,7 +5871,7 @@
       <c r="AD23" s="13"/>
       <c r="AE23" s="13"/>
     </row>
-    <row r="24" ht="24" spans="1:31">
+    <row r="24" ht="35" spans="1:31">
       <c r="A24" s="2">
         <v>6</v>
       </c>
@@ -5919,11 +5897,11 @@
       </c>
       <c r="J24" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" s="22">
         <f t="shared" si="12"/>
@@ -5937,43 +5915,43 @@
       </c>
       <c r="O24" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20602023</v>
       </c>
       <c r="P24" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v/>
+        <v>What is the concept of "Imitation is the sincerest form of flattery" ?</v>
       </c>
       <c r="Q24" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R24" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S24" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T24" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30602023</v>
+        <v/>
       </c>
       <c r="U24" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>What is the meaning of "Imitation is the sincerest form of flattery" ?</v>
+        <v/>
       </c>
       <c r="V24" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W24" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X24" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y24" s="22" t="str">
         <f t="shared" si="10"/>
@@ -6207,11 +6185,11 @@
       </c>
       <c r="J27" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27" s="22">
         <f t="shared" si="12"/>
@@ -6225,43 +6203,43 @@
       </c>
       <c r="O27" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20602026</v>
       </c>
       <c r="P27" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v/>
+        <v>What is the concept of "Teachers are engineers of the human soul " ?</v>
       </c>
       <c r="Q27" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R27" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S27" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T27" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30602026</v>
+        <v/>
       </c>
       <c r="U27" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>What is the meaning of "Teachers are engineers of the human soul " ?</v>
+        <v/>
       </c>
       <c r="V27" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W27" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X27" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y27" s="22" t="str">
         <f t="shared" si="10"/>
@@ -6303,11 +6281,11 @@
       </c>
       <c r="J28" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28" s="22">
         <f t="shared" si="12"/>
@@ -6321,43 +6299,43 @@
       </c>
       <c r="O28" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20602027</v>
+        <v/>
       </c>
       <c r="P28" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v>What is the concept of "Loneliness is my religion" ?</v>
+        <v/>
       </c>
       <c r="Q28" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R28" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S28" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T28" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30602027</v>
       </c>
       <c r="U28" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>What is the meaning of "Loneliness is my religion" ?</v>
       </c>
       <c r="V28" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W28" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X28" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y28" s="22" t="str">
         <f t="shared" si="10"/>
@@ -6399,11 +6377,11 @@
       </c>
       <c r="J29" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29" s="22">
         <f t="shared" si="12"/>
@@ -6417,43 +6395,43 @@
       </c>
       <c r="O29" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20602028</v>
       </c>
       <c r="P29" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v/>
+        <v>What is the concept of "Democracy is not a spectator sport" ?</v>
       </c>
       <c r="Q29" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R29" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S29" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T29" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30602028</v>
+        <v/>
       </c>
       <c r="U29" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>What is the meaning of "Democracy is not a spectator sport" ?</v>
+        <v/>
       </c>
       <c r="V29" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W29" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X29" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y29" s="22" t="str">
         <f t="shared" si="10"/>
@@ -6687,11 +6665,11 @@
       </c>
       <c r="J32" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32" s="22">
         <f t="shared" si="12"/>
@@ -6705,43 +6683,43 @@
       </c>
       <c r="O32" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20603031</v>
+        <v/>
       </c>
       <c r="P32" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v>What is the concept of "The marriage staggered on for another 3 years" ?</v>
+        <v/>
       </c>
       <c r="Q32" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R32" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S32" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T32" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30603031</v>
       </c>
       <c r="U32" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>What is the meaning of "The marriage staggered on for another 3 years" ?</v>
       </c>
       <c r="V32" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W32" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X32" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y32" s="22" t="str">
         <f t="shared" si="10"/>
@@ -6783,11 +6761,11 @@
       </c>
       <c r="J33" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L33" s="22">
         <f t="shared" si="12"/>
@@ -6801,43 +6779,43 @@
       </c>
       <c r="O33" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20603032</v>
+        <v/>
       </c>
       <c r="P33" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v>What is the concept of "I found errors creeping into his reports" ?</v>
+        <v/>
       </c>
       <c r="Q33" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R33" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S33" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T33" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30603032</v>
       </c>
       <c r="U33" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>What is the meaning of "I found errors creeping into his reports" ?</v>
       </c>
       <c r="V33" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W33" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X33" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y33" s="22" t="str">
         <f t="shared" si="10"/>
@@ -6879,11 +6857,11 @@
       </c>
       <c r="J34" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34" s="22">
         <f t="shared" si="12"/>
@@ -6897,43 +6875,43 @@
       </c>
       <c r="O34" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20603033</v>
+        <v/>
       </c>
       <c r="P34" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v>What is the concept of "Britain limps back to work after the lockdown" ?</v>
+        <v/>
       </c>
       <c r="Q34" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R34" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S34" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T34" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30603033</v>
       </c>
       <c r="U34" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>What is the meaning of "Britain limps back to work after the lockdown" ?</v>
       </c>
       <c r="V34" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W34" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X34" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y34" s="22" t="str">
         <f t="shared" si="10"/>
@@ -7071,11 +7049,11 @@
       </c>
       <c r="J36" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36" s="22">
         <f t="shared" si="12"/>
@@ -7089,43 +7067,43 @@
       </c>
       <c r="O36" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20603035</v>
+        <v/>
       </c>
       <c r="P36" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v>What is the concept of "The streets are humming again" ?</v>
+        <v/>
       </c>
       <c r="Q36" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R36" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S36" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T36" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30603035</v>
       </c>
       <c r="U36" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>What is the meaning of "The streets are humming again" ?</v>
       </c>
       <c r="V36" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W36" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X36" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y36" s="22" t="str">
         <f t="shared" si="10"/>
@@ -7333,7 +7311,7 @@
       <c r="AD38" s="13"/>
       <c r="AE38" s="13"/>
     </row>
-    <row r="39" ht="24" spans="1:31">
+    <row r="39" ht="35" spans="1:31">
       <c r="A39" s="2">
         <v>6</v>
       </c>
@@ -7359,11 +7337,11 @@
       </c>
       <c r="J39" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39" s="22">
         <f t="shared" si="12"/>
@@ -7377,43 +7355,43 @@
       </c>
       <c r="O39" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20603038</v>
       </c>
       <c r="P39" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v/>
+        <v>What is the concept of "Venice licks its wounds after the floods" ?</v>
       </c>
       <c r="Q39" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R39" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S39" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T39" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30603038</v>
+        <v/>
       </c>
       <c r="U39" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>What is the meaning of "Venice licks its wounds after the floods" ?</v>
+        <v/>
       </c>
       <c r="V39" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W39" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X39" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y39" s="22" t="str">
         <f t="shared" si="10"/>
@@ -7455,11 +7433,11 @@
       </c>
       <c r="J40" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L40" s="22">
         <f t="shared" si="12"/>
@@ -7473,43 +7451,43 @@
       </c>
       <c r="O40" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20603039</v>
       </c>
       <c r="P40" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v/>
+        <v>What is the concept of "Courage deserted him" ?</v>
       </c>
       <c r="Q40" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R40" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S40" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T40" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30603039</v>
+        <v/>
       </c>
       <c r="U40" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>What is the meaning of "Courage deserted him" ?</v>
+        <v/>
       </c>
       <c r="V40" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W40" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X40" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y40" s="22" t="str">
         <f t="shared" si="10"/>
@@ -7647,11 +7625,11 @@
       </c>
       <c r="J42" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L42" s="22">
         <f t="shared" si="12"/>
@@ -7665,43 +7643,43 @@
       </c>
       <c r="O42" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20603041</v>
+        <v/>
       </c>
       <c r="P42" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v>What is the concept of "England slumped to a 2-1 defeat against France" ?</v>
+        <v/>
       </c>
       <c r="Q42" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R42" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S42" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T42" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30603041</v>
       </c>
       <c r="U42" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>What is the meaning of "England slumped to a 2-1 defeat against France" ?</v>
       </c>
       <c r="V42" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W42" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X42" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y42" s="22" t="str">
         <f t="shared" si="10"/>
@@ -7743,11 +7721,11 @@
       </c>
       <c r="J43" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L43" s="22">
         <f t="shared" si="12"/>
@@ -7761,43 +7739,43 @@
       </c>
       <c r="O43" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20603042</v>
       </c>
       <c r="P43" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v/>
+        <v>What is the concept of "Her comment was greeted with disbelief" ?</v>
       </c>
       <c r="Q43" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R43" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S43" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T43" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30603042</v>
+        <v/>
       </c>
       <c r="U43" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>What is the meaning of "Her comment was greeted with disbelief" ?</v>
+        <v/>
       </c>
       <c r="V43" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W43" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X43" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y43" s="22" t="str">
         <f t="shared" si="10"/>
@@ -7813,7 +7791,7 @@
       <c r="AD43" s="13"/>
       <c r="AE43" s="13"/>
     </row>
-    <row r="44" ht="24" spans="1:31">
+    <row r="44" ht="35" spans="1:31">
       <c r="A44" s="2">
         <v>6</v>
       </c>
@@ -7839,11 +7817,11 @@
       </c>
       <c r="J44" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L44" s="22">
         <f t="shared" si="12"/>
@@ -7857,43 +7835,43 @@
       </c>
       <c r="O44" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20603043</v>
       </c>
       <c r="P44" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v/>
+        <v>What is the concept of "The word “defeat” never crossed his lips" ?</v>
       </c>
       <c r="Q44" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R44" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S44" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T44" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30603043</v>
+        <v/>
       </c>
       <c r="U44" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>What is the meaning of "The word “defeat” never crossed his lips" ?</v>
+        <v/>
       </c>
       <c r="V44" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W44" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X44" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y44" s="22" t="str">
         <f t="shared" si="10"/>
@@ -7935,11 +7913,11 @@
       </c>
       <c r="J45" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L45" s="22">
         <f t="shared" si="12"/>
@@ -7953,43 +7931,43 @@
       </c>
       <c r="O45" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20603044</v>
+        <v/>
       </c>
       <c r="P45" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v>What is the concept of "Tiger’s hopes of winning died on the 17th hole" ?</v>
+        <v/>
       </c>
       <c r="Q45" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R45" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S45" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T45" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30603044</v>
       </c>
       <c r="U45" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>What is the meaning of "Tiger’s hopes of winning died on the 17th hole" ?</v>
       </c>
       <c r="V45" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W45" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X45" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y45" s="22" t="str">
         <f t="shared" si="10"/>
@@ -8005,7 +7983,7 @@
       <c r="AD45" s="13"/>
       <c r="AE45" s="13"/>
     </row>
-    <row r="46" ht="24" spans="1:31">
+    <row r="46" ht="35" spans="1:31">
       <c r="A46" s="2">
         <v>6</v>
       </c>
@@ -8127,11 +8105,11 @@
       </c>
       <c r="J47" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K47" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L47" s="22">
         <f t="shared" si="12"/>
@@ -8145,43 +8123,43 @@
       </c>
       <c r="O47" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20603046</v>
       </c>
       <c r="P47" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v/>
+        <v>What is the concept of "Fear stalks the streets of Chicago" ?</v>
       </c>
       <c r="Q47" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R47" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S47" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T47" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30603046</v>
+        <v/>
       </c>
       <c r="U47" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>What is the meaning of "Fear stalks the streets of Chicago" ?</v>
+        <v/>
       </c>
       <c r="V47" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W47" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X47" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y47" s="22" t="str">
         <f t="shared" si="10"/>
@@ -8197,7 +8175,7 @@
       <c r="AD47" s="13"/>
       <c r="AE47" s="13"/>
     </row>
-    <row r="48" ht="24" spans="1:31">
+    <row r="48" ht="35" spans="1:31">
       <c r="A48" s="2">
         <v>6</v>
       </c>
@@ -8223,11 +8201,11 @@
       </c>
       <c r="J48" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L48" s="22">
         <f t="shared" si="12"/>
@@ -8241,43 +8219,43 @@
       </c>
       <c r="O48" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20603047</v>
       </c>
       <c r="P48" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v/>
+        <v>What is the concept of "The paint-peeled houses sag from neglect" ?</v>
       </c>
       <c r="Q48" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R48" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S48" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T48" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30603047</v>
+        <v/>
       </c>
       <c r="U48" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>What is the meaning of "The paint-peeled houses sag from neglect" ?</v>
+        <v/>
       </c>
       <c r="V48" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W48" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X48" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y48" s="22" t="str">
         <f t="shared" si="10"/>
@@ -8895,11 +8873,11 @@
       </c>
       <c r="J55" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K55" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L55" s="22">
         <f t="shared" si="12"/>
@@ -8913,43 +8891,43 @@
       </c>
       <c r="O55" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20603054</v>
       </c>
       <c r="P55" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v/>
+        <v>What is the concept of "The TV is temperamental" ?</v>
       </c>
       <c r="Q55" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R55" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S55" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T55" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30603054</v>
+        <v/>
       </c>
       <c r="U55" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>What is the meaning of "The TV is temperamental" ?</v>
+        <v/>
       </c>
       <c r="V55" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W55" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X55" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y55" s="22" t="str">
         <f t="shared" si="10"/>
@@ -9061,7 +9039,7 @@
       <c r="AD56" s="13"/>
       <c r="AE56" s="13"/>
     </row>
-    <row r="57" ht="35" spans="1:31">
+    <row r="57" ht="24" spans="1:31">
       <c r="A57" s="2">
         <v>6</v>
       </c>
@@ -9183,11 +9161,11 @@
       </c>
       <c r="J58" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K58" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L58" s="22">
         <f t="shared" si="12"/>
@@ -9201,43 +9179,43 @@
       </c>
       <c r="O58" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20603057</v>
+        <v/>
       </c>
       <c r="P58" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v>What is the concept of "Uncertainty lurks in the markets" ?</v>
+        <v/>
       </c>
       <c r="Q58" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R58" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S58" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T58" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30603057</v>
       </c>
       <c r="U58" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>What is the meaning of "Uncertainty lurks in the markets" ?</v>
       </c>
       <c r="V58" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W58" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X58" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y58" s="22" t="str">
         <f t="shared" si="10"/>
@@ -9637,7 +9615,7 @@
       <c r="AD62" s="13"/>
       <c r="AE62" s="13"/>
     </row>
-    <row r="63" ht="35" spans="1:31">
+    <row r="63" ht="24" spans="1:31">
       <c r="A63" s="2">
         <v>6</v>
       </c>
@@ -9759,11 +9737,11 @@
       </c>
       <c r="J64" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K64" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L64" s="22">
         <f t="shared" si="12"/>
@@ -9777,43 +9755,43 @@
       </c>
       <c r="O64" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20603063</v>
       </c>
       <c r="P64" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v/>
+        <v>What is the concept of "His case fell into a special category" ?</v>
       </c>
       <c r="Q64" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R64" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S64" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T64" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30603063</v>
+        <v/>
       </c>
       <c r="U64" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>What is the meaning of "His case fell into a special category" ?</v>
+        <v/>
       </c>
       <c r="V64" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W64" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X64" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y64" s="22" t="str">
         <f t="shared" si="10"/>
@@ -9855,11 +9833,11 @@
       </c>
       <c r="J65" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K65" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L65" s="22">
         <f t="shared" si="12"/>
@@ -9873,43 +9851,43 @@
       </c>
       <c r="O65" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20603064</v>
+        <v/>
       </c>
       <c r="P65" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v>What is the concept of "Death plays no favorites" ?</v>
+        <v/>
       </c>
       <c r="Q65" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R65" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S65" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T65" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30603064</v>
       </c>
       <c r="U65" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>What is the meaning of "Death plays no favorites" ?</v>
       </c>
       <c r="V65" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W65" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X65" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y65" s="22" t="str">
         <f t="shared" si="10"/>
@@ -10047,11 +10025,11 @@
       </c>
       <c r="J67" s="22">
         <f ca="1" t="shared" ref="J67:J119" si="15">IF(RAND()&gt;=0.5,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K67" s="22">
         <f ca="1" t="shared" ref="K67:K119" si="16">IF(J67&gt;0,0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L67" s="22">
         <f t="shared" ref="L67:L119" si="17">IF(LEN(G67)&gt;30,0,1)</f>
@@ -10065,43 +10043,43 @@
       </c>
       <c r="O67" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20603066</v>
       </c>
       <c r="P67" s="22" t="str">
         <f ca="1" t="shared" ref="P67:P119" si="18">IF(J67=1,CONCATENATE("What is the concept of """,G67,""" ?"),"")</f>
-        <v/>
+        <v>What is the concept of "The sea refuses no river" ?</v>
       </c>
       <c r="Q67" s="22" t="str">
         <f ca="1" t="shared" ref="Q67:Q119" si="19">IF(J67=0,"","wrong option1")</f>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R67" s="22" t="str">
         <f ca="1" t="shared" ref="R67:R119" si="20">IF(J67=0,"","wrong option2")</f>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S67" s="22" t="str">
         <f ca="1" t="shared" ref="S67:S119" si="21">IF(J67=0,"","wrong option3")</f>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T67" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30603066</v>
+        <v/>
       </c>
       <c r="U67" s="22" t="str">
         <f ca="1" t="shared" ref="U67:U119" si="22">IF(K67=1,CONCATENATE("What is the meaning of """,G67,""" ?"),"")</f>
-        <v>What is the meaning of "The sea refuses no river" ?</v>
+        <v/>
       </c>
       <c r="V67" s="22" t="str">
         <f ca="1" t="shared" ref="V67:V119" si="23">IF(K67=0,"","wrong option1")</f>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W67" s="22" t="str">
         <f ca="1" t="shared" ref="W67:W119" si="24">IF(K67=0,"","wrong option2")</f>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X67" s="22" t="str">
         <f ca="1" t="shared" ref="X67:X119" si="25">IF(K67=0,"","wrong option3")</f>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y67" s="22" t="str">
         <f t="shared" ref="Y67:Y119" si="26">IF(L67=1,CONCATENATE("L4",$F67),"")</f>
@@ -10143,11 +10121,11 @@
       </c>
       <c r="J68" s="22">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K68" s="22">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L68" s="22">
         <f t="shared" si="17"/>
@@ -10161,43 +10139,43 @@
       </c>
       <c r="O68" s="22" t="str">
         <f ca="1" t="shared" ref="O68:O119" si="28">IF(J68=1,CONCATENATE("L2",$F68),"")</f>
-        <v/>
+        <v>L20603067</v>
       </c>
       <c r="P68" s="22" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "Religion that is afraid of science dishonors God" ?</v>
       </c>
       <c r="Q68" s="22" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R68" s="22" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S68" s="22" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T68" s="22" t="str">
         <f ca="1" t="shared" ref="T68:T119" si="29">IF(K68=1,CONCATENATE("L3",$F68),"")</f>
-        <v>L30603067</v>
+        <v/>
       </c>
       <c r="U68" s="22" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "Religion that is afraid of science dishonors God" ?</v>
+        <v/>
       </c>
       <c r="V68" s="22" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W68" s="22" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X68" s="22" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y68" s="22" t="str">
         <f t="shared" si="26"/>
@@ -10239,11 +10217,11 @@
       </c>
       <c r="J69" s="22">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K69" s="22">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L69" s="22">
         <f t="shared" si="17"/>
@@ -10257,43 +10235,43 @@
       </c>
       <c r="O69" s="22" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L20603068</v>
       </c>
       <c r="P69" s="22" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "If the weather cooperates, we will have a picnic in the park" ?</v>
       </c>
       <c r="Q69" s="22" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R69" s="22" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S69" s="22" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T69" s="22" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L30603068</v>
+        <v/>
       </c>
       <c r="U69" s="22" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "If the weather cooperates, we will have a picnic in the park" ?</v>
+        <v/>
       </c>
       <c r="V69" s="22" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W69" s="22" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X69" s="22" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y69" s="22" t="str">
         <f t="shared" si="26"/>
@@ -10335,11 +10313,11 @@
       </c>
       <c r="J70" s="22">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K70" s="22">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L70" s="22">
         <f t="shared" si="17"/>
@@ -10353,43 +10331,43 @@
       </c>
       <c r="O70" s="22" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L20603069</v>
+        <v/>
       </c>
       <c r="P70" s="22" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "March will be kinder to Hillary" ?</v>
+        <v/>
       </c>
       <c r="Q70" s="22" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R70" s="22" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S70" s="22" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T70" s="22" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L30603069</v>
       </c>
       <c r="U70" s="22" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "March will be kinder to Hillary" ?</v>
       </c>
       <c r="V70" s="22" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W70" s="22" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X70" s="22" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y70" s="22" t="str">
         <f t="shared" si="26"/>
@@ -10597,7 +10575,7 @@
       <c r="AD72" s="13"/>
       <c r="AE72" s="13"/>
     </row>
-    <row r="73" ht="35" spans="1:31">
+    <row r="73" ht="24" spans="1:31">
       <c r="A73" s="2">
         <v>6</v>
       </c>
@@ -10623,11 +10601,11 @@
       </c>
       <c r="J73" s="22">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K73" s="22">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L73" s="22">
         <f t="shared" si="17"/>
@@ -10641,43 +10619,43 @@
       </c>
       <c r="O73" s="22" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L20603072</v>
+        <v/>
       </c>
       <c r="P73" s="22" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "For Boris March 1 promised humiliation" ?</v>
+        <v/>
       </c>
       <c r="Q73" s="22" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R73" s="22" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S73" s="22" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T73" s="22" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L30603072</v>
       </c>
       <c r="U73" s="22" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "For Boris March 1 promised humiliation" ?</v>
       </c>
       <c r="V73" s="22" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W73" s="22" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X73" s="22" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y73" s="22" t="str">
         <f t="shared" si="26"/>
@@ -10815,11 +10793,11 @@
       </c>
       <c r="J75" s="22">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K75" s="22">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L75" s="22">
         <f t="shared" si="17"/>
@@ -10833,43 +10811,43 @@
       </c>
       <c r="O75" s="22" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L20603074</v>
       </c>
       <c r="P75" s="22" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "America is in a temper tantrum" ?</v>
       </c>
       <c r="Q75" s="22" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R75" s="22" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S75" s="22" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T75" s="22" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L30603074</v>
+        <v/>
       </c>
       <c r="U75" s="22" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "America is in a temper tantrum" ?</v>
+        <v/>
       </c>
       <c r="V75" s="22" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W75" s="22" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X75" s="22" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y75" s="22" t="str">
         <f t="shared" si="26"/>
@@ -11007,11 +10985,11 @@
       </c>
       <c r="J77" s="22">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K77" s="22">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L77" s="22">
         <f t="shared" si="17"/>
@@ -11025,43 +11003,43 @@
       </c>
       <c r="O77" s="22" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L20603076</v>
+        <v/>
       </c>
       <c r="P77" s="22" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "English football is run by money" ?</v>
+        <v/>
       </c>
       <c r="Q77" s="22" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R77" s="22" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S77" s="22" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T77" s="22" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L30603076</v>
       </c>
       <c r="U77" s="22" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "English football is run by money" ?</v>
       </c>
       <c r="V77" s="22" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W77" s="22" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X77" s="22" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y77" s="22" t="str">
         <f t="shared" si="26"/>
@@ -11103,11 +11081,11 @@
       </c>
       <c r="J78" s="22">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K78" s="22">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L78" s="22">
         <f t="shared" si="17"/>
@@ -11121,43 +11099,43 @@
       </c>
       <c r="O78" s="22" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L20603077</v>
       </c>
       <c r="P78" s="22" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "The virus does not discriminate" ?</v>
       </c>
       <c r="Q78" s="22" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R78" s="22" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S78" s="22" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T78" s="22" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L30603077</v>
+        <v/>
       </c>
       <c r="U78" s="22" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "The virus does not discriminate" ?</v>
+        <v/>
       </c>
       <c r="V78" s="22" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W78" s="22" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X78" s="22" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y78" s="22" t="str">
         <f t="shared" si="26"/>
@@ -11173,7 +11151,7 @@
       <c r="AD78" s="13"/>
       <c r="AE78" s="13"/>
     </row>
-    <row r="79" ht="24" spans="1:31">
+    <row r="79" ht="35" spans="1:31">
       <c r="A79" s="2">
         <v>6</v>
       </c>
@@ -11269,7 +11247,7 @@
       <c r="AD79" s="13"/>
       <c r="AE79" s="13"/>
     </row>
-    <row r="80" ht="35" spans="1:31">
+    <row r="80" ht="47" spans="1:31">
       <c r="A80" s="2">
         <v>6</v>
       </c>
@@ -11295,11 +11273,11 @@
       </c>
       <c r="J80" s="22">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K80" s="22">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L80" s="22">
         <f t="shared" si="17"/>
@@ -11313,43 +11291,43 @@
       </c>
       <c r="O80" s="22" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L20603079</v>
       </c>
       <c r="P80" s="22" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "Sun Yat Sen dragged China kicking and screaming into the 20th century" ?</v>
       </c>
       <c r="Q80" s="22" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R80" s="22" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S80" s="22" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T80" s="22" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L30603079</v>
+        <v/>
       </c>
       <c r="U80" s="22" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "Sun Yat Sen dragged China kicking and screaming into the 20th century" ?</v>
+        <v/>
       </c>
       <c r="V80" s="22" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W80" s="22" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X80" s="22" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y80" s="22" t="str">
         <f t="shared" si="26"/>
@@ -11391,11 +11369,11 @@
       </c>
       <c r="J81" s="22">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K81" s="22">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L81" s="22">
         <f t="shared" si="17"/>
@@ -11409,43 +11387,43 @@
       </c>
       <c r="O81" s="22" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L20603080</v>
+        <v/>
       </c>
       <c r="P81" s="22" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "Age is creeping up on me" ?</v>
+        <v/>
       </c>
       <c r="Q81" s="22" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R81" s="22" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S81" s="22" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T81" s="22" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L30603080</v>
       </c>
       <c r="U81" s="22" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "Age is creeping up on me" ?</v>
       </c>
       <c r="V81" s="22" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W81" s="22" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X81" s="22" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y81" s="22" t="str">
         <f t="shared" si="26"/>
@@ -11653,7 +11631,7 @@
       <c r="AD83" s="13"/>
       <c r="AE83" s="13"/>
     </row>
-    <row r="84" ht="35" spans="1:31">
+    <row r="84" ht="24" spans="1:31">
       <c r="A84" s="2">
         <v>6</v>
       </c>
@@ -11871,11 +11849,11 @@
       </c>
       <c r="J86" s="22">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K86" s="22">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L86" s="22">
         <f t="shared" si="17"/>
@@ -11889,43 +11867,43 @@
       </c>
       <c r="O86" s="22" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L20604085</v>
+        <v/>
       </c>
       <c r="P86" s="22" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "Money is running low and time is running out" ?</v>
+        <v/>
       </c>
       <c r="Q86" s="22" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R86" s="22" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S86" s="22" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T86" s="22" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L30604085</v>
       </c>
       <c r="U86" s="22" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "Money is running low and time is running out" ?</v>
       </c>
       <c r="V86" s="22" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W86" s="22" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X86" s="22" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y86" s="22" t="str">
         <f t="shared" si="26"/>
@@ -11967,11 +11945,11 @@
       </c>
       <c r="J87" s="22">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K87" s="22">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L87" s="22">
         <f t="shared" si="17"/>
@@ -11985,43 +11963,43 @@
       </c>
       <c r="O87" s="22" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L20604086</v>
       </c>
       <c r="P87" s="22" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "He has the will to do and the soul to dare" ?</v>
       </c>
       <c r="Q87" s="22" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R87" s="22" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S87" s="22" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T87" s="22" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L30604086</v>
+        <v/>
       </c>
       <c r="U87" s="22" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "He has the will to do and the soul to dare" ?</v>
+        <v/>
       </c>
       <c r="V87" s="22" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W87" s="22" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X87" s="22" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y87" s="22" t="str">
         <f t="shared" si="26"/>
@@ -12037,7 +12015,7 @@
       <c r="AD87" s="13"/>
       <c r="AE87" s="13"/>
     </row>
-    <row r="88" ht="35" spans="1:31">
+    <row r="88" ht="24" spans="1:31">
       <c r="A88" s="2">
         <v>6</v>
       </c>
@@ -12255,11 +12233,11 @@
       </c>
       <c r="J90" s="22">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K90" s="22">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L90" s="22">
         <f t="shared" si="17"/>
@@ -12273,43 +12251,43 @@
       </c>
       <c r="O90" s="22" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L20604089</v>
+        <v/>
       </c>
       <c r="P90" s="22" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "Why is it that so few have so much and so many have so little" ?</v>
+        <v/>
       </c>
       <c r="Q90" s="22" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R90" s="22" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S90" s="22" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T90" s="22" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L30604089</v>
       </c>
       <c r="U90" s="22" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "Why is it that so few have so much and so many have so little" ?</v>
       </c>
       <c r="V90" s="22" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W90" s="22" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X90" s="22" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y90" s="22" t="str">
         <f t="shared" si="26"/>
@@ -12351,11 +12329,11 @@
       </c>
       <c r="J91" s="22">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K91" s="22">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L91" s="22">
         <f t="shared" si="17"/>
@@ -12369,43 +12347,43 @@
       </c>
       <c r="O91" s="22" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L20604090</v>
       </c>
       <c r="P91" s="22" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "We know the face, but do we know the man?" ?</v>
       </c>
       <c r="Q91" s="22" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R91" s="22" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S91" s="22" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T91" s="22" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L30604090</v>
+        <v/>
       </c>
       <c r="U91" s="22" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "We know the face, but do we know the man?" ?</v>
+        <v/>
       </c>
       <c r="V91" s="22" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W91" s="22" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X91" s="22" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y91" s="22" t="str">
         <f t="shared" si="26"/>
@@ -12447,11 +12425,11 @@
       </c>
       <c r="J92" s="22">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K92" s="22">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L92" s="22">
         <f t="shared" si="17"/>
@@ -12465,43 +12443,43 @@
       </c>
       <c r="O92" s="22" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L20604091</v>
+        <v/>
       </c>
       <c r="P92" s="22" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "Last time, I came by accident. This time I came on purpose" ?</v>
+        <v/>
       </c>
       <c r="Q92" s="22" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R92" s="22" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S92" s="22" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T92" s="22" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L30604091</v>
       </c>
       <c r="U92" s="22" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "Last time, I came by accident. This time I came on purpose" ?</v>
       </c>
       <c r="V92" s="22" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W92" s="22" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X92" s="22" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y92" s="22" t="str">
         <f t="shared" si="26"/>
@@ -13093,7 +13071,7 @@
       <c r="AD98" s="13"/>
       <c r="AE98" s="13"/>
     </row>
-    <row r="99" ht="35" spans="1:31">
+    <row r="99" ht="47" spans="1:31">
       <c r="A99" s="2">
         <v>6</v>
       </c>
@@ -13215,11 +13193,11 @@
       </c>
       <c r="J100" s="22">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K100" s="22">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L100" s="22">
         <f t="shared" si="17"/>
@@ -13233,43 +13211,43 @@
       </c>
       <c r="O100" s="22" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L20605099</v>
       </c>
       <c r="P100" s="22" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "Perfection is like chasing the horizon" ?</v>
       </c>
       <c r="Q100" s="22" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R100" s="22" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S100" s="22" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T100" s="22" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L30605099</v>
+        <v/>
       </c>
       <c r="U100" s="22" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "Perfection is like chasing the horizon" ?</v>
+        <v/>
       </c>
       <c r="V100" s="22" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W100" s="22" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X100" s="22" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y100" s="22" t="str">
         <f t="shared" si="26"/>
@@ -13311,11 +13289,11 @@
       </c>
       <c r="J101" s="22">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K101" s="22">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L101" s="22">
         <f t="shared" si="17"/>
@@ -13329,43 +13307,43 @@
       </c>
       <c r="O101" s="22" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L20605100</v>
       </c>
       <c r="P101" s="22" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "He is like dandruff. You can’t get rid of him" ?</v>
       </c>
       <c r="Q101" s="22" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R101" s="22" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S101" s="22" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T101" s="22" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L30605100</v>
+        <v/>
       </c>
       <c r="U101" s="22" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "He is like dandruff. You can’t get rid of him" ?</v>
+        <v/>
       </c>
       <c r="V101" s="22" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W101" s="22" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X101" s="22" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y101" s="22" t="str">
         <f t="shared" si="26"/>
@@ -13503,11 +13481,11 @@
       </c>
       <c r="J103" s="22">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K103" s="22">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L103" s="22">
         <f t="shared" si="17"/>
@@ -13521,43 +13499,43 @@
       </c>
       <c r="O103" s="22" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L20605102</v>
+        <v/>
       </c>
       <c r="P103" s="22" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "Playing for third place is like kissing your sister" ?</v>
+        <v/>
       </c>
       <c r="Q103" s="22" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R103" s="22" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S103" s="22" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T103" s="22" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L30605102</v>
       </c>
       <c r="U103" s="22" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "Playing for third place is like kissing your sister" ?</v>
       </c>
       <c r="V103" s="22" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W103" s="22" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X103" s="22" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y103" s="22" t="str">
         <f t="shared" si="26"/>
@@ -13791,11 +13769,11 @@
       </c>
       <c r="J106" s="22">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K106" s="22">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L106" s="22">
         <f t="shared" si="17"/>
@@ -13809,43 +13787,43 @@
       </c>
       <c r="O106" s="22" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L20605105</v>
+        <v/>
       </c>
       <c r="P106" s="22" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "run like the wind" ?</v>
+        <v/>
       </c>
       <c r="Q106" s="22" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R106" s="22" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S106" s="22" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T106" s="22" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L30605105</v>
       </c>
       <c r="U106" s="22" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "run like the wind" ?</v>
       </c>
       <c r="V106" s="22" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W106" s="22" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X106" s="22" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y106" s="22" t="str">
         <f t="shared" si="26"/>
@@ -13983,11 +13961,11 @@
       </c>
       <c r="J108" s="22">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K108" s="22">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L108" s="22">
         <f t="shared" si="17"/>
@@ -14001,43 +13979,43 @@
       </c>
       <c r="O108" s="22" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L20605107</v>
+        <v/>
       </c>
       <c r="P108" s="22" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "Our border is like Swiss cheese" ?</v>
+        <v/>
       </c>
       <c r="Q108" s="22" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R108" s="22" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S108" s="22" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T108" s="22" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L30605107</v>
       </c>
       <c r="U108" s="22" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "Our border is like Swiss cheese" ?</v>
       </c>
       <c r="V108" s="22" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W108" s="22" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X108" s="22" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y108" s="22" t="str">
         <f t="shared" si="26"/>
@@ -14079,11 +14057,11 @@
       </c>
       <c r="J109" s="22">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K109" s="22">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L109" s="22">
         <f t="shared" si="17"/>
@@ -14097,43 +14075,43 @@
       </c>
       <c r="O109" s="22" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L20606108</v>
+        <v/>
       </c>
       <c r="P109" s="22" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "I am running late" ?</v>
+        <v/>
       </c>
       <c r="Q109" s="22" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R109" s="22" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S109" s="22" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T109" s="22" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L30606108</v>
       </c>
       <c r="U109" s="22" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "I am running late" ?</v>
       </c>
       <c r="V109" s="22" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W109" s="22" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X109" s="22" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y109" s="22" t="str">
         <f t="shared" si="26"/>
@@ -14271,11 +14249,11 @@
       </c>
       <c r="J111" s="22">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K111" s="22">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L111" s="22">
         <f t="shared" si="17"/>
@@ -14289,43 +14267,43 @@
       </c>
       <c r="O111" s="22" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L20606110</v>
+        <v/>
       </c>
       <c r="P111" s="22" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "My budget doesn’t stretch to shark fins" ?</v>
+        <v/>
       </c>
       <c r="Q111" s="22" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R111" s="22" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S111" s="22" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T111" s="22" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L30606110</v>
       </c>
       <c r="U111" s="22" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "My budget doesn’t stretch to shark fins" ?</v>
       </c>
       <c r="V111" s="22" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W111" s="22" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X111" s="22" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y111" s="22" t="str">
         <f t="shared" si="26"/>
@@ -14341,7 +14319,7 @@
       <c r="AD111" s="13"/>
       <c r="AE111" s="13"/>
     </row>
-    <row r="112" ht="35" spans="1:31">
+    <row r="112" ht="24" spans="1:31">
       <c r="A112" s="2">
         <v>6</v>
       </c>
@@ -14463,11 +14441,11 @@
       </c>
       <c r="J113" s="22">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K113" s="22">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L113" s="22">
         <f t="shared" si="17"/>
@@ -14481,43 +14459,43 @@
       </c>
       <c r="O113" s="22" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L20606112</v>
+        <v/>
       </c>
       <c r="P113" s="22" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "The new policy doesn’t sit well with the voters" ?</v>
+        <v/>
       </c>
       <c r="Q113" s="22" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R113" s="22" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S113" s="22" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T113" s="22" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L30606112</v>
       </c>
       <c r="U113" s="22" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "The new policy doesn’t sit well with the voters" ?</v>
       </c>
       <c r="V113" s="22" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W113" s="22" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X113" s="22" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y113" s="22" t="str">
         <f t="shared" si="26"/>
@@ -14751,11 +14729,11 @@
       </c>
       <c r="J116" s="22">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K116" s="22">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L116" s="22">
         <f t="shared" si="17"/>
@@ -14769,43 +14747,43 @@
       </c>
       <c r="O116" s="22" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L20606115</v>
       </c>
       <c r="P116" s="22" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "I am drowning in debt" ?</v>
       </c>
       <c r="Q116" s="22" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R116" s="22" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S116" s="22" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T116" s="22" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L30606115</v>
+        <v/>
       </c>
       <c r="U116" s="22" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "I am drowning in debt" ?</v>
+        <v/>
       </c>
       <c r="V116" s="22" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W116" s="22" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X116" s="22" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y116" s="22" t="str">
         <f t="shared" si="26"/>
@@ -14943,11 +14921,11 @@
       </c>
       <c r="J118" s="22">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K118" s="22">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L118" s="22">
         <f t="shared" si="17"/>
@@ -14961,43 +14939,43 @@
       </c>
       <c r="O118" s="22" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L20606117</v>
+        <v/>
       </c>
       <c r="P118" s="22" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "He jumps at the chance" ?</v>
+        <v/>
       </c>
       <c r="Q118" s="22" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R118" s="22" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S118" s="22" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T118" s="22" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L30606117</v>
       </c>
       <c r="U118" s="22" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "He jumps at the chance" ?</v>
       </c>
       <c r="V118" s="22" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W118" s="22" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X118" s="22" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y118" s="22" t="str">
         <f t="shared" si="26"/>
@@ -15039,11 +15017,11 @@
       </c>
       <c r="J119" s="22">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K119" s="22">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L119" s="22">
         <f t="shared" si="17"/>
@@ -15057,43 +15035,43 @@
       </c>
       <c r="O119" s="22" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L20606118</v>
       </c>
       <c r="P119" s="22" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "He drinks it all in" ?</v>
       </c>
       <c r="Q119" s="22" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R119" s="22" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S119" s="22" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T119" s="22" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L30606118</v>
+        <v/>
       </c>
       <c r="U119" s="22" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "He drinks it all in" ?</v>
+        <v/>
       </c>
       <c r="V119" s="22" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W119" s="22" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X119" s="22" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y119" s="22" t="str">
         <f t="shared" si="26"/>

--- a/miniproject/template/Lectures/Lecture 6.xlsx
+++ b/miniproject/template/Lectures/Lecture 6.xlsx
@@ -44,6 +44,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>Meaning</t>
     </r>
     <r>
@@ -2389,9 +2396,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="36">
@@ -2483,14 +2490,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -2498,8 +2497,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2520,10 +2534,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2536,7 +2559,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -2545,7 +2568,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2553,21 +2576,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2588,9 +2596,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2599,29 +2629,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2692,7 +2699,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2704,31 +2747,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2740,55 +2789,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2806,31 +2813,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2842,37 +2843,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2996,6 +3003,15 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -3016,16 +3032,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -3046,26 +3062,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3083,145 +3090,145 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="35" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -3647,8 +3654,8 @@
   <sheetPr/>
   <dimension ref="A1:AE215"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="134" zoomScaleNormal="134" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:I1"/>
+    <sheetView tabSelected="1" zoomScale="134" zoomScaleNormal="134" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.63392857142857" defaultRowHeight="11.6"/>
@@ -3785,11 +3792,11 @@
       </c>
       <c r="J2" s="22">
         <f ca="1">IF(RAND()&gt;=0.5,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" s="22">
         <f ca="1">IF(J2&gt;0,0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" s="22">
         <f>IF(LEN(G2)&gt;30,0,1)</f>
@@ -3803,43 +3810,43 @@
       </c>
       <c r="O2" s="22" t="str">
         <f ca="1">IF(J2=1,CONCATENATE("L2",$M4),"")</f>
-        <v>L20</v>
+        <v/>
       </c>
       <c r="P2" s="22" t="str">
         <f ca="1">IF(J2=1,CONCATENATE("What is the concept of """,G2,""" ?"),"")</f>
-        <v>What is the concept of "The audience is the 12th man of the team" ?</v>
+        <v/>
       </c>
       <c r="Q2" s="22" t="str">
         <f ca="1">IF(J2=0,"","wrong option1")</f>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R2" s="22" t="str">
         <f ca="1">IF(J2=0,"","wrong option2")</f>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S2" s="22" t="str">
         <f ca="1">IF(J2=0,"","wrong option3")</f>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T2" s="22" t="str">
         <f ca="1">IF(K2=1,CONCATENATE("L3",$F2),"")</f>
-        <v/>
+        <v>L30601001</v>
       </c>
       <c r="U2" s="22" t="str">
         <f ca="1">IF(K2=1,CONCATENATE("What is the meaning of """,G2,""" ?"),"")</f>
-        <v/>
+        <v>What is the meaning of "The audience is the 12th man of the team" ?</v>
       </c>
       <c r="V2" s="22" t="str">
         <f ca="1">IF(K2=0,"","wrong option1")</f>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W2" s="22" t="str">
         <f ca="1">IF(K2=0,"","wrong option2")</f>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X2" s="22" t="str">
         <f ca="1">IF(K2=0,"","wrong option3")</f>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y2" s="22" t="str">
         <f>IF(L2=1,CONCATENATE("L4",$F2),"")</f>
@@ -4072,11 +4079,11 @@
       </c>
       <c r="J5" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="22">
         <f t="shared" si="12"/>
@@ -4090,43 +4097,43 @@
       </c>
       <c r="O5" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20601004</v>
       </c>
       <c r="P5" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v/>
+        <v>What is the concept of "The hand that rocks the cradle rules the world" ?</v>
       </c>
       <c r="Q5" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R5" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S5" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T5" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30601004</v>
+        <v/>
       </c>
       <c r="U5" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>What is the meaning of "The hand that rocks the cradle rules the world" ?</v>
+        <v/>
       </c>
       <c r="V5" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W5" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X5" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y5" s="22" t="str">
         <f t="shared" si="10"/>
@@ -4264,11 +4271,11 @@
       </c>
       <c r="J7" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="22">
         <f t="shared" si="12"/>
@@ -4282,43 +4289,43 @@
       </c>
       <c r="O7" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20601006</v>
+        <v/>
       </c>
       <c r="P7" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v>What is the concept of "nosebleed seats" ?</v>
+        <v/>
       </c>
       <c r="Q7" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R7" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S7" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T7" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30601006</v>
       </c>
       <c r="U7" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>What is the meaning of "nosebleed seats" ?</v>
       </c>
       <c r="V7" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W7" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X7" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y7" s="22" t="str">
         <f t="shared" si="10"/>
@@ -4360,11 +4367,11 @@
       </c>
       <c r="J8" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="22">
         <f t="shared" si="12"/>
@@ -4378,43 +4385,43 @@
       </c>
       <c r="O8" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20601007</v>
       </c>
       <c r="P8" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v/>
+        <v>What is the concept of "The gloves are off" ?</v>
       </c>
       <c r="Q8" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R8" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S8" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T8" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30601007</v>
+        <v/>
       </c>
       <c r="U8" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>What is the meaning of "The gloves are off" ?</v>
+        <v/>
       </c>
       <c r="V8" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W8" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X8" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y8" s="22" t="str">
         <f t="shared" si="10"/>
@@ -4456,11 +4463,11 @@
       </c>
       <c r="J9" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" s="22">
         <f t="shared" si="12"/>
@@ -4474,43 +4481,43 @@
       </c>
       <c r="O9" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20601008</v>
       </c>
       <c r="P9" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v/>
+        <v>What is the concept of "There are two people in this case. One of them is lying" ?</v>
       </c>
       <c r="Q9" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R9" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S9" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T9" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30601008</v>
+        <v/>
       </c>
       <c r="U9" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>What is the meaning of "There are two people in this case. One of them is lying" ?</v>
+        <v/>
       </c>
       <c r="V9" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W9" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X9" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y9" s="22" t="str">
         <f t="shared" si="10"/>
@@ -4648,11 +4655,11 @@
       </c>
       <c r="J11" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" s="22">
         <f t="shared" si="12"/>
@@ -4666,43 +4673,43 @@
       </c>
       <c r="O11" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20601010</v>
       </c>
       <c r="P11" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v/>
+        <v>What is the concept of "I like to kill him. Join the club" ?</v>
       </c>
       <c r="Q11" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R11" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S11" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T11" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30601010</v>
+        <v/>
       </c>
       <c r="U11" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>What is the meaning of "I like to kill him. Join the club" ?</v>
+        <v/>
       </c>
       <c r="V11" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W11" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X11" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y11" s="22" t="str">
         <f t="shared" si="10"/>
@@ -4937,11 +4944,11 @@
       </c>
       <c r="J14" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" s="22">
         <f t="shared" si="12"/>
@@ -4955,43 +4962,43 @@
       </c>
       <c r="O14" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20601013</v>
       </c>
       <c r="P14" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v/>
+        <v>What is the concept of "The apple does not fall far from the tree" ?</v>
       </c>
       <c r="Q14" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R14" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S14" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T14" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30601013</v>
+        <v/>
       </c>
       <c r="U14" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>What is the meaning of "The apple does not fall far from the tree" ?</v>
+        <v/>
       </c>
       <c r="V14" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W14" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X14" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y14" s="22" t="str">
         <f t="shared" si="10"/>
@@ -5129,11 +5136,11 @@
       </c>
       <c r="J16" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="22">
         <f t="shared" si="12"/>
@@ -5147,43 +5154,43 @@
       </c>
       <c r="O16" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20601015</v>
+        <v/>
       </c>
       <c r="P16" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v>What is the concept of "This is something for the rocking chair" ?</v>
+        <v/>
       </c>
       <c r="Q16" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R16" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S16" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T16" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30601015</v>
       </c>
       <c r="U16" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>What is the meaning of "This is something for the rocking chair" ?</v>
       </c>
       <c r="V16" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W16" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X16" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y16" s="22" t="str">
         <f t="shared" si="10"/>
@@ -5513,11 +5520,11 @@
       </c>
       <c r="J20" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" s="22">
         <f t="shared" si="12"/>
@@ -5531,43 +5538,43 @@
       </c>
       <c r="O20" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20602019</v>
       </c>
       <c r="P20" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v/>
+        <v>What is the concept of "Never is a long time." ?</v>
       </c>
       <c r="Q20" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R20" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S20" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T20" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30602019</v>
+        <v/>
       </c>
       <c r="U20" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>What is the meaning of "Never is a long time." ?</v>
+        <v/>
       </c>
       <c r="V20" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W20" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X20" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y20" s="22" t="str">
         <f t="shared" si="10"/>
@@ -5583,7 +5590,7 @@
       <c r="AD20" s="13"/>
       <c r="AE20" s="13"/>
     </row>
-    <row r="21" ht="24" spans="1:31">
+    <row r="21" ht="35" spans="1:31">
       <c r="A21" s="2">
         <v>6</v>
       </c>
@@ -5801,11 +5808,11 @@
       </c>
       <c r="J23" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" s="22">
         <f t="shared" si="12"/>
@@ -5819,43 +5826,43 @@
       </c>
       <c r="O23" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20602022</v>
       </c>
       <c r="P23" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v/>
+        <v>What is the concept of "Kindness is a choice" ?</v>
       </c>
       <c r="Q23" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R23" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S23" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T23" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30602022</v>
+        <v/>
       </c>
       <c r="U23" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>What is the meaning of "Kindness is a choice" ?</v>
+        <v/>
       </c>
       <c r="V23" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W23" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X23" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y23" s="22" t="str">
         <f t="shared" si="10"/>
@@ -5871,7 +5878,7 @@
       <c r="AD23" s="13"/>
       <c r="AE23" s="13"/>
     </row>
-    <row r="24" ht="35" spans="1:31">
+    <row r="24" ht="24" spans="1:31">
       <c r="A24" s="2">
         <v>6</v>
       </c>
@@ -5897,11 +5904,11 @@
       </c>
       <c r="J24" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" s="22">
         <f t="shared" si="12"/>
@@ -5915,43 +5922,43 @@
       </c>
       <c r="O24" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20602023</v>
+        <v/>
       </c>
       <c r="P24" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v>What is the concept of "Imitation is the sincerest form of flattery" ?</v>
+        <v/>
       </c>
       <c r="Q24" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R24" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S24" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T24" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30602023</v>
       </c>
       <c r="U24" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>What is the meaning of "Imitation is the sincerest form of flattery" ?</v>
       </c>
       <c r="V24" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W24" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X24" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y24" s="22" t="str">
         <f t="shared" si="10"/>
@@ -6185,11 +6192,11 @@
       </c>
       <c r="J27" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" s="22">
         <f t="shared" si="12"/>
@@ -6203,43 +6210,43 @@
       </c>
       <c r="O27" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20602026</v>
+        <v/>
       </c>
       <c r="P27" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v>What is the concept of "Teachers are engineers of the human soul " ?</v>
+        <v/>
       </c>
       <c r="Q27" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R27" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S27" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T27" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30602026</v>
       </c>
       <c r="U27" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>What is the meaning of "Teachers are engineers of the human soul " ?</v>
       </c>
       <c r="V27" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W27" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X27" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y27" s="22" t="str">
         <f t="shared" si="10"/>
@@ -6377,11 +6384,11 @@
       </c>
       <c r="J29" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" s="22">
         <f t="shared" si="12"/>
@@ -6395,43 +6402,43 @@
       </c>
       <c r="O29" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20602028</v>
+        <v/>
       </c>
       <c r="P29" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v>What is the concept of "Democracy is not a spectator sport" ?</v>
+        <v/>
       </c>
       <c r="Q29" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R29" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S29" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T29" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30602028</v>
       </c>
       <c r="U29" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>What is the meaning of "Democracy is not a spectator sport" ?</v>
       </c>
       <c r="V29" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W29" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X29" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y29" s="22" t="str">
         <f t="shared" si="10"/>
@@ -6665,11 +6672,11 @@
       </c>
       <c r="J32" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L32" s="22">
         <f t="shared" si="12"/>
@@ -6683,43 +6690,43 @@
       </c>
       <c r="O32" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20603031</v>
       </c>
       <c r="P32" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v/>
+        <v>What is the concept of "The marriage staggered on for another 3 years" ?</v>
       </c>
       <c r="Q32" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R32" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S32" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T32" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30603031</v>
+        <v/>
       </c>
       <c r="U32" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>What is the meaning of "The marriage staggered on for another 3 years" ?</v>
+        <v/>
       </c>
       <c r="V32" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W32" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X32" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y32" s="22" t="str">
         <f t="shared" si="10"/>
@@ -6735,7 +6742,7 @@
       <c r="AD32" s="13"/>
       <c r="AE32" s="13"/>
     </row>
-    <row r="33" ht="24" spans="1:31">
+    <row r="33" ht="35" spans="1:31">
       <c r="A33" s="2">
         <v>6</v>
       </c>
@@ -6857,11 +6864,11 @@
       </c>
       <c r="J34" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L34" s="22">
         <f t="shared" si="12"/>
@@ -6875,43 +6882,43 @@
       </c>
       <c r="O34" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20603033</v>
       </c>
       <c r="P34" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v/>
+        <v>What is the concept of "Britain limps back to work after the lockdown" ?</v>
       </c>
       <c r="Q34" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R34" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S34" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T34" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30603033</v>
+        <v/>
       </c>
       <c r="U34" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>What is the meaning of "Britain limps back to work after the lockdown" ?</v>
+        <v/>
       </c>
       <c r="V34" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W34" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X34" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y34" s="22" t="str">
         <f t="shared" si="10"/>
@@ -6953,11 +6960,11 @@
       </c>
       <c r="J35" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L35" s="22">
         <f t="shared" si="12"/>
@@ -6971,43 +6978,43 @@
       </c>
       <c r="O35" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20603034</v>
       </c>
       <c r="P35" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v/>
+        <v>What is the concept of "Her clothes whisper her wealth discreetly" ?</v>
       </c>
       <c r="Q35" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R35" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S35" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T35" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30603034</v>
+        <v/>
       </c>
       <c r="U35" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>What is the meaning of "Her clothes whisper her wealth discreetly" ?</v>
+        <v/>
       </c>
       <c r="V35" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W35" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X35" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y35" s="22" t="str">
         <f t="shared" si="10"/>
@@ -7049,11 +7056,11 @@
       </c>
       <c r="J36" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L36" s="22">
         <f t="shared" si="12"/>
@@ -7067,43 +7074,43 @@
       </c>
       <c r="O36" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20603035</v>
       </c>
       <c r="P36" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v/>
+        <v>What is the concept of "The streets are humming again" ?</v>
       </c>
       <c r="Q36" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R36" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S36" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T36" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30603035</v>
+        <v/>
       </c>
       <c r="U36" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>What is the meaning of "The streets are humming again" ?</v>
+        <v/>
       </c>
       <c r="V36" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W36" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X36" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y36" s="22" t="str">
         <f t="shared" si="10"/>
@@ -7311,7 +7318,7 @@
       <c r="AD38" s="13"/>
       <c r="AE38" s="13"/>
     </row>
-    <row r="39" ht="35" spans="1:31">
+    <row r="39" ht="24" spans="1:31">
       <c r="A39" s="2">
         <v>6</v>
       </c>
@@ -7337,11 +7344,11 @@
       </c>
       <c r="J39" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39" s="22">
         <f t="shared" si="12"/>
@@ -7355,43 +7362,43 @@
       </c>
       <c r="O39" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20603038</v>
+        <v/>
       </c>
       <c r="P39" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v>What is the concept of "Venice licks its wounds after the floods" ?</v>
+        <v/>
       </c>
       <c r="Q39" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R39" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S39" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T39" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30603038</v>
       </c>
       <c r="U39" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>What is the meaning of "Venice licks its wounds after the floods" ?</v>
       </c>
       <c r="V39" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W39" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X39" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y39" s="22" t="str">
         <f t="shared" si="10"/>
@@ -7625,11 +7632,11 @@
       </c>
       <c r="J42" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L42" s="22">
         <f t="shared" si="12"/>
@@ -7643,43 +7650,43 @@
       </c>
       <c r="O42" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20603041</v>
       </c>
       <c r="P42" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v/>
+        <v>What is the concept of "England slumped to a 2-1 defeat against France" ?</v>
       </c>
       <c r="Q42" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R42" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S42" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T42" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30603041</v>
+        <v/>
       </c>
       <c r="U42" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>What is the meaning of "England slumped to a 2-1 defeat against France" ?</v>
+        <v/>
       </c>
       <c r="V42" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W42" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X42" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y42" s="22" t="str">
         <f t="shared" si="10"/>
@@ -7791,7 +7798,7 @@
       <c r="AD43" s="13"/>
       <c r="AE43" s="13"/>
     </row>
-    <row r="44" ht="35" spans="1:31">
+    <row r="44" ht="24" spans="1:31">
       <c r="A44" s="2">
         <v>6</v>
       </c>
@@ -7817,11 +7824,11 @@
       </c>
       <c r="J44" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L44" s="22">
         <f t="shared" si="12"/>
@@ -7835,43 +7842,43 @@
       </c>
       <c r="O44" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20603043</v>
+        <v/>
       </c>
       <c r="P44" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v>What is the concept of "The word “defeat” never crossed his lips" ?</v>
+        <v/>
       </c>
       <c r="Q44" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R44" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S44" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T44" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30603043</v>
       </c>
       <c r="U44" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>What is the meaning of "The word “defeat” never crossed his lips" ?</v>
       </c>
       <c r="V44" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W44" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X44" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y44" s="22" t="str">
         <f t="shared" si="10"/>
@@ -7913,11 +7920,11 @@
       </c>
       <c r="J45" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45" s="22">
         <f t="shared" si="12"/>
@@ -7931,43 +7938,43 @@
       </c>
       <c r="O45" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20603044</v>
       </c>
       <c r="P45" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v/>
+        <v>What is the concept of "Tiger’s hopes of winning died on the 17th hole" ?</v>
       </c>
       <c r="Q45" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R45" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S45" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T45" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30603044</v>
+        <v/>
       </c>
       <c r="U45" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>What is the meaning of "Tiger’s hopes of winning died on the 17th hole" ?</v>
+        <v/>
       </c>
       <c r="V45" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W45" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X45" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y45" s="22" t="str">
         <f t="shared" si="10"/>
@@ -8009,11 +8016,11 @@
       </c>
       <c r="J46" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L46" s="22">
         <f t="shared" si="12"/>
@@ -8027,43 +8034,43 @@
       </c>
       <c r="O46" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20603045</v>
       </c>
       <c r="P46" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v/>
+        <v>What is the concept of "Call me if your conscience returns" ?</v>
       </c>
       <c r="Q46" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R46" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S46" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T46" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30603045</v>
+        <v/>
       </c>
       <c r="U46" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>What is the meaning of "Call me if your conscience returns" ?</v>
+        <v/>
       </c>
       <c r="V46" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W46" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X46" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y46" s="22" t="str">
         <f t="shared" si="10"/>
@@ -8105,11 +8112,11 @@
       </c>
       <c r="J47" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K47" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L47" s="22">
         <f t="shared" si="12"/>
@@ -8123,43 +8130,43 @@
       </c>
       <c r="O47" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20603046</v>
+        <v/>
       </c>
       <c r="P47" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v>What is the concept of "Fear stalks the streets of Chicago" ?</v>
+        <v/>
       </c>
       <c r="Q47" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R47" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S47" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T47" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30603046</v>
       </c>
       <c r="U47" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>What is the meaning of "Fear stalks the streets of Chicago" ?</v>
       </c>
       <c r="V47" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W47" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X47" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y47" s="22" t="str">
         <f t="shared" si="10"/>
@@ -8175,7 +8182,7 @@
       <c r="AD47" s="13"/>
       <c r="AE47" s="13"/>
     </row>
-    <row r="48" ht="35" spans="1:31">
+    <row r="48" ht="24" spans="1:31">
       <c r="A48" s="2">
         <v>6</v>
       </c>
@@ -8201,11 +8208,11 @@
       </c>
       <c r="J48" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L48" s="22">
         <f t="shared" si="12"/>
@@ -8219,43 +8226,43 @@
       </c>
       <c r="O48" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20603047</v>
+        <v/>
       </c>
       <c r="P48" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v>What is the concept of "The paint-peeled houses sag from neglect" ?</v>
+        <v/>
       </c>
       <c r="Q48" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R48" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S48" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T48" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30603047</v>
       </c>
       <c r="U48" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>What is the meaning of "The paint-peeled houses sag from neglect" ?</v>
       </c>
       <c r="V48" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W48" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X48" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y48" s="22" t="str">
         <f t="shared" si="10"/>
@@ -8585,11 +8592,11 @@
       </c>
       <c r="J52" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K52" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L52" s="22">
         <f t="shared" si="12"/>
@@ -8603,43 +8610,43 @@
       </c>
       <c r="O52" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20603051</v>
       </c>
       <c r="P52" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v/>
+        <v>What is the concept of "The statistics don't lie" ?</v>
       </c>
       <c r="Q52" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R52" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S52" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T52" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30603051</v>
+        <v/>
       </c>
       <c r="U52" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>What is the meaning of "The statistics don't lie" ?</v>
+        <v/>
       </c>
       <c r="V52" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W52" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X52" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y52" s="22" t="str">
         <f t="shared" si="10"/>
@@ -8873,11 +8880,11 @@
       </c>
       <c r="J55" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K55" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L55" s="22">
         <f t="shared" si="12"/>
@@ -8891,43 +8898,43 @@
       </c>
       <c r="O55" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20603054</v>
+        <v/>
       </c>
       <c r="P55" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v>What is the concept of "The TV is temperamental" ?</v>
+        <v/>
       </c>
       <c r="Q55" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R55" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S55" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T55" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30603054</v>
       </c>
       <c r="U55" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>What is the meaning of "The TV is temperamental" ?</v>
       </c>
       <c r="V55" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W55" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X55" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y55" s="22" t="str">
         <f t="shared" si="10"/>
@@ -8969,11 +8976,11 @@
       </c>
       <c r="J56" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K56" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L56" s="22">
         <f t="shared" si="12"/>
@@ -8987,43 +8994,43 @@
       </c>
       <c r="O56" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20603055</v>
       </c>
       <c r="P56" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v/>
+        <v>What is the concept of "The dress flatters her figure" ?</v>
       </c>
       <c r="Q56" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R56" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S56" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T56" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30603055</v>
+        <v/>
       </c>
       <c r="U56" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>What is the meaning of "The dress flatters her figure" ?</v>
+        <v/>
       </c>
       <c r="V56" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W56" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X56" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y56" s="22" t="str">
         <f t="shared" si="10"/>
@@ -9161,11 +9168,11 @@
       </c>
       <c r="J58" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K58" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L58" s="22">
         <f t="shared" si="12"/>
@@ -9179,43 +9186,43 @@
       </c>
       <c r="O58" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20603057</v>
       </c>
       <c r="P58" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v/>
+        <v>What is the concept of "Uncertainty lurks in the markets" ?</v>
       </c>
       <c r="Q58" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R58" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S58" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T58" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30603057</v>
+        <v/>
       </c>
       <c r="U58" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>What is the meaning of "Uncertainty lurks in the markets" ?</v>
+        <v/>
       </c>
       <c r="V58" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W58" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X58" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y58" s="22" t="str">
         <f t="shared" si="10"/>
@@ -9257,11 +9264,11 @@
       </c>
       <c r="J59" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K59" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L59" s="22">
         <f t="shared" si="12"/>
@@ -9275,43 +9282,43 @@
       </c>
       <c r="O59" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20603058</v>
+        <v/>
       </c>
       <c r="P59" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v>What is the concept of "It is a staggering number" ?</v>
+        <v/>
       </c>
       <c r="Q59" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R59" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S59" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T59" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30603058</v>
       </c>
       <c r="U59" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>What is the meaning of "It is a staggering number" ?</v>
       </c>
       <c r="V59" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W59" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X59" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y59" s="22" t="str">
         <f t="shared" si="10"/>
@@ -9545,11 +9552,11 @@
       </c>
       <c r="J62" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K62" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L62" s="22">
         <f t="shared" si="12"/>
@@ -9563,43 +9570,43 @@
       </c>
       <c r="O62" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20603061</v>
       </c>
       <c r="P62" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v/>
+        <v>What is the concept of "The brutal winds have no respect for the hi-tech boats" ?</v>
       </c>
       <c r="Q62" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R62" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S62" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T62" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30603061</v>
+        <v/>
       </c>
       <c r="U62" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>What is the meaning of "The brutal winds have no respect for the hi-tech boats" ?</v>
+        <v/>
       </c>
       <c r="V62" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W62" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X62" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y62" s="22" t="str">
         <f t="shared" si="10"/>
@@ -9641,11 +9648,11 @@
       </c>
       <c r="J63" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K63" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L63" s="22">
         <f t="shared" si="12"/>
@@ -9659,43 +9666,43 @@
       </c>
       <c r="O63" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20603062</v>
+        <v/>
       </c>
       <c r="P63" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v>What is the concept of "Reality paints a different picture" ?</v>
+        <v/>
       </c>
       <c r="Q63" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R63" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S63" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T63" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30603062</v>
       </c>
       <c r="U63" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>What is the meaning of "Reality paints a different picture" ?</v>
       </c>
       <c r="V63" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W63" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X63" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y63" s="22" t="str">
         <f t="shared" si="10"/>
@@ -9711,7 +9718,7 @@
       <c r="AD63" s="13"/>
       <c r="AE63" s="13"/>
     </row>
-    <row r="64" ht="35" spans="1:31">
+    <row r="64" ht="24" spans="1:31">
       <c r="A64" s="2">
         <v>6</v>
       </c>
@@ -9737,11 +9744,11 @@
       </c>
       <c r="J64" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K64" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L64" s="22">
         <f t="shared" si="12"/>
@@ -9755,43 +9762,43 @@
       </c>
       <c r="O64" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20603063</v>
+        <v/>
       </c>
       <c r="P64" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v>What is the concept of "His case fell into a special category" ?</v>
+        <v/>
       </c>
       <c r="Q64" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R64" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S64" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T64" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30603063</v>
       </c>
       <c r="U64" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>What is the meaning of "His case fell into a special category" ?</v>
       </c>
       <c r="V64" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W64" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X64" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y64" s="22" t="str">
         <f t="shared" si="10"/>
@@ -9929,11 +9936,11 @@
       </c>
       <c r="J66" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K66" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L66" s="22">
         <f t="shared" si="12"/>
@@ -9947,43 +9954,43 @@
       </c>
       <c r="O66" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20603065</v>
       </c>
       <c r="P66" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v/>
+        <v>What is the concept of "It is a sobering statistic" ?</v>
       </c>
       <c r="Q66" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R66" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S66" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T66" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30603065</v>
+        <v/>
       </c>
       <c r="U66" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>What is the meaning of "It is a sobering statistic" ?</v>
+        <v/>
       </c>
       <c r="V66" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W66" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X66" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y66" s="22" t="str">
         <f t="shared" si="10"/>
@@ -10025,11 +10032,11 @@
       </c>
       <c r="J67" s="22">
         <f ca="1" t="shared" ref="J67:J119" si="15">IF(RAND()&gt;=0.5,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K67" s="22">
         <f ca="1" t="shared" ref="K67:K119" si="16">IF(J67&gt;0,0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L67" s="22">
         <f t="shared" ref="L67:L119" si="17">IF(LEN(G67)&gt;30,0,1)</f>
@@ -10043,43 +10050,43 @@
       </c>
       <c r="O67" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20603066</v>
+        <v/>
       </c>
       <c r="P67" s="22" t="str">
         <f ca="1" t="shared" ref="P67:P119" si="18">IF(J67=1,CONCATENATE("What is the concept of """,G67,""" ?"),"")</f>
-        <v>What is the concept of "The sea refuses no river" ?</v>
+        <v/>
       </c>
       <c r="Q67" s="22" t="str">
         <f ca="1" t="shared" ref="Q67:Q119" si="19">IF(J67=0,"","wrong option1")</f>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R67" s="22" t="str">
         <f ca="1" t="shared" ref="R67:R119" si="20">IF(J67=0,"","wrong option2")</f>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S67" s="22" t="str">
         <f ca="1" t="shared" ref="S67:S119" si="21">IF(J67=0,"","wrong option3")</f>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T67" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30603066</v>
       </c>
       <c r="U67" s="22" t="str">
         <f ca="1" t="shared" ref="U67:U119" si="22">IF(K67=1,CONCATENATE("What is the meaning of """,G67,""" ?"),"")</f>
-        <v/>
+        <v>What is the meaning of "The sea refuses no river" ?</v>
       </c>
       <c r="V67" s="22" t="str">
         <f ca="1" t="shared" ref="V67:V119" si="23">IF(K67=0,"","wrong option1")</f>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W67" s="22" t="str">
         <f ca="1" t="shared" ref="W67:W119" si="24">IF(K67=0,"","wrong option2")</f>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X67" s="22" t="str">
         <f ca="1" t="shared" ref="X67:X119" si="25">IF(K67=0,"","wrong option3")</f>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y67" s="22" t="str">
         <f t="shared" ref="Y67:Y119" si="26">IF(L67=1,CONCATENATE("L4",$F67),"")</f>
@@ -10121,11 +10128,11 @@
       </c>
       <c r="J68" s="22">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K68" s="22">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L68" s="22">
         <f t="shared" si="17"/>
@@ -10139,43 +10146,43 @@
       </c>
       <c r="O68" s="22" t="str">
         <f ca="1" t="shared" ref="O68:O119" si="28">IF(J68=1,CONCATENATE("L2",$F68),"")</f>
-        <v>L20603067</v>
+        <v/>
       </c>
       <c r="P68" s="22" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "Religion that is afraid of science dishonors God" ?</v>
+        <v/>
       </c>
       <c r="Q68" s="22" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R68" s="22" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S68" s="22" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T68" s="22" t="str">
         <f ca="1" t="shared" ref="T68:T119" si="29">IF(K68=1,CONCATENATE("L3",$F68),"")</f>
-        <v/>
+        <v>L30603067</v>
       </c>
       <c r="U68" s="22" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "Religion that is afraid of science dishonors God" ?</v>
       </c>
       <c r="V68" s="22" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W68" s="22" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X68" s="22" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y68" s="22" t="str">
         <f t="shared" si="26"/>
@@ -10287,7 +10294,7 @@
       <c r="AD69" s="13"/>
       <c r="AE69" s="13"/>
     </row>
-    <row r="70" ht="24" spans="1:31">
+    <row r="70" ht="35" spans="1:31">
       <c r="A70" s="2">
         <v>6</v>
       </c>
@@ -10313,11 +10320,11 @@
       </c>
       <c r="J70" s="22">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K70" s="22">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L70" s="22">
         <f t="shared" si="17"/>
@@ -10331,43 +10338,43 @@
       </c>
       <c r="O70" s="22" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L20603069</v>
       </c>
       <c r="P70" s="22" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "March will be kinder to Hillary" ?</v>
       </c>
       <c r="Q70" s="22" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R70" s="22" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S70" s="22" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T70" s="22" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L30603069</v>
+        <v/>
       </c>
       <c r="U70" s="22" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "March will be kinder to Hillary" ?</v>
+        <v/>
       </c>
       <c r="V70" s="22" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W70" s="22" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X70" s="22" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y70" s="22" t="str">
         <f t="shared" si="26"/>
@@ -10575,7 +10582,7 @@
       <c r="AD72" s="13"/>
       <c r="AE72" s="13"/>
     </row>
-    <row r="73" ht="24" spans="1:31">
+    <row r="73" ht="35" spans="1:31">
       <c r="A73" s="2">
         <v>6</v>
       </c>
@@ -10697,11 +10704,11 @@
       </c>
       <c r="J74" s="22">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K74" s="22">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L74" s="22">
         <f t="shared" si="17"/>
@@ -10715,43 +10722,43 @@
       </c>
       <c r="O74" s="22" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L20603073</v>
       </c>
       <c r="P74" s="22" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "The golf gods are no longer smiling on Tiger" ?</v>
       </c>
       <c r="Q74" s="22" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R74" s="22" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S74" s="22" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T74" s="22" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L30603073</v>
+        <v/>
       </c>
       <c r="U74" s="22" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "The golf gods are no longer smiling on Tiger" ?</v>
+        <v/>
       </c>
       <c r="V74" s="22" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W74" s="22" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X74" s="22" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y74" s="22" t="str">
         <f t="shared" si="26"/>
@@ -10767,7 +10774,7 @@
       <c r="AD74" s="13"/>
       <c r="AE74" s="13"/>
     </row>
-    <row r="75" ht="35" spans="1:31">
+    <row r="75" ht="24" spans="1:31">
       <c r="A75" s="2">
         <v>6</v>
       </c>
@@ -10793,11 +10800,11 @@
       </c>
       <c r="J75" s="22">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K75" s="22">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L75" s="22">
         <f t="shared" si="17"/>
@@ -10811,43 +10818,43 @@
       </c>
       <c r="O75" s="22" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L20603074</v>
+        <v/>
       </c>
       <c r="P75" s="22" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "America is in a temper tantrum" ?</v>
+        <v/>
       </c>
       <c r="Q75" s="22" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R75" s="22" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S75" s="22" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T75" s="22" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L30603074</v>
       </c>
       <c r="U75" s="22" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "America is in a temper tantrum" ?</v>
       </c>
       <c r="V75" s="22" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W75" s="22" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X75" s="22" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y75" s="22" t="str">
         <f t="shared" si="26"/>
@@ -10959,7 +10966,7 @@
       <c r="AD76" s="13"/>
       <c r="AE76" s="13"/>
     </row>
-    <row r="77" ht="24" spans="1:31">
+    <row r="77" ht="35" spans="1:31">
       <c r="A77" s="2">
         <v>6</v>
       </c>
@@ -10985,11 +10992,11 @@
       </c>
       <c r="J77" s="22">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K77" s="22">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L77" s="22">
         <f t="shared" si="17"/>
@@ -11003,43 +11010,43 @@
       </c>
       <c r="O77" s="22" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L20603076</v>
       </c>
       <c r="P77" s="22" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "English football is run by money" ?</v>
       </c>
       <c r="Q77" s="22" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R77" s="22" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S77" s="22" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T77" s="22" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L30603076</v>
+        <v/>
       </c>
       <c r="U77" s="22" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "English football is run by money" ?</v>
+        <v/>
       </c>
       <c r="V77" s="22" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W77" s="22" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X77" s="22" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y77" s="22" t="str">
         <f t="shared" si="26"/>
@@ -11081,11 +11088,11 @@
       </c>
       <c r="J78" s="22">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K78" s="22">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L78" s="22">
         <f t="shared" si="17"/>
@@ -11099,43 +11106,43 @@
       </c>
       <c r="O78" s="22" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L20603077</v>
+        <v/>
       </c>
       <c r="P78" s="22" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "The virus does not discriminate" ?</v>
+        <v/>
       </c>
       <c r="Q78" s="22" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R78" s="22" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S78" s="22" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T78" s="22" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L30603077</v>
       </c>
       <c r="U78" s="22" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "The virus does not discriminate" ?</v>
       </c>
       <c r="V78" s="22" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W78" s="22" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X78" s="22" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y78" s="22" t="str">
         <f t="shared" si="26"/>
@@ -11247,7 +11254,7 @@
       <c r="AD79" s="13"/>
       <c r="AE79" s="13"/>
     </row>
-    <row r="80" ht="47" spans="1:31">
+    <row r="80" ht="35" spans="1:31">
       <c r="A80" s="2">
         <v>6</v>
       </c>
@@ -11465,11 +11472,11 @@
       </c>
       <c r="J82" s="22">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K82" s="22">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L82" s="22">
         <f t="shared" si="17"/>
@@ -11483,43 +11490,43 @@
       </c>
       <c r="O82" s="22" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L20603081</v>
       </c>
       <c r="P82" s="22" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "Paris agrees with her" ?</v>
       </c>
       <c r="Q82" s="22" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R82" s="22" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S82" s="22" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T82" s="22" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L30603081</v>
+        <v/>
       </c>
       <c r="U82" s="22" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "Paris agrees with her" ?</v>
+        <v/>
       </c>
       <c r="V82" s="22" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W82" s="22" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X82" s="22" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y82" s="22" t="str">
         <f t="shared" si="26"/>
@@ -11561,11 +11568,11 @@
       </c>
       <c r="J83" s="22">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K83" s="22">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L83" s="22">
         <f t="shared" si="17"/>
@@ -11579,43 +11586,43 @@
       </c>
       <c r="O83" s="22" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L20603082</v>
       </c>
       <c r="P83" s="22" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "The controversy refuses to die" ?</v>
       </c>
       <c r="Q83" s="22" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R83" s="22" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S83" s="22" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T83" s="22" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L30603082</v>
+        <v/>
       </c>
       <c r="U83" s="22" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "The controversy refuses to die" ?</v>
+        <v/>
       </c>
       <c r="V83" s="22" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W83" s="22" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X83" s="22" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y83" s="22" t="str">
         <f t="shared" si="26"/>
@@ -11753,11 +11760,11 @@
       </c>
       <c r="J85" s="22">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K85" s="22">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L85" s="22">
         <f t="shared" si="17"/>
@@ -11771,43 +11778,43 @@
       </c>
       <c r="O85" s="22" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L20604084</v>
       </c>
       <c r="P85" s="22" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "You break it, you own it" ?</v>
       </c>
       <c r="Q85" s="22" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R85" s="22" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S85" s="22" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T85" s="22" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L30604084</v>
+        <v/>
       </c>
       <c r="U85" s="22" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "You break it, you own it" ?</v>
+        <v/>
       </c>
       <c r="V85" s="22" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W85" s="22" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X85" s="22" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y85" s="22" t="str">
         <f t="shared" si="26"/>
@@ -11919,7 +11926,7 @@
       <c r="AD86" s="13"/>
       <c r="AE86" s="13"/>
     </row>
-    <row r="87" ht="35" spans="1:31">
+    <row r="87" ht="24" spans="1:31">
       <c r="A87" s="2">
         <v>6</v>
       </c>
@@ -12041,11 +12048,11 @@
       </c>
       <c r="J88" s="22">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K88" s="22">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L88" s="22">
         <f t="shared" si="17"/>
@@ -12059,43 +12066,43 @@
       </c>
       <c r="O88" s="22" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L20604087</v>
+        <v/>
       </c>
       <c r="P88" s="22" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "To stay alive, you must stay alert" ?</v>
+        <v/>
       </c>
       <c r="Q88" s="22" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R88" s="22" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S88" s="22" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T88" s="22" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L30604087</v>
       </c>
       <c r="U88" s="22" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "To stay alive, you must stay alert" ?</v>
       </c>
       <c r="V88" s="22" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W88" s="22" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X88" s="22" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y88" s="22" t="str">
         <f t="shared" si="26"/>
@@ -12233,11 +12240,11 @@
       </c>
       <c r="J90" s="22">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K90" s="22">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L90" s="22">
         <f t="shared" si="17"/>
@@ -12251,43 +12258,43 @@
       </c>
       <c r="O90" s="22" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L20604089</v>
       </c>
       <c r="P90" s="22" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "Why is it that so few have so much and so many have so little" ?</v>
       </c>
       <c r="Q90" s="22" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R90" s="22" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S90" s="22" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T90" s="22" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L30604089</v>
+        <v/>
       </c>
       <c r="U90" s="22" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "Why is it that so few have so much and so many have so little" ?</v>
+        <v/>
       </c>
       <c r="V90" s="22" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W90" s="22" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X90" s="22" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y90" s="22" t="str">
         <f t="shared" si="26"/>
@@ -12425,11 +12432,11 @@
       </c>
       <c r="J92" s="22">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K92" s="22">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L92" s="22">
         <f t="shared" si="17"/>
@@ -12443,43 +12450,43 @@
       </c>
       <c r="O92" s="22" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L20604091</v>
       </c>
       <c r="P92" s="22" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "Last time, I came by accident. This time I came on purpose" ?</v>
       </c>
       <c r="Q92" s="22" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R92" s="22" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S92" s="22" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T92" s="22" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L30604091</v>
+        <v/>
       </c>
       <c r="U92" s="22" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "Last time, I came by accident. This time I came on purpose" ?</v>
+        <v/>
       </c>
       <c r="V92" s="22" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W92" s="22" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X92" s="22" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y92" s="22" t="str">
         <f t="shared" si="26"/>
@@ -12617,11 +12624,11 @@
       </c>
       <c r="J94" s="22">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K94" s="22">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L94" s="22">
         <f t="shared" si="17"/>
@@ -12635,43 +12642,43 @@
       </c>
       <c r="O94" s="22" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L20605093</v>
+        <v/>
       </c>
       <c r="P94" s="22" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "hungry as a horse" ?</v>
+        <v/>
       </c>
       <c r="Q94" s="22" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R94" s="22" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S94" s="22" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T94" s="22" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L30605093</v>
       </c>
       <c r="U94" s="22" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "hungry as a horse" ?</v>
       </c>
       <c r="V94" s="22" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W94" s="22" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X94" s="22" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y94" s="22" t="str">
         <f t="shared" si="26"/>
@@ -12809,11 +12816,11 @@
       </c>
       <c r="J96" s="22">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K96" s="22">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L96" s="22">
         <f t="shared" si="17"/>
@@ -12827,43 +12834,43 @@
       </c>
       <c r="O96" s="22" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L20605095</v>
+        <v/>
       </c>
       <c r="P96" s="22" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "As old as the hills" ?</v>
+        <v/>
       </c>
       <c r="Q96" s="22" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R96" s="22" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S96" s="22" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T96" s="22" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L30605095</v>
       </c>
       <c r="U96" s="22" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "As old as the hills" ?</v>
       </c>
       <c r="V96" s="22" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W96" s="22" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X96" s="22" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y96" s="22" t="str">
         <f t="shared" si="26"/>
@@ -12905,11 +12912,11 @@
       </c>
       <c r="J97" s="22">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K97" s="22">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L97" s="22">
         <f t="shared" si="17"/>
@@ -12923,43 +12930,43 @@
       </c>
       <c r="O97" s="22" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L20605096</v>
       </c>
       <c r="P97" s="22" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "As free as the wind" ?</v>
       </c>
       <c r="Q97" s="22" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R97" s="22" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S97" s="22" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T97" s="22" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L30605096</v>
+        <v/>
       </c>
       <c r="U97" s="22" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "As free as the wind" ?</v>
+        <v/>
       </c>
       <c r="V97" s="22" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W97" s="22" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X97" s="22" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y97" s="22" t="str">
         <f t="shared" si="26"/>
@@ -13001,11 +13008,11 @@
       </c>
       <c r="J98" s="22">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K98" s="22">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L98" s="22">
         <f t="shared" si="17"/>
@@ -13019,43 +13026,43 @@
       </c>
       <c r="O98" s="22" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L20605097</v>
       </c>
       <c r="P98" s="22" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "As dead as the doorknob" ?</v>
       </c>
       <c r="Q98" s="22" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R98" s="22" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S98" s="22" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T98" s="22" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L30605097</v>
+        <v/>
       </c>
       <c r="U98" s="22" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "As dead as the doorknob" ?</v>
+        <v/>
       </c>
       <c r="V98" s="22" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W98" s="22" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X98" s="22" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y98" s="22" t="str">
         <f t="shared" si="26"/>
@@ -13167,7 +13174,7 @@
       <c r="AD99" s="13"/>
       <c r="AE99" s="13"/>
     </row>
-    <row r="100" ht="35" spans="1:31">
+    <row r="100" ht="24" spans="1:31">
       <c r="A100" s="2">
         <v>6</v>
       </c>
@@ -13289,11 +13296,11 @@
       </c>
       <c r="J101" s="22">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K101" s="22">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L101" s="22">
         <f t="shared" si="17"/>
@@ -13307,43 +13314,43 @@
       </c>
       <c r="O101" s="22" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L20605100</v>
+        <v/>
       </c>
       <c r="P101" s="22" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "He is like dandruff. You can’t get rid of him" ?</v>
+        <v/>
       </c>
       <c r="Q101" s="22" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R101" s="22" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S101" s="22" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T101" s="22" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L30605100</v>
       </c>
       <c r="U101" s="22" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "He is like dandruff. You can’t get rid of him" ?</v>
       </c>
       <c r="V101" s="22" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W101" s="22" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X101" s="22" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y101" s="22" t="str">
         <f t="shared" si="26"/>
@@ -13577,11 +13584,11 @@
       </c>
       <c r="J104" s="22">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K104" s="22">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L104" s="22">
         <f t="shared" si="17"/>
@@ -13595,43 +13602,43 @@
       </c>
       <c r="O104" s="22" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L20605103</v>
       </c>
       <c r="P104" s="22" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "drink like a fish" ?</v>
       </c>
       <c r="Q104" s="22" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R104" s="22" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S104" s="22" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T104" s="22" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L30605103</v>
+        <v/>
       </c>
       <c r="U104" s="22" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "drink like a fish" ?</v>
+        <v/>
       </c>
       <c r="V104" s="22" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W104" s="22" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X104" s="22" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y104" s="22" t="str">
         <f t="shared" si="26"/>
@@ -13673,11 +13680,11 @@
       </c>
       <c r="J105" s="22">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K105" s="22">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L105" s="22">
         <f t="shared" si="17"/>
@@ -13691,43 +13698,43 @@
       </c>
       <c r="O105" s="22" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L20605104</v>
       </c>
       <c r="P105" s="22" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "smoke like a chimney" ?</v>
       </c>
       <c r="Q105" s="22" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R105" s="22" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S105" s="22" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T105" s="22" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L30605104</v>
+        <v/>
       </c>
       <c r="U105" s="22" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "smoke like a chimney" ?</v>
+        <v/>
       </c>
       <c r="V105" s="22" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W105" s="22" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X105" s="22" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y105" s="22" t="str">
         <f t="shared" si="26"/>
@@ -13865,11 +13872,11 @@
       </c>
       <c r="J107" s="22">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K107" s="22">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L107" s="22">
         <f t="shared" si="17"/>
@@ -13883,43 +13890,43 @@
       </c>
       <c r="O107" s="22" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L20605106</v>
       </c>
       <c r="P107" s="22" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "She played him like a fiddle or violin" ?</v>
       </c>
       <c r="Q107" s="22" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R107" s="22" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S107" s="22" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T107" s="22" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L30605106</v>
+        <v/>
       </c>
       <c r="U107" s="22" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "She played him like a fiddle or violin" ?</v>
+        <v/>
       </c>
       <c r="V107" s="22" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W107" s="22" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X107" s="22" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y107" s="22" t="str">
         <f t="shared" si="26"/>
@@ -13961,11 +13968,11 @@
       </c>
       <c r="J108" s="22">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K108" s="22">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L108" s="22">
         <f t="shared" si="17"/>
@@ -13979,43 +13986,43 @@
       </c>
       <c r="O108" s="22" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L20605107</v>
       </c>
       <c r="P108" s="22" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "Our border is like Swiss cheese" ?</v>
       </c>
       <c r="Q108" s="22" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R108" s="22" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S108" s="22" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T108" s="22" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L30605107</v>
+        <v/>
       </c>
       <c r="U108" s="22" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "Our border is like Swiss cheese" ?</v>
+        <v/>
       </c>
       <c r="V108" s="22" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W108" s="22" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X108" s="22" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y108" s="22" t="str">
         <f t="shared" si="26"/>
@@ -14345,11 +14352,11 @@
       </c>
       <c r="J112" s="22">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K112" s="22">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L112" s="22">
         <f t="shared" si="17"/>
@@ -14363,43 +14370,43 @@
       </c>
       <c r="O112" s="22" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L20606111</v>
+        <v/>
       </c>
       <c r="P112" s="22" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "He stands accused of corruption" ?</v>
+        <v/>
       </c>
       <c r="Q112" s="22" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R112" s="22" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S112" s="22" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T112" s="22" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L30606111</v>
       </c>
       <c r="U112" s="22" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "He stands accused of corruption" ?</v>
       </c>
       <c r="V112" s="22" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W112" s="22" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X112" s="22" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y112" s="22" t="str">
         <f t="shared" si="26"/>
@@ -14537,11 +14544,11 @@
       </c>
       <c r="J114" s="22">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K114" s="22">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L114" s="22">
         <f t="shared" si="17"/>
@@ -14555,43 +14562,43 @@
       </c>
       <c r="O114" s="22" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L20606113</v>
       </c>
       <c r="P114" s="22" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "She fell under suspicion" ?</v>
       </c>
       <c r="Q114" s="22" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R114" s="22" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S114" s="22" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T114" s="22" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L30606113</v>
+        <v/>
       </c>
       <c r="U114" s="22" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "She fell under suspicion" ?</v>
+        <v/>
       </c>
       <c r="V114" s="22" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W114" s="22" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X114" s="22" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y114" s="22" t="str">
         <f t="shared" si="26"/>
@@ -14633,11 +14640,11 @@
       </c>
       <c r="J115" s="22">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K115" s="22">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L115" s="22">
         <f t="shared" si="17"/>
@@ -14651,43 +14658,43 @@
       </c>
       <c r="O115" s="22" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L20606114</v>
       </c>
       <c r="P115" s="22" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "Merkel watches as her future slips into the uncertain" ?</v>
       </c>
       <c r="Q115" s="22" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R115" s="22" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S115" s="22" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T115" s="22" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L30606114</v>
+        <v/>
       </c>
       <c r="U115" s="22" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "Merkel watches as her future slips into the uncertain" ?</v>
+        <v/>
       </c>
       <c r="V115" s="22" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W115" s="22" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X115" s="22" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y115" s="22" t="str">
         <f t="shared" si="26"/>
@@ -14921,11 +14928,11 @@
       </c>
       <c r="J118" s="22">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K118" s="22">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L118" s="22">
         <f t="shared" si="17"/>
@@ -14939,43 +14946,43 @@
       </c>
       <c r="O118" s="22" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L20606117</v>
       </c>
       <c r="P118" s="22" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "He jumps at the chance" ?</v>
       </c>
       <c r="Q118" s="22" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R118" s="22" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S118" s="22" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T118" s="22" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L30606117</v>
+        <v/>
       </c>
       <c r="U118" s="22" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "He jumps at the chance" ?</v>
+        <v/>
       </c>
       <c r="V118" s="22" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W118" s="22" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X118" s="22" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y118" s="22" t="str">
         <f t="shared" si="26"/>
@@ -15017,11 +15024,11 @@
       </c>
       <c r="J119" s="22">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K119" s="22">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L119" s="22">
         <f t="shared" si="17"/>
@@ -15035,43 +15042,43 @@
       </c>
       <c r="O119" s="22" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L20606118</v>
+        <v/>
       </c>
       <c r="P119" s="22" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "He drinks it all in" ?</v>
+        <v/>
       </c>
       <c r="Q119" s="22" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R119" s="22" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S119" s="22" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T119" s="22" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L30606118</v>
       </c>
       <c r="U119" s="22" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "He drinks it all in" ?</v>
       </c>
       <c r="V119" s="22" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W119" s="22" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X119" s="22" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y119" s="22" t="str">
         <f t="shared" si="26"/>

--- a/miniproject/template/Lectures/Lecture 6.xlsx
+++ b/miniproject/template/Lectures/Lecture 6.xlsx
@@ -1528,24 +1528,7 @@
     <t>The golf gods are no longer smiling on Tiger</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>The golf gods are no longer favoring Tiger</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。</t>
-    </r>
+    <t>The golf gods are no longer favoring Tiger.</t>
   </si>
   <si>
     <r>
@@ -2396,10 +2379,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="36">
     <font>
@@ -2491,29 +2474,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2528,7 +2512,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2542,11 +2549,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2566,69 +2610,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2699,19 +2682,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2723,13 +2718,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2741,13 +2742,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2759,7 +2766,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2777,43 +2784,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2831,7 +2808,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2843,43 +2850,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3047,21 +3030,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3087,148 +3055,163 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="36" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -3654,8 +3637,8 @@
   <sheetPr/>
   <dimension ref="A1:AE215"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="134" zoomScaleNormal="134" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" zoomScale="134" zoomScaleNormal="134" topLeftCell="D74" workbookViewId="0">
+      <selection activeCell="H74" sqref="H74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.63392857142857" defaultRowHeight="11.6"/>
@@ -3792,11 +3775,11 @@
       </c>
       <c r="J2" s="22">
         <f ca="1">IF(RAND()&gt;=0.5,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" s="22">
         <f ca="1">IF(J2&gt;0,0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" s="22">
         <f>IF(LEN(G2)&gt;30,0,1)</f>
@@ -3810,43 +3793,43 @@
       </c>
       <c r="O2" s="22" t="str">
         <f ca="1">IF(J2=1,CONCATENATE("L2",$M4),"")</f>
-        <v/>
+        <v>L20</v>
       </c>
       <c r="P2" s="22" t="str">
         <f ca="1">IF(J2=1,CONCATENATE("What is the concept of """,G2,""" ?"),"")</f>
-        <v/>
+        <v>What is the concept of "The audience is the 12th man of the team" ?</v>
       </c>
       <c r="Q2" s="22" t="str">
         <f ca="1">IF(J2=0,"","wrong option1")</f>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R2" s="22" t="str">
         <f ca="1">IF(J2=0,"","wrong option2")</f>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S2" s="22" t="str">
         <f ca="1">IF(J2=0,"","wrong option3")</f>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T2" s="22" t="str">
         <f ca="1">IF(K2=1,CONCATENATE("L3",$F2),"")</f>
-        <v>L30601001</v>
+        <v/>
       </c>
       <c r="U2" s="22" t="str">
         <f ca="1">IF(K2=1,CONCATENATE("What is the meaning of """,G2,""" ?"),"")</f>
-        <v>What is the meaning of "The audience is the 12th man of the team" ?</v>
+        <v/>
       </c>
       <c r="V2" s="22" t="str">
         <f ca="1">IF(K2=0,"","wrong option1")</f>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W2" s="22" t="str">
         <f ca="1">IF(K2=0,"","wrong option2")</f>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X2" s="22" t="str">
         <f ca="1">IF(K2=0,"","wrong option3")</f>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y2" s="22" t="str">
         <f>IF(L2=1,CONCATENATE("L4",$F2),"")</f>
@@ -3888,11 +3871,11 @@
       </c>
       <c r="J3" s="22">
         <f ca="1" t="shared" ref="J3:J66" si="0">IF(RAND()&gt;=0.5,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" s="22">
         <f ca="1" t="shared" ref="K3:K66" si="1">IF(J3&gt;0,0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" s="22">
         <v>0</v>
@@ -3905,43 +3888,43 @@
       </c>
       <c r="O3" s="22" t="str">
         <f ca="1">IF(J3=1,CONCATENATE("L2",$F3),"")</f>
-        <v>L20601002</v>
+        <v/>
       </c>
       <c r="P3" s="22" t="str">
         <f ca="1" t="shared" ref="P3:P66" si="2">IF(J3=1,CONCATENATE("What is the concept of """,G3,""" ?"),"")</f>
-        <v>What is the concept of "Thank God for Mississippi" ?</v>
+        <v/>
       </c>
       <c r="Q3" s="22" t="str">
         <f ca="1" t="shared" ref="Q3:Q66" si="3">IF(J3=0,"","wrong option1")</f>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R3" s="22" t="str">
         <f ca="1" t="shared" ref="R3:R66" si="4">IF(J3=0,"","wrong option2")</f>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S3" s="22" t="str">
         <f ca="1" t="shared" ref="S3:S66" si="5">IF(J3=0,"","wrong option3")</f>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T3" s="22" t="str">
         <f ca="1">IF(K3=1,CONCATENATE("L3",$F3),"")</f>
-        <v/>
+        <v>L30601002</v>
       </c>
       <c r="U3" s="22" t="str">
         <f ca="1" t="shared" ref="U3:U66" si="6">IF(K3=1,CONCATENATE("What is the meaning of """,G3,""" ?"),"")</f>
-        <v/>
+        <v>What is the meaning of "Thank God for Mississippi" ?</v>
       </c>
       <c r="V3" s="22" t="str">
         <f ca="1" t="shared" ref="V3:V66" si="7">IF(K3=0,"","wrong option1")</f>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W3" s="22" t="str">
         <f ca="1" t="shared" ref="W3:W66" si="8">IF(K3=0,"","wrong option2")</f>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X3" s="22" t="str">
         <f ca="1" t="shared" ref="X3:X66" si="9">IF(K3=0,"","wrong option3")</f>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y3" s="22" t="str">
         <f t="shared" ref="Y3:Y66" si="10">IF(L3=1,CONCATENATE("L4",$F3),"")</f>
@@ -4079,11 +4062,11 @@
       </c>
       <c r="J5" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="22">
         <f t="shared" si="12"/>
@@ -4097,43 +4080,43 @@
       </c>
       <c r="O5" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20601004</v>
+        <v/>
       </c>
       <c r="P5" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v>What is the concept of "The hand that rocks the cradle rules the world" ?</v>
+        <v/>
       </c>
       <c r="Q5" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R5" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S5" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T5" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30601004</v>
       </c>
       <c r="U5" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>What is the meaning of "The hand that rocks the cradle rules the world" ?</v>
       </c>
       <c r="V5" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W5" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X5" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y5" s="22" t="str">
         <f t="shared" si="10"/>
@@ -4367,11 +4350,11 @@
       </c>
       <c r="J8" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="22">
         <f t="shared" si="12"/>
@@ -4385,43 +4368,43 @@
       </c>
       <c r="O8" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20601007</v>
+        <v/>
       </c>
       <c r="P8" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v>What is the concept of "The gloves are off" ?</v>
+        <v/>
       </c>
       <c r="Q8" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R8" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S8" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T8" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30601007</v>
       </c>
       <c r="U8" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>What is the meaning of "The gloves are off" ?</v>
       </c>
       <c r="V8" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W8" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X8" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y8" s="22" t="str">
         <f t="shared" si="10"/>
@@ -4463,11 +4446,11 @@
       </c>
       <c r="J9" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" s="22">
         <f t="shared" si="12"/>
@@ -4481,43 +4464,43 @@
       </c>
       <c r="O9" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20601008</v>
+        <v/>
       </c>
       <c r="P9" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v>What is the concept of "There are two people in this case. One of them is lying" ?</v>
+        <v/>
       </c>
       <c r="Q9" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R9" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S9" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T9" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30601008</v>
       </c>
       <c r="U9" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>What is the meaning of "There are two people in this case. One of them is lying" ?</v>
       </c>
       <c r="V9" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W9" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X9" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y9" s="22" t="str">
         <f t="shared" si="10"/>
@@ -4559,11 +4542,11 @@
       </c>
       <c r="J10" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="22">
         <f t="shared" si="12"/>
@@ -4577,43 +4560,43 @@
       </c>
       <c r="O10" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20601009</v>
+        <v/>
       </c>
       <c r="P10" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v>What is the concept of "I pinch myself every day" ?</v>
+        <v/>
       </c>
       <c r="Q10" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R10" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S10" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T10" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30601009</v>
       </c>
       <c r="U10" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>What is the meaning of "I pinch myself every day" ?</v>
       </c>
       <c r="V10" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W10" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X10" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y10" s="22" t="str">
         <f t="shared" si="10"/>
@@ -4655,11 +4638,11 @@
       </c>
       <c r="J11" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" s="22">
         <f t="shared" si="12"/>
@@ -4673,43 +4656,43 @@
       </c>
       <c r="O11" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20601010</v>
+        <v/>
       </c>
       <c r="P11" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v>What is the concept of "I like to kill him. Join the club" ?</v>
+        <v/>
       </c>
       <c r="Q11" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R11" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S11" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T11" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30601010</v>
       </c>
       <c r="U11" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>What is the meaning of "I like to kill him. Join the club" ?</v>
       </c>
       <c r="V11" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W11" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X11" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y11" s="22" t="str">
         <f t="shared" si="10"/>
@@ -4918,7 +4901,7 @@
       <c r="AD13" s="13"/>
       <c r="AE13" s="13"/>
     </row>
-    <row r="14" ht="35" spans="1:31">
+    <row r="14" ht="24" spans="1:31">
       <c r="A14" s="2">
         <v>6</v>
       </c>
@@ -4944,11 +4927,11 @@
       </c>
       <c r="J14" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="22">
         <f t="shared" si="12"/>
@@ -4962,43 +4945,43 @@
       </c>
       <c r="O14" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20601013</v>
+        <v/>
       </c>
       <c r="P14" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v>What is the concept of "The apple does not fall far from the tree" ?</v>
+        <v/>
       </c>
       <c r="Q14" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R14" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S14" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T14" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30601013</v>
       </c>
       <c r="U14" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>What is the meaning of "The apple does not fall far from the tree" ?</v>
       </c>
       <c r="V14" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W14" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X14" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y14" s="22" t="str">
         <f t="shared" si="10"/>
@@ -5110,7 +5093,7 @@
       <c r="AD15" s="13"/>
       <c r="AE15" s="13"/>
     </row>
-    <row r="16" ht="24" spans="1:31">
+    <row r="16" ht="35" spans="1:31">
       <c r="A16" s="2">
         <v>6</v>
       </c>
@@ -5136,11 +5119,11 @@
       </c>
       <c r="J16" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" s="22">
         <f t="shared" si="12"/>
@@ -5154,43 +5137,43 @@
       </c>
       <c r="O16" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20601015</v>
       </c>
       <c r="P16" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v/>
+        <v>What is the concept of "This is something for the rocking chair" ?</v>
       </c>
       <c r="Q16" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R16" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S16" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T16" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30601015</v>
+        <v/>
       </c>
       <c r="U16" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>What is the meaning of "This is something for the rocking chair" ?</v>
+        <v/>
       </c>
       <c r="V16" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W16" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X16" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y16" s="22" t="str">
         <f t="shared" si="10"/>
@@ -5232,11 +5215,11 @@
       </c>
       <c r="J17" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" s="22">
         <f t="shared" si="12"/>
@@ -5250,43 +5233,43 @@
       </c>
       <c r="O17" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20602016</v>
       </c>
       <c r="P17" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v/>
+        <v>What is the concept of "Art is not a deodorant" ?</v>
       </c>
       <c r="Q17" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R17" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S17" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T17" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30602016</v>
+        <v/>
       </c>
       <c r="U17" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>What is the meaning of "Art is not a deodorant" ?</v>
+        <v/>
       </c>
       <c r="V17" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W17" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X17" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y17" s="22" t="str">
         <f t="shared" si="10"/>
@@ -5328,11 +5311,11 @@
       </c>
       <c r="J18" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="22">
         <f t="shared" si="12"/>
@@ -5346,43 +5329,43 @@
       </c>
       <c r="O18" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20602017</v>
+        <v/>
       </c>
       <c r="P18" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v>What is the concept of "Wedlock is padlock" ?</v>
+        <v/>
       </c>
       <c r="Q18" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R18" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S18" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T18" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30602017</v>
       </c>
       <c r="U18" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>What is the meaning of "Wedlock is padlock" ?</v>
       </c>
       <c r="V18" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W18" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X18" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y18" s="22" t="str">
         <f t="shared" si="10"/>
@@ -5424,11 +5407,11 @@
       </c>
       <c r="J19" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" s="22">
         <f t="shared" si="12"/>
@@ -5442,43 +5425,43 @@
       </c>
       <c r="O19" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20602018</v>
       </c>
       <c r="P19" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v/>
+        <v>What is the concept of "Being creative is a prison sentence" ?</v>
       </c>
       <c r="Q19" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R19" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S19" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T19" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30602018</v>
+        <v/>
       </c>
       <c r="U19" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>What is the meaning of "Being creative is a prison sentence" ?</v>
+        <v/>
       </c>
       <c r="V19" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W19" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X19" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y19" s="22" t="str">
         <f t="shared" si="10"/>
@@ -5520,11 +5503,11 @@
       </c>
       <c r="J20" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="22">
         <f t="shared" si="12"/>
@@ -5538,43 +5521,43 @@
       </c>
       <c r="O20" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20602019</v>
+        <v/>
       </c>
       <c r="P20" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v>What is the concept of "Never is a long time." ?</v>
+        <v/>
       </c>
       <c r="Q20" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R20" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S20" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T20" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30602019</v>
       </c>
       <c r="U20" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>What is the meaning of "Never is a long time." ?</v>
       </c>
       <c r="V20" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W20" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X20" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y20" s="22" t="str">
         <f t="shared" si="10"/>
@@ -5712,11 +5695,11 @@
       </c>
       <c r="J22" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" s="22">
         <f t="shared" si="12"/>
@@ -5730,43 +5713,43 @@
       </c>
       <c r="O22" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20602021</v>
+        <v/>
       </c>
       <c r="P22" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v>What is the concept of "Happiness is only a side-effect. Pursue meaning." ?</v>
+        <v/>
       </c>
       <c r="Q22" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R22" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S22" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T22" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30602021</v>
       </c>
       <c r="U22" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>What is the meaning of "Happiness is only a side-effect. Pursue meaning." ?</v>
       </c>
       <c r="V22" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W22" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X22" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y22" s="22" t="str">
         <f t="shared" si="10"/>
@@ -5878,7 +5861,7 @@
       <c r="AD23" s="13"/>
       <c r="AE23" s="13"/>
     </row>
-    <row r="24" ht="24" spans="1:31">
+    <row r="24" ht="35" spans="1:31">
       <c r="A24" s="2">
         <v>6</v>
       </c>
@@ -6000,11 +5983,11 @@
       </c>
       <c r="J25" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" s="22">
         <f t="shared" si="12"/>
@@ -6018,43 +6001,43 @@
       </c>
       <c r="O25" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20602024</v>
+        <v/>
       </c>
       <c r="P25" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v>What is the concept of "Genius is the capacity for taking great pains" ?</v>
+        <v/>
       </c>
       <c r="Q25" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R25" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S25" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T25" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30602024</v>
       </c>
       <c r="U25" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>What is the meaning of "Genius is the capacity for taking great pains" ?</v>
       </c>
       <c r="V25" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W25" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X25" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y25" s="22" t="str">
         <f t="shared" si="10"/>
@@ -6096,11 +6079,11 @@
       </c>
       <c r="J26" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26" s="22">
         <f t="shared" si="12"/>
@@ -6114,43 +6097,43 @@
       </c>
       <c r="O26" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20602025</v>
       </c>
       <c r="P26" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v/>
+        <v>What is the concept of "A speech is not an essay on its hind legs" ?</v>
       </c>
       <c r="Q26" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R26" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S26" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T26" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30602025</v>
+        <v/>
       </c>
       <c r="U26" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>What is the meaning of "A speech is not an essay on its hind legs" ?</v>
+        <v/>
       </c>
       <c r="V26" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W26" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X26" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y26" s="22" t="str">
         <f t="shared" si="10"/>
@@ -6192,11 +6175,11 @@
       </c>
       <c r="J27" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27" s="22">
         <f t="shared" si="12"/>
@@ -6210,43 +6193,43 @@
       </c>
       <c r="O27" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20602026</v>
       </c>
       <c r="P27" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v/>
+        <v>What is the concept of "Teachers are engineers of the human soul " ?</v>
       </c>
       <c r="Q27" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R27" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S27" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T27" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30602026</v>
+        <v/>
       </c>
       <c r="U27" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>What is the meaning of "Teachers are engineers of the human soul " ?</v>
+        <v/>
       </c>
       <c r="V27" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W27" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X27" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y27" s="22" t="str">
         <f t="shared" si="10"/>
@@ -6384,11 +6367,11 @@
       </c>
       <c r="J29" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29" s="22">
         <f t="shared" si="12"/>
@@ -6402,43 +6385,43 @@
       </c>
       <c r="O29" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20602028</v>
       </c>
       <c r="P29" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v/>
+        <v>What is the concept of "Democracy is not a spectator sport" ?</v>
       </c>
       <c r="Q29" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R29" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S29" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T29" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30602028</v>
+        <v/>
       </c>
       <c r="U29" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>What is the meaning of "Democracy is not a spectator sport" ?</v>
+        <v/>
       </c>
       <c r="V29" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W29" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X29" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y29" s="22" t="str">
         <f t="shared" si="10"/>
@@ -6672,11 +6655,11 @@
       </c>
       <c r="J32" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32" s="22">
         <f t="shared" si="12"/>
@@ -6690,43 +6673,43 @@
       </c>
       <c r="O32" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20603031</v>
+        <v/>
       </c>
       <c r="P32" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v>What is the concept of "The marriage staggered on for another 3 years" ?</v>
+        <v/>
       </c>
       <c r="Q32" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R32" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S32" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T32" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30603031</v>
       </c>
       <c r="U32" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>What is the meaning of "The marriage staggered on for another 3 years" ?</v>
       </c>
       <c r="V32" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W32" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X32" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y32" s="22" t="str">
         <f t="shared" si="10"/>
@@ -6768,11 +6751,11 @@
       </c>
       <c r="J33" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33" s="22">
         <f t="shared" si="12"/>
@@ -6786,43 +6769,43 @@
       </c>
       <c r="O33" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20603032</v>
       </c>
       <c r="P33" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v/>
+        <v>What is the concept of "I found errors creeping into his reports" ?</v>
       </c>
       <c r="Q33" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R33" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S33" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T33" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30603032</v>
+        <v/>
       </c>
       <c r="U33" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>What is the meaning of "I found errors creeping into his reports" ?</v>
+        <v/>
       </c>
       <c r="V33" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W33" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X33" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y33" s="22" t="str">
         <f t="shared" si="10"/>
@@ -6864,11 +6847,11 @@
       </c>
       <c r="J34" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34" s="22">
         <f t="shared" si="12"/>
@@ -6882,43 +6865,43 @@
       </c>
       <c r="O34" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20603033</v>
+        <v/>
       </c>
       <c r="P34" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v>What is the concept of "Britain limps back to work after the lockdown" ?</v>
+        <v/>
       </c>
       <c r="Q34" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R34" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S34" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T34" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30603033</v>
       </c>
       <c r="U34" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>What is the meaning of "Britain limps back to work after the lockdown" ?</v>
       </c>
       <c r="V34" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W34" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X34" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y34" s="22" t="str">
         <f t="shared" si="10"/>
@@ -7318,7 +7301,7 @@
       <c r="AD38" s="13"/>
       <c r="AE38" s="13"/>
     </row>
-    <row r="39" ht="24" spans="1:31">
+    <row r="39" ht="35" spans="1:31">
       <c r="A39" s="2">
         <v>6</v>
       </c>
@@ -7344,11 +7327,11 @@
       </c>
       <c r="J39" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39" s="22">
         <f t="shared" si="12"/>
@@ -7362,43 +7345,43 @@
       </c>
       <c r="O39" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20603038</v>
       </c>
       <c r="P39" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v/>
+        <v>What is the concept of "Venice licks its wounds after the floods" ?</v>
       </c>
       <c r="Q39" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R39" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S39" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T39" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30603038</v>
+        <v/>
       </c>
       <c r="U39" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>What is the meaning of "Venice licks its wounds after the floods" ?</v>
+        <v/>
       </c>
       <c r="V39" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W39" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X39" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y39" s="22" t="str">
         <f t="shared" si="10"/>
@@ -7798,7 +7781,7 @@
       <c r="AD43" s="13"/>
       <c r="AE43" s="13"/>
     </row>
-    <row r="44" ht="24" spans="1:31">
+    <row r="44" ht="35" spans="1:31">
       <c r="A44" s="2">
         <v>6</v>
       </c>
@@ -7920,11 +7903,11 @@
       </c>
       <c r="J45" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L45" s="22">
         <f t="shared" si="12"/>
@@ -7938,43 +7921,43 @@
       </c>
       <c r="O45" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20603044</v>
+        <v/>
       </c>
       <c r="P45" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v>What is the concept of "Tiger’s hopes of winning died on the 17th hole" ?</v>
+        <v/>
       </c>
       <c r="Q45" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R45" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S45" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T45" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30603044</v>
       </c>
       <c r="U45" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>What is the meaning of "Tiger’s hopes of winning died on the 17th hole" ?</v>
       </c>
       <c r="V45" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W45" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X45" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y45" s="22" t="str">
         <f t="shared" si="10"/>
@@ -7990,7 +7973,7 @@
       <c r="AD45" s="13"/>
       <c r="AE45" s="13"/>
     </row>
-    <row r="46" ht="35" spans="1:31">
+    <row r="46" ht="24" spans="1:31">
       <c r="A46" s="2">
         <v>6</v>
       </c>
@@ -8016,11 +7999,11 @@
       </c>
       <c r="J46" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46" s="22">
         <f t="shared" si="12"/>
@@ -8034,43 +8017,43 @@
       </c>
       <c r="O46" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20603045</v>
+        <v/>
       </c>
       <c r="P46" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v>What is the concept of "Call me if your conscience returns" ?</v>
+        <v/>
       </c>
       <c r="Q46" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R46" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S46" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T46" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30603045</v>
       </c>
       <c r="U46" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>What is the meaning of "Call me if your conscience returns" ?</v>
       </c>
       <c r="V46" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W46" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X46" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y46" s="22" t="str">
         <f t="shared" si="10"/>
@@ -8112,11 +8095,11 @@
       </c>
       <c r="J47" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K47" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L47" s="22">
         <f t="shared" si="12"/>
@@ -8130,43 +8113,43 @@
       </c>
       <c r="O47" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20603046</v>
       </c>
       <c r="P47" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v/>
+        <v>What is the concept of "Fear stalks the streets of Chicago" ?</v>
       </c>
       <c r="Q47" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R47" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S47" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T47" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30603046</v>
+        <v/>
       </c>
       <c r="U47" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>What is the meaning of "Fear stalks the streets of Chicago" ?</v>
+        <v/>
       </c>
       <c r="V47" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W47" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X47" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y47" s="22" t="str">
         <f t="shared" si="10"/>
@@ -8182,7 +8165,7 @@
       <c r="AD47" s="13"/>
       <c r="AE47" s="13"/>
     </row>
-    <row r="48" ht="24" spans="1:31">
+    <row r="48" ht="35" spans="1:31">
       <c r="A48" s="2">
         <v>6</v>
       </c>
@@ -8208,11 +8191,11 @@
       </c>
       <c r="J48" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L48" s="22">
         <f t="shared" si="12"/>
@@ -8226,43 +8209,43 @@
       </c>
       <c r="O48" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20603047</v>
       </c>
       <c r="P48" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v/>
+        <v>What is the concept of "The paint-peeled houses sag from neglect" ?</v>
       </c>
       <c r="Q48" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R48" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S48" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T48" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30603047</v>
+        <v/>
       </c>
       <c r="U48" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>What is the meaning of "The paint-peeled houses sag from neglect" ?</v>
+        <v/>
       </c>
       <c r="V48" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W48" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X48" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y48" s="22" t="str">
         <f t="shared" si="10"/>
@@ -8304,11 +8287,11 @@
       </c>
       <c r="J49" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L49" s="22">
         <f t="shared" si="12"/>
@@ -8322,43 +8305,43 @@
       </c>
       <c r="O49" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20603048</v>
       </c>
       <c r="P49" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v/>
+        <v>What is the concept of "The ghosts of Nanjing still haunt China-Japan relations" ?</v>
       </c>
       <c r="Q49" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R49" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S49" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T49" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30603048</v>
+        <v/>
       </c>
       <c r="U49" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>What is the meaning of "The ghosts of Nanjing still haunt China-Japan relations" ?</v>
+        <v/>
       </c>
       <c r="V49" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W49" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X49" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y49" s="22" t="str">
         <f t="shared" si="10"/>
@@ -8400,11 +8383,11 @@
       </c>
       <c r="J50" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K50" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L50" s="22">
         <f t="shared" si="12"/>
@@ -8418,43 +8401,43 @@
       </c>
       <c r="O50" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20603049</v>
       </c>
       <c r="P50" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v/>
+        <v>What is the concept of "Ice and snow slowly surrendered to the April sun" ?</v>
       </c>
       <c r="Q50" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R50" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S50" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T50" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30603049</v>
+        <v/>
       </c>
       <c r="U50" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>What is the meaning of "Ice and snow slowly surrendered to the April sun" ?</v>
+        <v/>
       </c>
       <c r="V50" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W50" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X50" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y50" s="22" t="str">
         <f t="shared" si="10"/>
@@ -8592,11 +8575,11 @@
       </c>
       <c r="J52" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L52" s="22">
         <f t="shared" si="12"/>
@@ -8610,43 +8593,43 @@
       </c>
       <c r="O52" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20603051</v>
+        <v/>
       </c>
       <c r="P52" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v>What is the concept of "The statistics don't lie" ?</v>
+        <v/>
       </c>
       <c r="Q52" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R52" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S52" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T52" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30603051</v>
       </c>
       <c r="U52" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>What is the meaning of "The statistics don't lie" ?</v>
       </c>
       <c r="V52" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W52" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X52" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y52" s="22" t="str">
         <f t="shared" si="10"/>
@@ -8688,11 +8671,11 @@
       </c>
       <c r="J53" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K53" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L53" s="22">
         <f t="shared" si="12"/>
@@ -8706,43 +8689,43 @@
       </c>
       <c r="O53" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20603052</v>
+        <v/>
       </c>
       <c r="P53" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v>What is the concept of "Money never sleeps" ?</v>
+        <v/>
       </c>
       <c r="Q53" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R53" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S53" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T53" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30603052</v>
       </c>
       <c r="U53" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>What is the meaning of "Money never sleeps" ?</v>
       </c>
       <c r="V53" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W53" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X53" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y53" s="22" t="str">
         <f t="shared" si="10"/>
@@ -8784,11 +8767,11 @@
       </c>
       <c r="J54" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K54" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L54" s="22">
         <f t="shared" si="12"/>
@@ -8802,43 +8785,43 @@
       </c>
       <c r="O54" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20603053</v>
       </c>
       <c r="P54" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v/>
+        <v>What is the concept of "The thesis suffers from a lack of logic" ?</v>
       </c>
       <c r="Q54" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R54" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S54" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T54" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30603053</v>
+        <v/>
       </c>
       <c r="U54" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>What is the meaning of "The thesis suffers from a lack of logic" ?</v>
+        <v/>
       </c>
       <c r="V54" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W54" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X54" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y54" s="22" t="str">
         <f t="shared" si="10"/>
@@ -8880,11 +8863,11 @@
       </c>
       <c r="J55" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K55" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L55" s="22">
         <f t="shared" si="12"/>
@@ -8898,43 +8881,43 @@
       </c>
       <c r="O55" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20603054</v>
       </c>
       <c r="P55" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v/>
+        <v>What is the concept of "The TV is temperamental" ?</v>
       </c>
       <c r="Q55" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R55" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S55" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T55" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30603054</v>
+        <v/>
       </c>
       <c r="U55" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>What is the meaning of "The TV is temperamental" ?</v>
+        <v/>
       </c>
       <c r="V55" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W55" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X55" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y55" s="22" t="str">
         <f t="shared" si="10"/>
@@ -8976,11 +8959,11 @@
       </c>
       <c r="J56" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K56" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L56" s="22">
         <f t="shared" si="12"/>
@@ -8994,43 +8977,43 @@
       </c>
       <c r="O56" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20603055</v>
+        <v/>
       </c>
       <c r="P56" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v>What is the concept of "The dress flatters her figure" ?</v>
+        <v/>
       </c>
       <c r="Q56" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R56" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S56" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T56" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30603055</v>
       </c>
       <c r="U56" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>What is the meaning of "The dress flatters her figure" ?</v>
       </c>
       <c r="V56" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W56" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X56" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y56" s="22" t="str">
         <f t="shared" si="10"/>
@@ -9072,11 +9055,11 @@
       </c>
       <c r="J57" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K57" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L57" s="22">
         <f t="shared" si="12"/>
@@ -9090,43 +9073,43 @@
       </c>
       <c r="O57" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20603056</v>
+        <v/>
       </c>
       <c r="P57" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v>What is the concept of "He is flirting with financial disaster" ?</v>
+        <v/>
       </c>
       <c r="Q57" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R57" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S57" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T57" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30603056</v>
       </c>
       <c r="U57" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>What is the meaning of "He is flirting with financial disaster" ?</v>
       </c>
       <c r="V57" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W57" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X57" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y57" s="22" t="str">
         <f t="shared" si="10"/>
@@ -9168,11 +9151,11 @@
       </c>
       <c r="J58" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K58" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L58" s="22">
         <f t="shared" si="12"/>
@@ -9186,43 +9169,43 @@
       </c>
       <c r="O58" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20603057</v>
+        <v/>
       </c>
       <c r="P58" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v>What is the concept of "Uncertainty lurks in the markets" ?</v>
+        <v/>
       </c>
       <c r="Q58" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R58" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S58" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T58" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30603057</v>
       </c>
       <c r="U58" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>What is the meaning of "Uncertainty lurks in the markets" ?</v>
       </c>
       <c r="V58" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W58" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X58" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y58" s="22" t="str">
         <f t="shared" si="10"/>
@@ -9360,11 +9343,11 @@
       </c>
       <c r="J60" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K60" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L60" s="22">
         <f t="shared" si="12"/>
@@ -9378,43 +9361,43 @@
       </c>
       <c r="O60" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20603059</v>
+        <v/>
       </c>
       <c r="P60" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v>What is the concept of "Opportunity knocks" ?</v>
+        <v/>
       </c>
       <c r="Q60" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R60" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S60" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T60" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30603059</v>
       </c>
       <c r="U60" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>What is the meaning of "Opportunity knocks" ?</v>
       </c>
       <c r="V60" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W60" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X60" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y60" s="22" t="str">
         <f t="shared" si="10"/>
@@ -9456,11 +9439,11 @@
       </c>
       <c r="J61" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K61" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L61" s="22">
         <f t="shared" si="12"/>
@@ -9474,43 +9457,43 @@
       </c>
       <c r="O61" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20603060</v>
+        <v/>
       </c>
       <c r="P61" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v>What is the concept of "fickle fortune" ?</v>
+        <v/>
       </c>
       <c r="Q61" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R61" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S61" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T61" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30603060</v>
       </c>
       <c r="U61" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>What is the meaning of "fickle fortune" ?</v>
       </c>
       <c r="V61" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W61" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X61" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y61" s="22" t="str">
         <f t="shared" si="10"/>
@@ -9552,11 +9535,11 @@
       </c>
       <c r="J62" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K62" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L62" s="22">
         <f t="shared" si="12"/>
@@ -9570,43 +9553,43 @@
       </c>
       <c r="O62" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20603061</v>
+        <v/>
       </c>
       <c r="P62" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v>What is the concept of "The brutal winds have no respect for the hi-tech boats" ?</v>
+        <v/>
       </c>
       <c r="Q62" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R62" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S62" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T62" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30603061</v>
       </c>
       <c r="U62" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>What is the meaning of "The brutal winds have no respect for the hi-tech boats" ?</v>
       </c>
       <c r="V62" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W62" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X62" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y62" s="22" t="str">
         <f t="shared" si="10"/>
@@ -9622,7 +9605,7 @@
       <c r="AD62" s="13"/>
       <c r="AE62" s="13"/>
     </row>
-    <row r="63" ht="24" spans="1:31">
+    <row r="63" ht="35" spans="1:31">
       <c r="A63" s="2">
         <v>6</v>
       </c>
@@ -9718,7 +9701,7 @@
       <c r="AD63" s="13"/>
       <c r="AE63" s="13"/>
     </row>
-    <row r="64" ht="24" spans="1:31">
+    <row r="64" ht="35" spans="1:31">
       <c r="A64" s="2">
         <v>6</v>
       </c>
@@ -9744,11 +9727,11 @@
       </c>
       <c r="J64" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K64" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L64" s="22">
         <f t="shared" si="12"/>
@@ -9762,43 +9745,43 @@
       </c>
       <c r="O64" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20603063</v>
       </c>
       <c r="P64" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v/>
+        <v>What is the concept of "His case fell into a special category" ?</v>
       </c>
       <c r="Q64" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R64" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S64" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T64" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30603063</v>
+        <v/>
       </c>
       <c r="U64" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>What is the meaning of "His case fell into a special category" ?</v>
+        <v/>
       </c>
       <c r="V64" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W64" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X64" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y64" s="22" t="str">
         <f t="shared" si="10"/>
@@ -10224,11 +10207,11 @@
       </c>
       <c r="J69" s="22">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K69" s="22">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L69" s="22">
         <f t="shared" si="17"/>
@@ -10242,43 +10225,43 @@
       </c>
       <c r="O69" s="22" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L20603068</v>
+        <v/>
       </c>
       <c r="P69" s="22" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "If the weather cooperates, we will have a picnic in the park" ?</v>
+        <v/>
       </c>
       <c r="Q69" s="22" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R69" s="22" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S69" s="22" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T69" s="22" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L30603068</v>
       </c>
       <c r="U69" s="22" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "If the weather cooperates, we will have a picnic in the park" ?</v>
       </c>
       <c r="V69" s="22" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W69" s="22" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X69" s="22" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y69" s="22" t="str">
         <f t="shared" si="26"/>
@@ -10294,7 +10277,7 @@
       <c r="AD69" s="13"/>
       <c r="AE69" s="13"/>
     </row>
-    <row r="70" ht="35" spans="1:31">
+    <row r="70" ht="24" spans="1:31">
       <c r="A70" s="2">
         <v>6</v>
       </c>
@@ -10416,11 +10399,11 @@
       </c>
       <c r="J71" s="22">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K71" s="22">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L71" s="22">
         <f t="shared" si="17"/>
@@ -10434,43 +10417,43 @@
       </c>
       <c r="O71" s="22" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L20603070</v>
       </c>
       <c r="P71" s="22" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "Her question was met by silence" ?</v>
       </c>
       <c r="Q71" s="22" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R71" s="22" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S71" s="22" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T71" s="22" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L30603070</v>
+        <v/>
       </c>
       <c r="U71" s="22" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "Her question was met by silence" ?</v>
+        <v/>
       </c>
       <c r="V71" s="22" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W71" s="22" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X71" s="22" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y71" s="22" t="str">
         <f t="shared" si="26"/>
@@ -10512,11 +10495,11 @@
       </c>
       <c r="J72" s="22">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K72" s="22">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L72" s="22">
         <f t="shared" si="17"/>
@@ -10530,43 +10513,43 @@
       </c>
       <c r="O72" s="22" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L20603071</v>
       </c>
       <c r="P72" s="22" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "The winter just won't quit" ?</v>
       </c>
       <c r="Q72" s="22" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R72" s="22" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S72" s="22" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T72" s="22" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L30603071</v>
+        <v/>
       </c>
       <c r="U72" s="22" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "The winter just won't quit" ?</v>
+        <v/>
       </c>
       <c r="V72" s="22" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W72" s="22" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X72" s="22" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y72" s="22" t="str">
         <f t="shared" si="26"/>
@@ -10608,11 +10591,11 @@
       </c>
       <c r="J73" s="22">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K73" s="22">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L73" s="22">
         <f t="shared" si="17"/>
@@ -10626,43 +10609,43 @@
       </c>
       <c r="O73" s="22" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L20603072</v>
       </c>
       <c r="P73" s="22" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "For Boris March 1 promised humiliation" ?</v>
       </c>
       <c r="Q73" s="22" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R73" s="22" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S73" s="22" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T73" s="22" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L30603072</v>
+        <v/>
       </c>
       <c r="U73" s="22" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "For Boris March 1 promised humiliation" ?</v>
+        <v/>
       </c>
       <c r="V73" s="22" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W73" s="22" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X73" s="22" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y73" s="22" t="str">
         <f t="shared" si="26"/>
@@ -10704,11 +10687,11 @@
       </c>
       <c r="J74" s="22">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K74" s="22">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L74" s="22">
         <f t="shared" si="17"/>
@@ -10722,43 +10705,43 @@
       </c>
       <c r="O74" s="22" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L20603073</v>
+        <v/>
       </c>
       <c r="P74" s="22" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "The golf gods are no longer smiling on Tiger" ?</v>
+        <v/>
       </c>
       <c r="Q74" s="22" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R74" s="22" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S74" s="22" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T74" s="22" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L30603073</v>
       </c>
       <c r="U74" s="22" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "The golf gods are no longer smiling on Tiger" ?</v>
       </c>
       <c r="V74" s="22" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W74" s="22" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X74" s="22" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y74" s="22" t="str">
         <f t="shared" si="26"/>
@@ -10774,7 +10757,7 @@
       <c r="AD74" s="13"/>
       <c r="AE74" s="13"/>
     </row>
-    <row r="75" ht="24" spans="1:31">
+    <row r="75" ht="35" spans="1:31">
       <c r="A75" s="2">
         <v>6</v>
       </c>
@@ -10966,7 +10949,7 @@
       <c r="AD76" s="13"/>
       <c r="AE76" s="13"/>
     </row>
-    <row r="77" ht="35" spans="1:31">
+    <row r="77" ht="24" spans="1:31">
       <c r="A77" s="2">
         <v>6</v>
       </c>
@@ -10992,11 +10975,11 @@
       </c>
       <c r="J77" s="22">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K77" s="22">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L77" s="22">
         <f t="shared" si="17"/>
@@ -11010,43 +10993,43 @@
       </c>
       <c r="O77" s="22" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L20603076</v>
+        <v/>
       </c>
       <c r="P77" s="22" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "English football is run by money" ?</v>
+        <v/>
       </c>
       <c r="Q77" s="22" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R77" s="22" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S77" s="22" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T77" s="22" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L30603076</v>
       </c>
       <c r="U77" s="22" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "English football is run by money" ?</v>
       </c>
       <c r="V77" s="22" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W77" s="22" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X77" s="22" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y77" s="22" t="str">
         <f t="shared" si="26"/>
@@ -11184,11 +11167,11 @@
       </c>
       <c r="J79" s="22">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K79" s="22">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L79" s="22">
         <f t="shared" si="17"/>
@@ -11202,43 +11185,43 @@
       </c>
       <c r="O79" s="22" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L20603078</v>
       </c>
       <c r="P79" s="22" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "Fate stepped in, and ended his career" ?</v>
       </c>
       <c r="Q79" s="22" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R79" s="22" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S79" s="22" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T79" s="22" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L30603078</v>
+        <v/>
       </c>
       <c r="U79" s="22" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "Fate stepped in, and ended his career" ?</v>
+        <v/>
       </c>
       <c r="V79" s="22" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W79" s="22" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X79" s="22" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y79" s="22" t="str">
         <f t="shared" si="26"/>
@@ -11280,11 +11263,11 @@
       </c>
       <c r="J80" s="22">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K80" s="22">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L80" s="22">
         <f t="shared" si="17"/>
@@ -11298,43 +11281,43 @@
       </c>
       <c r="O80" s="22" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L20603079</v>
+        <v/>
       </c>
       <c r="P80" s="22" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "Sun Yat Sen dragged China kicking and screaming into the 20th century" ?</v>
+        <v/>
       </c>
       <c r="Q80" s="22" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R80" s="22" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S80" s="22" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T80" s="22" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L30603079</v>
       </c>
       <c r="U80" s="22" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "Sun Yat Sen dragged China kicking and screaming into the 20th century" ?</v>
       </c>
       <c r="V80" s="22" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W80" s="22" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X80" s="22" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y80" s="22" t="str">
         <f t="shared" si="26"/>
@@ -11376,11 +11359,11 @@
       </c>
       <c r="J81" s="22">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K81" s="22">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L81" s="22">
         <f t="shared" si="17"/>
@@ -11394,43 +11377,43 @@
       </c>
       <c r="O81" s="22" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L20603080</v>
       </c>
       <c r="P81" s="22" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "Age is creeping up on me" ?</v>
       </c>
       <c r="Q81" s="22" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R81" s="22" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S81" s="22" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T81" s="22" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L30603080</v>
+        <v/>
       </c>
       <c r="U81" s="22" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "Age is creeping up on me" ?</v>
+        <v/>
       </c>
       <c r="V81" s="22" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W81" s="22" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X81" s="22" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y81" s="22" t="str">
         <f t="shared" si="26"/>
@@ -11568,11 +11551,11 @@
       </c>
       <c r="J83" s="22">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K83" s="22">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L83" s="22">
         <f t="shared" si="17"/>
@@ -11586,43 +11569,43 @@
       </c>
       <c r="O83" s="22" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L20603082</v>
+        <v/>
       </c>
       <c r="P83" s="22" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "The controversy refuses to die" ?</v>
+        <v/>
       </c>
       <c r="Q83" s="22" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R83" s="22" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S83" s="22" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T83" s="22" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L30603082</v>
       </c>
       <c r="U83" s="22" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "The controversy refuses to die" ?</v>
       </c>
       <c r="V83" s="22" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W83" s="22" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X83" s="22" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y83" s="22" t="str">
         <f t="shared" si="26"/>
@@ -11664,11 +11647,11 @@
       </c>
       <c r="J84" s="22">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K84" s="22">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L84" s="22">
         <f t="shared" si="17"/>
@@ -11682,43 +11665,43 @@
       </c>
       <c r="O84" s="22" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L20604083</v>
+        <v/>
       </c>
       <c r="P84" s="22" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "You claim the rise, you own the fall" ?</v>
+        <v/>
       </c>
       <c r="Q84" s="22" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R84" s="22" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S84" s="22" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T84" s="22" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L30604083</v>
       </c>
       <c r="U84" s="22" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "You claim the rise, you own the fall" ?</v>
       </c>
       <c r="V84" s="22" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W84" s="22" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X84" s="22" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y84" s="22" t="str">
         <f t="shared" si="26"/>
@@ -11952,11 +11935,11 @@
       </c>
       <c r="J87" s="22">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K87" s="22">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L87" s="22">
         <f t="shared" si="17"/>
@@ -11970,43 +11953,43 @@
       </c>
       <c r="O87" s="22" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L20604086</v>
+        <v/>
       </c>
       <c r="P87" s="22" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "He has the will to do and the soul to dare" ?</v>
+        <v/>
       </c>
       <c r="Q87" s="22" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R87" s="22" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S87" s="22" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T87" s="22" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L30604086</v>
       </c>
       <c r="U87" s="22" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "He has the will to do and the soul to dare" ?</v>
       </c>
       <c r="V87" s="22" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W87" s="22" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X87" s="22" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y87" s="22" t="str">
         <f t="shared" si="26"/>
@@ -12022,7 +12005,7 @@
       <c r="AD87" s="13"/>
       <c r="AE87" s="13"/>
     </row>
-    <row r="88" ht="24" spans="1:31">
+    <row r="88" ht="35" spans="1:31">
       <c r="A88" s="2">
         <v>6</v>
       </c>
@@ -12240,11 +12223,11 @@
       </c>
       <c r="J90" s="22">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K90" s="22">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L90" s="22">
         <f t="shared" si="17"/>
@@ -12258,43 +12241,43 @@
       </c>
       <c r="O90" s="22" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L20604089</v>
+        <v/>
       </c>
       <c r="P90" s="22" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "Why is it that so few have so much and so many have so little" ?</v>
+        <v/>
       </c>
       <c r="Q90" s="22" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R90" s="22" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S90" s="22" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T90" s="22" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L30604089</v>
       </c>
       <c r="U90" s="22" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "Why is it that so few have so much and so many have so little" ?</v>
       </c>
       <c r="V90" s="22" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W90" s="22" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X90" s="22" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y90" s="22" t="str">
         <f t="shared" si="26"/>
@@ -12336,11 +12319,11 @@
       </c>
       <c r="J91" s="22">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K91" s="22">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L91" s="22">
         <f t="shared" si="17"/>
@@ -12354,43 +12337,43 @@
       </c>
       <c r="O91" s="22" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L20604090</v>
+        <v/>
       </c>
       <c r="P91" s="22" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "We know the face, but do we know the man?" ?</v>
+        <v/>
       </c>
       <c r="Q91" s="22" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R91" s="22" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S91" s="22" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T91" s="22" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L30604090</v>
       </c>
       <c r="U91" s="22" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "We know the face, but do we know the man?" ?</v>
       </c>
       <c r="V91" s="22" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W91" s="22" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X91" s="22" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y91" s="22" t="str">
         <f t="shared" si="26"/>
@@ -12624,11 +12607,11 @@
       </c>
       <c r="J94" s="22">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K94" s="22">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L94" s="22">
         <f t="shared" si="17"/>
@@ -12642,43 +12625,43 @@
       </c>
       <c r="O94" s="22" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L20605093</v>
       </c>
       <c r="P94" s="22" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "hungry as a horse" ?</v>
       </c>
       <c r="Q94" s="22" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R94" s="22" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S94" s="22" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T94" s="22" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L30605093</v>
+        <v/>
       </c>
       <c r="U94" s="22" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "hungry as a horse" ?</v>
+        <v/>
       </c>
       <c r="V94" s="22" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W94" s="22" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X94" s="22" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y94" s="22" t="str">
         <f t="shared" si="26"/>
@@ -12912,11 +12895,11 @@
       </c>
       <c r="J97" s="22">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K97" s="22">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L97" s="22">
         <f t="shared" si="17"/>
@@ -12930,43 +12913,43 @@
       </c>
       <c r="O97" s="22" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L20605096</v>
+        <v/>
       </c>
       <c r="P97" s="22" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "As free as the wind" ?</v>
+        <v/>
       </c>
       <c r="Q97" s="22" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R97" s="22" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S97" s="22" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T97" s="22" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L30605096</v>
       </c>
       <c r="U97" s="22" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "As free as the wind" ?</v>
       </c>
       <c r="V97" s="22" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W97" s="22" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X97" s="22" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y97" s="22" t="str">
         <f t="shared" si="26"/>
@@ -13392,11 +13375,11 @@
       </c>
       <c r="J102" s="22">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K102" s="22">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L102" s="22">
         <f t="shared" si="17"/>
@@ -13410,43 +13393,43 @@
       </c>
       <c r="O102" s="22" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L20605101</v>
+        <v/>
       </c>
       <c r="P102" s="22" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "Float like a butterfly and sting like a bee" ?</v>
+        <v/>
       </c>
       <c r="Q102" s="22" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R102" s="22" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S102" s="22" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T102" s="22" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L30605101</v>
       </c>
       <c r="U102" s="22" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "Float like a butterfly and sting like a bee" ?</v>
       </c>
       <c r="V102" s="22" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W102" s="22" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X102" s="22" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y102" s="22" t="str">
         <f t="shared" si="26"/>
@@ -13488,11 +13471,11 @@
       </c>
       <c r="J103" s="22">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K103" s="22">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L103" s="22">
         <f t="shared" si="17"/>
@@ -13506,43 +13489,43 @@
       </c>
       <c r="O103" s="22" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L20605102</v>
       </c>
       <c r="P103" s="22" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "Playing for third place is like kissing your sister" ?</v>
       </c>
       <c r="Q103" s="22" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R103" s="22" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S103" s="22" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T103" s="22" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L30605102</v>
+        <v/>
       </c>
       <c r="U103" s="22" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "Playing for third place is like kissing your sister" ?</v>
+        <v/>
       </c>
       <c r="V103" s="22" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W103" s="22" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X103" s="22" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y103" s="22" t="str">
         <f t="shared" si="26"/>
@@ -13584,11 +13567,11 @@
       </c>
       <c r="J104" s="22">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K104" s="22">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L104" s="22">
         <f t="shared" si="17"/>
@@ -13602,43 +13585,43 @@
       </c>
       <c r="O104" s="22" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L20605103</v>
+        <v/>
       </c>
       <c r="P104" s="22" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "drink like a fish" ?</v>
+        <v/>
       </c>
       <c r="Q104" s="22" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R104" s="22" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S104" s="22" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T104" s="22" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L30605103</v>
       </c>
       <c r="U104" s="22" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "drink like a fish" ?</v>
       </c>
       <c r="V104" s="22" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W104" s="22" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X104" s="22" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y104" s="22" t="str">
         <f t="shared" si="26"/>
@@ -13968,11 +13951,11 @@
       </c>
       <c r="J108" s="22">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K108" s="22">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L108" s="22">
         <f t="shared" si="17"/>
@@ -13986,43 +13969,43 @@
       </c>
       <c r="O108" s="22" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L20605107</v>
+        <v/>
       </c>
       <c r="P108" s="22" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "Our border is like Swiss cheese" ?</v>
+        <v/>
       </c>
       <c r="Q108" s="22" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R108" s="22" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S108" s="22" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T108" s="22" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L30605107</v>
       </c>
       <c r="U108" s="22" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "Our border is like Swiss cheese" ?</v>
       </c>
       <c r="V108" s="22" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W108" s="22" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X108" s="22" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y108" s="22" t="str">
         <f t="shared" si="26"/>
@@ -14160,11 +14143,11 @@
       </c>
       <c r="J110" s="22">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K110" s="22">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L110" s="22">
         <f t="shared" si="17"/>
@@ -14178,43 +14161,43 @@
       </c>
       <c r="O110" s="22" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L20606109</v>
       </c>
       <c r="P110" s="22" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "Measles is roaring back into the headlines" ?</v>
       </c>
       <c r="Q110" s="22" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R110" s="22" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S110" s="22" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T110" s="22" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L30606109</v>
+        <v/>
       </c>
       <c r="U110" s="22" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "Measles is roaring back into the headlines" ?</v>
+        <v/>
       </c>
       <c r="V110" s="22" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W110" s="22" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X110" s="22" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y110" s="22" t="str">
         <f t="shared" si="26"/>
@@ -14256,11 +14239,11 @@
       </c>
       <c r="J111" s="22">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K111" s="22">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L111" s="22">
         <f t="shared" si="17"/>
@@ -14274,43 +14257,43 @@
       </c>
       <c r="O111" s="22" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L20606110</v>
       </c>
       <c r="P111" s="22" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "My budget doesn’t stretch to shark fins" ?</v>
       </c>
       <c r="Q111" s="22" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R111" s="22" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S111" s="22" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T111" s="22" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L30606110</v>
+        <v/>
       </c>
       <c r="U111" s="22" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "My budget doesn’t stretch to shark fins" ?</v>
+        <v/>
       </c>
       <c r="V111" s="22" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W111" s="22" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X111" s="22" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y111" s="22" t="str">
         <f t="shared" si="26"/>
@@ -14326,7 +14309,7 @@
       <c r="AD111" s="13"/>
       <c r="AE111" s="13"/>
     </row>
-    <row r="112" ht="24" spans="1:31">
+    <row r="112" ht="35" spans="1:31">
       <c r="A112" s="2">
         <v>6</v>
       </c>
@@ -14352,11 +14335,11 @@
       </c>
       <c r="J112" s="22">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K112" s="22">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L112" s="22">
         <f t="shared" si="17"/>
@@ -14370,43 +14353,43 @@
       </c>
       <c r="O112" s="22" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L20606111</v>
       </c>
       <c r="P112" s="22" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "He stands accused of corruption" ?</v>
       </c>
       <c r="Q112" s="22" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R112" s="22" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S112" s="22" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T112" s="22" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L30606111</v>
+        <v/>
       </c>
       <c r="U112" s="22" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "He stands accused of corruption" ?</v>
+        <v/>
       </c>
       <c r="V112" s="22" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W112" s="22" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X112" s="22" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y112" s="22" t="str">
         <f t="shared" si="26"/>
@@ -14448,11 +14431,11 @@
       </c>
       <c r="J113" s="22">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K113" s="22">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L113" s="22">
         <f t="shared" si="17"/>
@@ -14466,43 +14449,43 @@
       </c>
       <c r="O113" s="22" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L20606112</v>
       </c>
       <c r="P113" s="22" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "The new policy doesn’t sit well with the voters" ?</v>
       </c>
       <c r="Q113" s="22" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R113" s="22" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S113" s="22" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T113" s="22" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L30606112</v>
+        <v/>
       </c>
       <c r="U113" s="22" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "The new policy doesn’t sit well with the voters" ?</v>
+        <v/>
       </c>
       <c r="V113" s="22" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W113" s="22" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X113" s="22" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y113" s="22" t="str">
         <f t="shared" si="26"/>
@@ -14928,11 +14911,11 @@
       </c>
       <c r="J118" s="22">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K118" s="22">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L118" s="22">
         <f t="shared" si="17"/>
@@ -14946,43 +14929,43 @@
       </c>
       <c r="O118" s="22" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L20606117</v>
+        <v/>
       </c>
       <c r="P118" s="22" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "He jumps at the chance" ?</v>
+        <v/>
       </c>
       <c r="Q118" s="22" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R118" s="22" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S118" s="22" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T118" s="22" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L30606117</v>
       </c>
       <c r="U118" s="22" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "He jumps at the chance" ?</v>
       </c>
       <c r="V118" s="22" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W118" s="22" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X118" s="22" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y118" s="22" t="str">
         <f t="shared" si="26"/>
@@ -15024,11 +15007,11 @@
       </c>
       <c r="J119" s="22">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K119" s="22">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L119" s="22">
         <f t="shared" si="17"/>
@@ -15042,43 +15025,43 @@
       </c>
       <c r="O119" s="22" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L20606118</v>
       </c>
       <c r="P119" s="22" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "He drinks it all in" ?</v>
       </c>
       <c r="Q119" s="22" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R119" s="22" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S119" s="22" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T119" s="22" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L30606118</v>
+        <v/>
       </c>
       <c r="U119" s="22" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "He drinks it all in" ?</v>
+        <v/>
       </c>
       <c r="V119" s="22" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W119" s="22" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X119" s="22" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y119" s="22" t="str">
         <f t="shared" si="26"/>

--- a/miniproject/template/Lectures/Lecture 6.xlsx
+++ b/miniproject/template/Lectures/Lecture 6.xlsx
@@ -43,19 +43,7 @@
     <t>Meaning</t>
   </si>
   <si>
-    <r>
-      <t>Meaning</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（中文）</t>
-    </r>
+    <t>Translation</t>
   </si>
   <si>
     <t>level_2</t>
@@ -2391,10 +2379,10 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2476,13 +2464,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -2490,10 +2471,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2504,9 +2486,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2520,30 +2501,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2558,8 +2518,38 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2574,15 +2564,22 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2597,14 +2594,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -2612,32 +2601,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="方正书宋_GBK"/>
+      <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2650,9 +2630,8 @@
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="38">
@@ -2694,7 +2673,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2706,49 +2709,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2766,25 +2733,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2802,7 +2805,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2814,67 +2853,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2994,17 +2973,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3013,6 +2986,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -3033,13 +3017,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3055,15 +3043,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3085,148 +3064,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3322,7 +3301,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3787,11 +3766,11 @@
       </c>
       <c r="J2" s="22">
         <f ca="1">IF(RAND()&gt;=0.5,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" s="22">
         <f ca="1">IF(J2&gt;0,0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" s="22">
         <f>IF(LEN(G2)&gt;30,0,1)</f>
@@ -3805,43 +3784,43 @@
       </c>
       <c r="O2" s="22" t="str">
         <f ca="1">IF(J2=1,CONCATENATE("L2",$M4),"")</f>
-        <v>L20</v>
+        <v/>
       </c>
       <c r="P2" s="22" t="str">
         <f ca="1">IF(J2=1,CONCATENATE("What is the concept of """,G2,""" ?"),"")</f>
-        <v>What is the concept of "The audience is the 12th man of the team" ?</v>
+        <v/>
       </c>
       <c r="Q2" s="22" t="str">
         <f ca="1">IF(J2=0,"","wrong option1")</f>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R2" s="22" t="str">
         <f ca="1">IF(J2=0,"","wrong option2")</f>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S2" s="22" t="str">
         <f ca="1">IF(J2=0,"","wrong option3")</f>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T2" s="22" t="str">
         <f ca="1">IF(K2=1,CONCATENATE("L3",$F2),"")</f>
-        <v/>
+        <v>L30601001</v>
       </c>
       <c r="U2" s="22" t="str">
         <f ca="1">IF(K2=1,CONCATENATE("What is the meaning of """,G2,""" ?"),"")</f>
-        <v/>
+        <v>What is the meaning of "The audience is the 12th man of the team" ?</v>
       </c>
       <c r="V2" s="22" t="str">
         <f ca="1">IF(K2=0,"","wrong option1")</f>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W2" s="22" t="str">
         <f ca="1">IF(K2=0,"","wrong option2")</f>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X2" s="22" t="str">
         <f ca="1">IF(K2=0,"","wrong option3")</f>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y2" s="22" t="str">
         <f>IF(L2=1,CONCATENATE("L4",$F2),"")</f>
@@ -3978,11 +3957,11 @@
       </c>
       <c r="J4" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="22">
         <f t="shared" ref="L4:L66" si="12">IF(LEN(G4)&gt;30,0,1)</f>
@@ -3996,43 +3975,43 @@
       </c>
       <c r="O4" s="22" t="str">
         <f ca="1" t="shared" ref="O4:O67" si="13">IF(J4=1,CONCATENATE("L2",$F4),"")</f>
-        <v>L20601003</v>
+        <v/>
       </c>
       <c r="P4" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v>What is the concept of "robbing the cradle" ?</v>
+        <v/>
       </c>
       <c r="Q4" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R4" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S4" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T4" s="22" t="str">
         <f ca="1" t="shared" ref="T4:T67" si="14">IF(K4=1,CONCATENATE("L3",$F4),"")</f>
-        <v/>
+        <v>L30601003</v>
       </c>
       <c r="U4" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>What is the meaning of "robbing the cradle" ?</v>
       </c>
       <c r="V4" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W4" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X4" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y4" s="22" t="str">
         <f t="shared" si="10"/>
@@ -4170,11 +4149,11 @@
       </c>
       <c r="J6" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="22">
         <f t="shared" si="12"/>
@@ -4188,43 +4167,43 @@
       </c>
       <c r="O6" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20601005</v>
       </c>
       <c r="P6" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v/>
+        <v>What is the concept of "The sun will still rise (Obama after Trump’s shock victory)" ?</v>
       </c>
       <c r="Q6" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R6" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S6" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T6" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30601005</v>
+        <v/>
       </c>
       <c r="U6" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>What is the meaning of "The sun will still rise (Obama after Trump’s shock victory)" ?</v>
+        <v/>
       </c>
       <c r="V6" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W6" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X6" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y6" s="22" t="str">
         <f t="shared" si="10"/>
@@ -4266,11 +4245,11 @@
       </c>
       <c r="J7" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="22">
         <f t="shared" si="12"/>
@@ -4284,43 +4263,43 @@
       </c>
       <c r="O7" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20601006</v>
       </c>
       <c r="P7" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v/>
+        <v>What is the concept of "nosebleed seats" ?</v>
       </c>
       <c r="Q7" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R7" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S7" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T7" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30601006</v>
+        <v/>
       </c>
       <c r="U7" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>What is the meaning of "nosebleed seats" ?</v>
+        <v/>
       </c>
       <c r="V7" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W7" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X7" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y7" s="22" t="str">
         <f t="shared" si="10"/>
@@ -4362,11 +4341,11 @@
       </c>
       <c r="J8" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="22">
         <f t="shared" si="12"/>
@@ -4380,43 +4359,43 @@
       </c>
       <c r="O8" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20601007</v>
+        <v/>
       </c>
       <c r="P8" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v>What is the concept of "The gloves are off" ?</v>
+        <v/>
       </c>
       <c r="Q8" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R8" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S8" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T8" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30601007</v>
       </c>
       <c r="U8" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>What is the meaning of "The gloves are off" ?</v>
       </c>
       <c r="V8" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W8" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X8" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y8" s="22" t="str">
         <f t="shared" si="10"/>
@@ -4458,11 +4437,11 @@
       </c>
       <c r="J9" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" s="22">
         <f t="shared" si="12"/>
@@ -4476,43 +4455,43 @@
       </c>
       <c r="O9" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20601008</v>
+        <v/>
       </c>
       <c r="P9" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v>What is the concept of "There are two people in this case. One of them is lying" ?</v>
+        <v/>
       </c>
       <c r="Q9" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R9" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S9" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T9" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30601008</v>
       </c>
       <c r="U9" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>What is the meaning of "There are two people in this case. One of them is lying" ?</v>
       </c>
       <c r="V9" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W9" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X9" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y9" s="22" t="str">
         <f t="shared" si="10"/>
@@ -4650,11 +4629,11 @@
       </c>
       <c r="J11" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" s="22">
         <f t="shared" si="12"/>
@@ -4668,43 +4647,43 @@
       </c>
       <c r="O11" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20601010</v>
       </c>
       <c r="P11" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v/>
+        <v>What is the concept of "I like to kill him. Join the club" ?</v>
       </c>
       <c r="Q11" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R11" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S11" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T11" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30601010</v>
+        <v/>
       </c>
       <c r="U11" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>What is the meaning of "I like to kill him. Join the club" ?</v>
+        <v/>
       </c>
       <c r="V11" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W11" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X11" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y11" s="22" t="str">
         <f t="shared" si="10"/>
@@ -4746,11 +4725,11 @@
       </c>
       <c r="J12" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" s="22">
         <f t="shared" si="12"/>
@@ -4764,44 +4743,44 @@
       </c>
       <c r="O12" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20601011</v>
       </c>
       <c r="P12" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v/>
+        <v>What is the concept of "There
+are no atheists in the foxhole" ?</v>
       </c>
       <c r="Q12" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R12" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S12" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T12" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30601011</v>
+        <v/>
       </c>
       <c r="U12" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>What is the meaning of "There
-are no atheists in the foxhole" ?</v>
+        <v/>
       </c>
       <c r="V12" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W12" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X12" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y12" s="22" t="str">
         <f t="shared" si="10"/>
@@ -4913,7 +4892,7 @@
       <c r="AD13" s="13"/>
       <c r="AE13" s="13"/>
     </row>
-    <row r="14" ht="35" spans="1:31">
+    <row r="14" ht="24" spans="1:31">
       <c r="A14" s="2">
         <v>6</v>
       </c>
@@ -5105,7 +5084,7 @@
       <c r="AD15" s="13"/>
       <c r="AE15" s="13"/>
     </row>
-    <row r="16" ht="24" spans="1:31">
+    <row r="16" ht="35" spans="1:31">
       <c r="A16" s="2">
         <v>6</v>
       </c>
@@ -5227,11 +5206,11 @@
       </c>
       <c r="J17" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="22">
         <f t="shared" si="12"/>
@@ -5245,43 +5224,43 @@
       </c>
       <c r="O17" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20602016</v>
+        <v/>
       </c>
       <c r="P17" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v>What is the concept of "Art is not a deodorant" ?</v>
+        <v/>
       </c>
       <c r="Q17" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R17" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S17" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T17" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30602016</v>
       </c>
       <c r="U17" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>What is the meaning of "Art is not a deodorant" ?</v>
       </c>
       <c r="V17" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W17" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X17" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y17" s="22" t="str">
         <f t="shared" si="10"/>
@@ -5323,11 +5302,11 @@
       </c>
       <c r="J18" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" s="22">
         <f t="shared" si="12"/>
@@ -5341,43 +5320,43 @@
       </c>
       <c r="O18" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20602017</v>
       </c>
       <c r="P18" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v/>
+        <v>What is the concept of "Wedlock is padlock" ?</v>
       </c>
       <c r="Q18" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R18" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S18" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T18" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30602017</v>
+        <v/>
       </c>
       <c r="U18" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>What is the meaning of "Wedlock is padlock" ?</v>
+        <v/>
       </c>
       <c r="V18" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W18" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X18" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y18" s="22" t="str">
         <f t="shared" si="10"/>
@@ -5419,11 +5398,11 @@
       </c>
       <c r="J19" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" s="22">
         <f t="shared" si="12"/>
@@ -5437,43 +5416,43 @@
       </c>
       <c r="O19" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20602018</v>
       </c>
       <c r="P19" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v/>
+        <v>What is the concept of "Being creative is a prison sentence" ?</v>
       </c>
       <c r="Q19" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R19" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S19" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T19" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30602018</v>
+        <v/>
       </c>
       <c r="U19" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>What is the meaning of "Being creative is a prison sentence" ?</v>
+        <v/>
       </c>
       <c r="V19" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W19" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X19" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y19" s="22" t="str">
         <f t="shared" si="10"/>
@@ -5611,11 +5590,11 @@
       </c>
       <c r="J21" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" s="22">
         <f t="shared" si="12"/>
@@ -5629,43 +5608,43 @@
       </c>
       <c r="O21" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20602020</v>
+        <v/>
       </c>
       <c r="P21" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v>What is the concept of "Money is the root of all evil" ?</v>
+        <v/>
       </c>
       <c r="Q21" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R21" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S21" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T21" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30602020</v>
       </c>
       <c r="U21" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>What is the meaning of "Money is the root of all evil" ?</v>
       </c>
       <c r="V21" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W21" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X21" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y21" s="22" t="str">
         <f t="shared" si="10"/>
@@ -5873,7 +5852,7 @@
       <c r="AD23" s="13"/>
       <c r="AE23" s="13"/>
     </row>
-    <row r="24" ht="24" spans="1:31">
+    <row r="24" ht="35" spans="1:31">
       <c r="A24" s="2">
         <v>6</v>
       </c>
@@ -5995,11 +5974,11 @@
       </c>
       <c r="J25" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" s="22">
         <f t="shared" si="12"/>
@@ -6013,43 +5992,43 @@
       </c>
       <c r="O25" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20602024</v>
       </c>
       <c r="P25" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v/>
+        <v>What is the concept of "Genius is the capacity for taking great pains" ?</v>
       </c>
       <c r="Q25" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R25" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S25" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T25" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30602024</v>
+        <v/>
       </c>
       <c r="U25" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>What is the meaning of "Genius is the capacity for taking great pains" ?</v>
+        <v/>
       </c>
       <c r="V25" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W25" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X25" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y25" s="22" t="str">
         <f t="shared" si="10"/>
@@ -6187,11 +6166,11 @@
       </c>
       <c r="J27" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27" s="22">
         <f t="shared" si="12"/>
@@ -6205,43 +6184,43 @@
       </c>
       <c r="O27" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20602026</v>
       </c>
       <c r="P27" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v/>
+        <v>What is the concept of "Teachers are engineers of the human soul " ?</v>
       </c>
       <c r="Q27" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R27" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S27" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T27" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30602026</v>
+        <v/>
       </c>
       <c r="U27" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>What is the meaning of "Teachers are engineers of the human soul " ?</v>
+        <v/>
       </c>
       <c r="V27" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W27" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X27" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y27" s="22" t="str">
         <f t="shared" si="10"/>
@@ -6667,11 +6646,11 @@
       </c>
       <c r="J32" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32" s="22">
         <f t="shared" si="12"/>
@@ -6685,43 +6664,43 @@
       </c>
       <c r="O32" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20603031</v>
+        <v/>
       </c>
       <c r="P32" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v>What is the concept of "The marriage staggered on for another 3 years" ?</v>
+        <v/>
       </c>
       <c r="Q32" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R32" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S32" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T32" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30603031</v>
       </c>
       <c r="U32" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>What is the meaning of "The marriage staggered on for another 3 years" ?</v>
       </c>
       <c r="V32" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W32" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X32" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y32" s="22" t="str">
         <f t="shared" si="10"/>
@@ -6763,11 +6742,11 @@
       </c>
       <c r="J33" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33" s="22">
         <f t="shared" si="12"/>
@@ -6781,43 +6760,43 @@
       </c>
       <c r="O33" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20603032</v>
       </c>
       <c r="P33" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v/>
+        <v>What is the concept of "I found errors creeping into his reports" ?</v>
       </c>
       <c r="Q33" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R33" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S33" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T33" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30603032</v>
+        <v/>
       </c>
       <c r="U33" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>What is the meaning of "I found errors creeping into his reports" ?</v>
+        <v/>
       </c>
       <c r="V33" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W33" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X33" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y33" s="22" t="str">
         <f t="shared" si="10"/>
@@ -6955,11 +6934,11 @@
       </c>
       <c r="J35" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35" s="22">
         <f t="shared" si="12"/>
@@ -6973,43 +6952,43 @@
       </c>
       <c r="O35" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20603034</v>
+        <v/>
       </c>
       <c r="P35" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v>What is the concept of "Her clothes whisper her wealth discreetly" ?</v>
+        <v/>
       </c>
       <c r="Q35" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R35" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S35" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T35" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30603034</v>
       </c>
       <c r="U35" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>What is the meaning of "Her clothes whisper her wealth discreetly" ?</v>
       </c>
       <c r="V35" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W35" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X35" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y35" s="22" t="str">
         <f t="shared" si="10"/>
@@ -7243,11 +7222,11 @@
       </c>
       <c r="J38" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38" s="22">
         <f t="shared" si="12"/>
@@ -7261,43 +7240,43 @@
       </c>
       <c r="O38" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20603037</v>
+        <v/>
       </c>
       <c r="P38" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v>What is the concept of "The design ticks all the boxes" ?</v>
+        <v/>
       </c>
       <c r="Q38" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R38" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S38" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T38" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30603037</v>
       </c>
       <c r="U38" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>What is the meaning of "The design ticks all the boxes" ?</v>
       </c>
       <c r="V38" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W38" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X38" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y38" s="22" t="str">
         <f t="shared" si="10"/>
@@ -7313,7 +7292,7 @@
       <c r="AD38" s="13"/>
       <c r="AE38" s="13"/>
     </row>
-    <row r="39" ht="24" spans="1:31">
+    <row r="39" ht="35" spans="1:31">
       <c r="A39" s="2">
         <v>6</v>
       </c>
@@ -7819,11 +7798,11 @@
       </c>
       <c r="J44" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L44" s="22">
         <f t="shared" si="12"/>
@@ -7837,43 +7816,43 @@
       </c>
       <c r="O44" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20603043</v>
       </c>
       <c r="P44" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v/>
+        <v>What is the concept of "The word “defeat” never crossed his lips" ?</v>
       </c>
       <c r="Q44" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R44" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S44" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T44" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30603043</v>
+        <v/>
       </c>
       <c r="U44" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>What is the meaning of "The word “defeat” never crossed his lips" ?</v>
+        <v/>
       </c>
       <c r="V44" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W44" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X44" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y44" s="22" t="str">
         <f t="shared" si="10"/>
@@ -8465,7 +8444,7 @@
       <c r="AD50" s="13"/>
       <c r="AE50" s="13"/>
     </row>
-    <row r="51" ht="47" spans="1:31">
+    <row r="51" ht="35" spans="1:31">
       <c r="A51" s="2">
         <v>6</v>
       </c>
@@ -8683,11 +8662,11 @@
       </c>
       <c r="J53" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K53" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L53" s="22">
         <f t="shared" si="12"/>
@@ -8701,43 +8680,43 @@
       </c>
       <c r="O53" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20603052</v>
+        <v/>
       </c>
       <c r="P53" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v>What is the concept of "Money never sleeps" ?</v>
+        <v/>
       </c>
       <c r="Q53" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R53" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S53" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T53" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30603052</v>
       </c>
       <c r="U53" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>What is the meaning of "Money never sleeps" ?</v>
       </c>
       <c r="V53" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W53" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X53" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y53" s="22" t="str">
         <f t="shared" si="10"/>
@@ -8753,7 +8732,7 @@
       <c r="AD53" s="13"/>
       <c r="AE53" s="13"/>
     </row>
-    <row r="54" ht="35" spans="1:31">
+    <row r="54" ht="24" spans="1:31">
       <c r="A54" s="2">
         <v>6</v>
       </c>
@@ -8875,11 +8854,11 @@
       </c>
       <c r="J55" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K55" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L55" s="22">
         <f t="shared" si="12"/>
@@ -8893,43 +8872,43 @@
       </c>
       <c r="O55" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20603054</v>
       </c>
       <c r="P55" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v/>
+        <v>What is the concept of "The TV is temperamental" ?</v>
       </c>
       <c r="Q55" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R55" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S55" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T55" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30603054</v>
+        <v/>
       </c>
       <c r="U55" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>What is the meaning of "The TV is temperamental" ?</v>
+        <v/>
       </c>
       <c r="V55" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W55" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X55" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y55" s="22" t="str">
         <f t="shared" si="10"/>
@@ -8971,11 +8950,11 @@
       </c>
       <c r="J56" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K56" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L56" s="22">
         <f t="shared" si="12"/>
@@ -8989,43 +8968,43 @@
       </c>
       <c r="O56" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20603055</v>
       </c>
       <c r="P56" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v/>
+        <v>What is the concept of "The dress flatters her figure" ?</v>
       </c>
       <c r="Q56" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R56" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S56" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T56" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30603055</v>
+        <v/>
       </c>
       <c r="U56" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>What is the meaning of "The dress flatters her figure" ?</v>
+        <v/>
       </c>
       <c r="V56" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W56" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X56" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y56" s="22" t="str">
         <f t="shared" si="10"/>
@@ -9041,7 +9020,7 @@
       <c r="AD56" s="13"/>
       <c r="AE56" s="13"/>
     </row>
-    <row r="57" ht="35" spans="1:31">
+    <row r="57" ht="24" spans="1:31">
       <c r="A57" s="2">
         <v>6</v>
       </c>
@@ -9163,11 +9142,11 @@
       </c>
       <c r="J58" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K58" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L58" s="22">
         <f t="shared" si="12"/>
@@ -9181,43 +9160,43 @@
       </c>
       <c r="O58" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20603057</v>
       </c>
       <c r="P58" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v/>
+        <v>What is the concept of "Uncertainty lurks in the markets" ?</v>
       </c>
       <c r="Q58" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R58" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S58" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T58" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30603057</v>
+        <v/>
       </c>
       <c r="U58" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>What is the meaning of "Uncertainty lurks in the markets" ?</v>
+        <v/>
       </c>
       <c r="V58" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W58" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X58" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y58" s="22" t="str">
         <f t="shared" si="10"/>
@@ -9355,11 +9334,11 @@
       </c>
       <c r="J60" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K60" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L60" s="22">
         <f t="shared" si="12"/>
@@ -9373,43 +9352,43 @@
       </c>
       <c r="O60" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20603059</v>
       </c>
       <c r="P60" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v/>
+        <v>What is the concept of "Opportunity knocks" ?</v>
       </c>
       <c r="Q60" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R60" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S60" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T60" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30603059</v>
+        <v/>
       </c>
       <c r="U60" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>What is the meaning of "Opportunity knocks" ?</v>
+        <v/>
       </c>
       <c r="V60" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W60" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X60" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y60" s="22" t="str">
         <f t="shared" si="10"/>
@@ -9451,11 +9430,11 @@
       </c>
       <c r="J61" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K61" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L61" s="22">
         <f t="shared" si="12"/>
@@ -9469,43 +9448,43 @@
       </c>
       <c r="O61" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20603060</v>
+        <v/>
       </c>
       <c r="P61" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v>What is the concept of "fickle fortune" ?</v>
+        <v/>
       </c>
       <c r="Q61" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R61" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S61" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T61" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30603060</v>
       </c>
       <c r="U61" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>What is the meaning of "fickle fortune" ?</v>
       </c>
       <c r="V61" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W61" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X61" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y61" s="22" t="str">
         <f t="shared" si="10"/>
@@ -9547,11 +9526,11 @@
       </c>
       <c r="J62" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K62" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L62" s="22">
         <f t="shared" si="12"/>
@@ -9565,43 +9544,43 @@
       </c>
       <c r="O62" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20603061</v>
       </c>
       <c r="P62" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v/>
+        <v>What is the concept of "The brutal winds have no respect for the hi-tech boats" ?</v>
       </c>
       <c r="Q62" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R62" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S62" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T62" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30603061</v>
+        <v/>
       </c>
       <c r="U62" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>What is the meaning of "The brutal winds have no respect for the hi-tech boats" ?</v>
+        <v/>
       </c>
       <c r="V62" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W62" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X62" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y62" s="22" t="str">
         <f t="shared" si="10"/>
@@ -9713,7 +9692,7 @@
       <c r="AD63" s="13"/>
       <c r="AE63" s="13"/>
     </row>
-    <row r="64" ht="24" spans="1:31">
+    <row r="64" ht="35" spans="1:31">
       <c r="A64" s="2">
         <v>6</v>
       </c>
@@ -9739,11 +9718,11 @@
       </c>
       <c r="J64" s="22">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K64" s="22">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L64" s="22">
         <f t="shared" si="12"/>
@@ -9757,43 +9736,43 @@
       </c>
       <c r="O64" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20603063</v>
       </c>
       <c r="P64" s="22" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v/>
+        <v>What is the concept of "His case fell into a special category" ?</v>
       </c>
       <c r="Q64" s="22" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R64" s="22" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S64" s="22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T64" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30603063</v>
+        <v/>
       </c>
       <c r="U64" s="22" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>What is the meaning of "His case fell into a special category" ?</v>
+        <v/>
       </c>
       <c r="V64" s="22" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W64" s="22" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X64" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y64" s="22" t="str">
         <f t="shared" si="10"/>
@@ -10027,11 +10006,11 @@
       </c>
       <c r="J67" s="22">
         <f ca="1" t="shared" ref="J67:J128" si="15">IF(RAND()&gt;=0.5,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K67" s="22">
         <f ca="1" t="shared" ref="K67:K119" si="16">IF(J67&gt;0,0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L67" s="22">
         <f t="shared" ref="L67:L119" si="17">IF(LEN(G67)&gt;30,0,1)</f>
@@ -10045,43 +10024,43 @@
       </c>
       <c r="O67" s="22" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20603066</v>
+        <v/>
       </c>
       <c r="P67" s="22" t="str">
         <f ca="1" t="shared" ref="P67:P119" si="18">IF(J67=1,CONCATENATE("What is the concept of """,G67,""" ?"),"")</f>
-        <v>What is the concept of "The sea refuses no river" ?</v>
+        <v/>
       </c>
       <c r="Q67" s="22" t="str">
         <f ca="1" t="shared" ref="Q67:Q119" si="19">IF(J67=0,"","wrong option1")</f>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R67" s="22" t="str">
         <f ca="1" t="shared" ref="R67:R119" si="20">IF(J67=0,"","wrong option2")</f>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S67" s="22" t="str">
         <f ca="1" t="shared" ref="S67:S119" si="21">IF(J67=0,"","wrong option3")</f>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T67" s="22" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30603066</v>
       </c>
       <c r="U67" s="22" t="str">
         <f ca="1" t="shared" ref="U67:U119" si="22">IF(K67=1,CONCATENATE("What is the meaning of """,G67,""" ?"),"")</f>
-        <v/>
+        <v>What is the meaning of "The sea refuses no river" ?</v>
       </c>
       <c r="V67" s="22" t="str">
         <f ca="1" t="shared" ref="V67:V119" si="23">IF(K67=0,"","wrong option1")</f>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W67" s="22" t="str">
         <f ca="1" t="shared" ref="W67:W119" si="24">IF(K67=0,"","wrong option2")</f>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X67" s="22" t="str">
         <f ca="1" t="shared" ref="X67:X119" si="25">IF(K67=0,"","wrong option3")</f>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y67" s="22" t="str">
         <f t="shared" ref="Y67:Y119" si="26">IF(L67=1,CONCATENATE("L4",$F67),"")</f>
@@ -10123,11 +10102,11 @@
       </c>
       <c r="J68" s="22">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K68" s="22">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L68" s="22">
         <f t="shared" si="17"/>
@@ -10141,43 +10120,43 @@
       </c>
       <c r="O68" s="22" t="str">
         <f ca="1" t="shared" ref="O68:O119" si="28">IF(J68=1,CONCATENATE("L2",$F68),"")</f>
-        <v>L20603067</v>
+        <v/>
       </c>
       <c r="P68" s="22" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "Religion that is afraid of science dishonors God" ?</v>
+        <v/>
       </c>
       <c r="Q68" s="22" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R68" s="22" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S68" s="22" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T68" s="22" t="str">
         <f ca="1" t="shared" ref="T68:T119" si="29">IF(K68=1,CONCATENATE("L3",$F68),"")</f>
-        <v/>
+        <v>L30603067</v>
       </c>
       <c r="U68" s="22" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "Religion that is afraid of science dishonors God" ?</v>
       </c>
       <c r="V68" s="22" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W68" s="22" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X68" s="22" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y68" s="22" t="str">
         <f t="shared" si="26"/>
@@ -10411,11 +10390,11 @@
       </c>
       <c r="J71" s="22">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K71" s="22">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L71" s="22">
         <f t="shared" si="17"/>
@@ -10429,43 +10408,43 @@
       </c>
       <c r="O71" s="22" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L20603070</v>
       </c>
       <c r="P71" s="22" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "Her question was met by silence" ?</v>
       </c>
       <c r="Q71" s="22" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R71" s="22" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S71" s="22" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T71" s="22" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L30603070</v>
+        <v/>
       </c>
       <c r="U71" s="22" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "Her question was met by silence" ?</v>
+        <v/>
       </c>
       <c r="V71" s="22" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W71" s="22" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X71" s="22" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y71" s="22" t="str">
         <f t="shared" si="26"/>
@@ -10507,11 +10486,11 @@
       </c>
       <c r="J72" s="22">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K72" s="22">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L72" s="22">
         <f t="shared" si="17"/>
@@ -10525,43 +10504,43 @@
       </c>
       <c r="O72" s="22" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L20603071</v>
       </c>
       <c r="P72" s="22" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "The winter just won't quit" ?</v>
       </c>
       <c r="Q72" s="22" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R72" s="22" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S72" s="22" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T72" s="22" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L30603071</v>
+        <v/>
       </c>
       <c r="U72" s="22" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "The winter just won't quit" ?</v>
+        <v/>
       </c>
       <c r="V72" s="22" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W72" s="22" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X72" s="22" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y72" s="22" t="str">
         <f t="shared" si="26"/>
@@ -10577,7 +10556,7 @@
       <c r="AD72" s="13"/>
       <c r="AE72" s="13"/>
     </row>
-    <row r="73" ht="35" spans="1:31">
+    <row r="73" ht="24" spans="1:31">
       <c r="A73" s="2">
         <v>6</v>
       </c>
@@ -10699,11 +10678,11 @@
       </c>
       <c r="J74" s="22">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K74" s="22">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L74" s="22">
         <f t="shared" si="17"/>
@@ -10717,43 +10696,43 @@
       </c>
       <c r="O74" s="22" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L20603073</v>
       </c>
       <c r="P74" s="22" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "The golf gods are no longer smiling on Tiger" ?</v>
       </c>
       <c r="Q74" s="22" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R74" s="22" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S74" s="22" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T74" s="22" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L30603073</v>
+        <v/>
       </c>
       <c r="U74" s="22" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "The golf gods are no longer smiling on Tiger" ?</v>
+        <v/>
       </c>
       <c r="V74" s="22" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W74" s="22" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X74" s="22" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y74" s="22" t="str">
         <f t="shared" si="26"/>
@@ -10961,7 +10940,7 @@
       <c r="AD76" s="13"/>
       <c r="AE76" s="13"/>
     </row>
-    <row r="77" ht="35" spans="1:31">
+    <row r="77" ht="24" spans="1:31">
       <c r="A77" s="2">
         <v>6</v>
       </c>
@@ -10987,11 +10966,11 @@
       </c>
       <c r="J77" s="22">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K77" s="22">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L77" s="22">
         <f t="shared" si="17"/>
@@ -11005,43 +10984,43 @@
       </c>
       <c r="O77" s="22" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L20603076</v>
+        <v/>
       </c>
       <c r="P77" s="22" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "English football is run by money" ?</v>
+        <v/>
       </c>
       <c r="Q77" s="22" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R77" s="22" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S77" s="22" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T77" s="22" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L30603076</v>
       </c>
       <c r="U77" s="22" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "English football is run by money" ?</v>
       </c>
       <c r="V77" s="22" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W77" s="22" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X77" s="22" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y77" s="22" t="str">
         <f t="shared" si="26"/>
@@ -11083,11 +11062,11 @@
       </c>
       <c r="J78" s="22">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K78" s="22">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L78" s="22">
         <f t="shared" si="17"/>
@@ -11101,43 +11080,43 @@
       </c>
       <c r="O78" s="22" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L20603077</v>
       </c>
       <c r="P78" s="22" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "The virus does not discriminate" ?</v>
       </c>
       <c r="Q78" s="22" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R78" s="22" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S78" s="22" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T78" s="22" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L30603077</v>
+        <v/>
       </c>
       <c r="U78" s="22" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "The virus does not discriminate" ?</v>
+        <v/>
       </c>
       <c r="V78" s="22" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W78" s="22" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X78" s="22" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y78" s="22" t="str">
         <f t="shared" si="26"/>
@@ -11153,7 +11132,7 @@
       <c r="AD78" s="13"/>
       <c r="AE78" s="13"/>
     </row>
-    <row r="79" ht="24" spans="1:31">
+    <row r="79" ht="35" spans="1:31">
       <c r="A79" s="2">
         <v>6</v>
       </c>
@@ -11249,7 +11228,7 @@
       <c r="AD79" s="13"/>
       <c r="AE79" s="13"/>
     </row>
-    <row r="80" ht="35" spans="1:31">
+    <row r="80" ht="47" spans="1:31">
       <c r="A80" s="2">
         <v>6</v>
       </c>
@@ -11467,11 +11446,11 @@
       </c>
       <c r="J82" s="22">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K82" s="22">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L82" s="22">
         <f t="shared" si="17"/>
@@ -11485,43 +11464,43 @@
       </c>
       <c r="O82" s="22" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L20603081</v>
       </c>
       <c r="P82" s="22" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "Paris agrees with her" ?</v>
       </c>
       <c r="Q82" s="22" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R82" s="22" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S82" s="22" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T82" s="22" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L30603081</v>
+        <v/>
       </c>
       <c r="U82" s="22" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "Paris agrees with her" ?</v>
+        <v/>
       </c>
       <c r="V82" s="22" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W82" s="22" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X82" s="22" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y82" s="22" t="str">
         <f t="shared" si="26"/>
@@ -11563,11 +11542,11 @@
       </c>
       <c r="J83" s="22">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K83" s="22">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L83" s="22">
         <f t="shared" si="17"/>
@@ -11581,43 +11560,43 @@
       </c>
       <c r="O83" s="22" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L20603082</v>
+        <v/>
       </c>
       <c r="P83" s="22" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "The controversy refuses to die" ?</v>
+        <v/>
       </c>
       <c r="Q83" s="22" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R83" s="22" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S83" s="22" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T83" s="22" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L30603082</v>
       </c>
       <c r="U83" s="22" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "The controversy refuses to die" ?</v>
       </c>
       <c r="V83" s="22" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W83" s="22" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X83" s="22" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y83" s="22" t="str">
         <f t="shared" si="26"/>
@@ -11633,7 +11612,7 @@
       <c r="AD83" s="13"/>
       <c r="AE83" s="13"/>
     </row>
-    <row r="84" ht="35" spans="1:31">
+    <row r="84" ht="24" spans="1:31">
       <c r="A84" s="2">
         <v>6</v>
       </c>
@@ -11851,11 +11830,11 @@
       </c>
       <c r="J86" s="22">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K86" s="22">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L86" s="22">
         <f t="shared" si="17"/>
@@ -11869,43 +11848,43 @@
       </c>
       <c r="O86" s="22" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L20604085</v>
+        <v/>
       </c>
       <c r="P86" s="22" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "Money is running low and time is running out" ?</v>
+        <v/>
       </c>
       <c r="Q86" s="22" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R86" s="22" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S86" s="22" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T86" s="22" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L30604085</v>
       </c>
       <c r="U86" s="22" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "Money is running low and time is running out" ?</v>
       </c>
       <c r="V86" s="22" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W86" s="22" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X86" s="22" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y86" s="22" t="str">
         <f t="shared" si="26"/>
@@ -11921,7 +11900,7 @@
       <c r="AD86" s="13"/>
       <c r="AE86" s="13"/>
     </row>
-    <row r="87" ht="24" spans="1:31">
+    <row r="87" ht="35" spans="1:31">
       <c r="A87" s="2">
         <v>6</v>
       </c>
@@ -12139,11 +12118,11 @@
       </c>
       <c r="J89" s="22">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K89" s="22">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L89" s="22">
         <f t="shared" si="17"/>
@@ -12157,43 +12136,43 @@
       </c>
       <c r="O89" s="22" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L20604088</v>
+        <v/>
       </c>
       <c r="P89" s="22" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "Pursue us, you will be caught. Resist us, you will be killed" ?</v>
+        <v/>
       </c>
       <c r="Q89" s="22" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R89" s="22" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S89" s="22" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T89" s="22" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L30604088</v>
       </c>
       <c r="U89" s="22" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "Pursue us, you will be caught. Resist us, you will be killed" ?</v>
       </c>
       <c r="V89" s="22" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W89" s="22" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X89" s="22" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y89" s="22" t="str">
         <f t="shared" si="26"/>
@@ -12619,11 +12598,11 @@
       </c>
       <c r="J94" s="22">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K94" s="22">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L94" s="22">
         <f t="shared" si="17"/>
@@ -12637,43 +12616,43 @@
       </c>
       <c r="O94" s="22" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L20605093</v>
       </c>
       <c r="P94" s="22" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "hungry as a horse" ?</v>
       </c>
       <c r="Q94" s="22" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R94" s="22" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S94" s="22" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T94" s="22" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L30605093</v>
+        <v/>
       </c>
       <c r="U94" s="22" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "hungry as a horse" ?</v>
+        <v/>
       </c>
       <c r="V94" s="22" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W94" s="22" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X94" s="22" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y94" s="22" t="str">
         <f t="shared" si="26"/>
@@ -12811,11 +12790,11 @@
       </c>
       <c r="J96" s="22">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K96" s="22">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L96" s="22">
         <f t="shared" si="17"/>
@@ -12829,43 +12808,43 @@
       </c>
       <c r="O96" s="22" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L20605095</v>
+        <v/>
       </c>
       <c r="P96" s="22" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "As old as the hills" ?</v>
+        <v/>
       </c>
       <c r="Q96" s="22" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R96" s="22" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S96" s="22" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T96" s="22" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L30605095</v>
       </c>
       <c r="U96" s="22" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "As old as the hills" ?</v>
       </c>
       <c r="V96" s="22" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W96" s="22" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X96" s="22" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y96" s="22" t="str">
         <f t="shared" si="26"/>
@@ -13073,7 +13052,7 @@
       <c r="AD98" s="13"/>
       <c r="AE98" s="13"/>
     </row>
-    <row r="99" ht="35" spans="1:31">
+    <row r="99" ht="47" spans="1:31">
       <c r="A99" s="2">
         <v>6</v>
       </c>
@@ -13169,7 +13148,7 @@
       <c r="AD99" s="13"/>
       <c r="AE99" s="13"/>
     </row>
-    <row r="100" ht="24" spans="1:31">
+    <row r="100" ht="35" spans="1:31">
       <c r="A100" s="2">
         <v>6</v>
       </c>
@@ -13483,11 +13462,11 @@
       </c>
       <c r="J103" s="22">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K103" s="22">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L103" s="22">
         <f t="shared" si="17"/>
@@ -13501,43 +13480,43 @@
       </c>
       <c r="O103" s="22" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L20605102</v>
       </c>
       <c r="P103" s="22" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "Playing for third place is like kissing your sister" ?</v>
       </c>
       <c r="Q103" s="22" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R103" s="22" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S103" s="22" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T103" s="22" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L30605102</v>
+        <v/>
       </c>
       <c r="U103" s="22" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "Playing for third place is like kissing your sister" ?</v>
+        <v/>
       </c>
       <c r="V103" s="22" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W103" s="22" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X103" s="22" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y103" s="22" t="str">
         <f t="shared" si="26"/>
@@ -13675,11 +13654,11 @@
       </c>
       <c r="J105" s="22">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K105" s="22">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L105" s="22">
         <f t="shared" si="17"/>
@@ -13693,43 +13672,43 @@
       </c>
       <c r="O105" s="22" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L20605104</v>
       </c>
       <c r="P105" s="22" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "smoke like a chimney" ?</v>
       </c>
       <c r="Q105" s="22" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R105" s="22" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S105" s="22" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T105" s="22" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L30605104</v>
+        <v/>
       </c>
       <c r="U105" s="22" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "smoke like a chimney" ?</v>
+        <v/>
       </c>
       <c r="V105" s="22" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W105" s="22" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X105" s="22" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y105" s="22" t="str">
         <f t="shared" si="26"/>
@@ -13963,11 +13942,11 @@
       </c>
       <c r="J108" s="22">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K108" s="22">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L108" s="22">
         <f t="shared" si="17"/>
@@ -13981,43 +13960,43 @@
       </c>
       <c r="O108" s="22" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L20605107</v>
       </c>
       <c r="P108" s="22" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "Our border is like Swiss cheese" ?</v>
       </c>
       <c r="Q108" s="22" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R108" s="22" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S108" s="22" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T108" s="22" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L30605107</v>
+        <v/>
       </c>
       <c r="U108" s="22" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "Our border is like Swiss cheese" ?</v>
+        <v/>
       </c>
       <c r="V108" s="22" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W108" s="22" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X108" s="22" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y108" s="22" t="str">
         <f t="shared" si="26"/>
@@ -14155,11 +14134,11 @@
       </c>
       <c r="J110" s="22">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K110" s="22">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L110" s="22">
         <f t="shared" si="17"/>
@@ -14173,43 +14152,43 @@
       </c>
       <c r="O110" s="22" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L20606109</v>
       </c>
       <c r="P110" s="22" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "Measles is roaring back into the headlines" ?</v>
       </c>
       <c r="Q110" s="22" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R110" s="22" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S110" s="22" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T110" s="22" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L30606109</v>
+        <v/>
       </c>
       <c r="U110" s="22" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "Measles is roaring back into the headlines" ?</v>
+        <v/>
       </c>
       <c r="V110" s="22" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W110" s="22" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X110" s="22" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y110" s="22" t="str">
         <f t="shared" si="26"/>
@@ -14321,7 +14300,7 @@
       <c r="AD111" s="13"/>
       <c r="AE111" s="13"/>
     </row>
-    <row r="112" ht="35" spans="1:31">
+    <row r="112" ht="24" spans="1:31">
       <c r="A112" s="2">
         <v>6</v>
       </c>
@@ -14347,11 +14326,11 @@
       </c>
       <c r="J112" s="22">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K112" s="22">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L112" s="22">
         <f t="shared" si="17"/>
@@ -14365,43 +14344,43 @@
       </c>
       <c r="O112" s="22" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L20606111</v>
+        <v/>
       </c>
       <c r="P112" s="22" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "He stands accused of corruption" ?</v>
+        <v/>
       </c>
       <c r="Q112" s="22" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R112" s="22" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S112" s="22" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T112" s="22" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L30606111</v>
       </c>
       <c r="U112" s="22" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "He stands accused of corruption" ?</v>
       </c>
       <c r="V112" s="22" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W112" s="22" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X112" s="22" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y112" s="22" t="str">
         <f t="shared" si="26"/>
@@ -14539,11 +14518,11 @@
       </c>
       <c r="J114" s="22">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K114" s="22">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L114" s="22">
         <f t="shared" si="17"/>
@@ -14557,43 +14536,43 @@
       </c>
       <c r="O114" s="22" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L20606113</v>
+        <v/>
       </c>
       <c r="P114" s="22" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "She fell under suspicion" ?</v>
+        <v/>
       </c>
       <c r="Q114" s="22" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R114" s="22" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S114" s="22" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T114" s="22" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L30606113</v>
       </c>
       <c r="U114" s="22" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "She fell under suspicion" ?</v>
       </c>
       <c r="V114" s="22" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W114" s="22" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X114" s="22" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y114" s="22" t="str">
         <f t="shared" si="26"/>
@@ -14635,11 +14614,11 @@
       </c>
       <c r="J115" s="22">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K115" s="22">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L115" s="22">
         <f t="shared" si="17"/>
@@ -14653,43 +14632,43 @@
       </c>
       <c r="O115" s="22" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L20606114</v>
+        <v/>
       </c>
       <c r="P115" s="22" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "Merkel watches as her future slips into the uncertain" ?</v>
+        <v/>
       </c>
       <c r="Q115" s="22" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R115" s="22" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S115" s="22" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T115" s="22" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L30606114</v>
       </c>
       <c r="U115" s="22" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "Merkel watches as her future slips into the uncertain" ?</v>
       </c>
       <c r="V115" s="22" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W115" s="22" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X115" s="22" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y115" s="22" t="str">
         <f t="shared" si="26"/>
@@ -14923,11 +14902,11 @@
       </c>
       <c r="J118" s="22">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K118" s="22">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L118" s="22">
         <f t="shared" si="17"/>
@@ -14941,43 +14920,43 @@
       </c>
       <c r="O118" s="22" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L20606117</v>
+        <v/>
       </c>
       <c r="P118" s="22" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "He jumps at the chance" ?</v>
+        <v/>
       </c>
       <c r="Q118" s="22" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R118" s="22" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S118" s="22" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T118" s="22" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L30606117</v>
       </c>
       <c r="U118" s="22" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "He jumps at the chance" ?</v>
       </c>
       <c r="V118" s="22" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W118" s="22" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X118" s="22" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y118" s="22" t="str">
         <f t="shared" si="26"/>
@@ -15089,7 +15068,7 @@
       <c r="AD119" s="13"/>
       <c r="AE119" s="13"/>
     </row>
-    <row r="120" ht="35" spans="1:31">
+    <row r="120" ht="24" spans="1:31">
       <c r="A120" s="2">
         <v>6</v>
       </c>
@@ -15115,11 +15094,11 @@
       </c>
       <c r="J120" s="22">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K120" s="22">
         <f ca="1" t="shared" ref="K120:K128" si="30">IF(J120&gt;0,0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L120" s="22">
         <f t="shared" ref="L120:L128" si="31">IF(LEN(G120)&gt;30,0,1)</f>
@@ -15133,43 +15112,43 @@
       </c>
       <c r="O120" s="22" t="str">
         <f ca="1" t="shared" ref="O120:O128" si="32">IF(J120=1,CONCATENATE("L2",$F120),"")</f>
-        <v>L20606119</v>
+        <v/>
       </c>
       <c r="P120" s="22" t="str">
         <f ca="1" t="shared" ref="P120:P128" si="33">IF(J120=1,CONCATENATE("What is the concept of """,G120,""" ?"),"")</f>
-        <v>What is the concept of "He falls into a different category" ?</v>
+        <v/>
       </c>
       <c r="Q120" s="22" t="str">
         <f ca="1" t="shared" ref="Q120:Q128" si="34">IF(J120=0,"","wrong option1")</f>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R120" s="22" t="str">
         <f ca="1" t="shared" ref="R120:R128" si="35">IF(J120=0,"","wrong option2")</f>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S120" s="22" t="str">
         <f ca="1" t="shared" ref="S120:S128" si="36">IF(J120=0,"","wrong option3")</f>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T120" s="22" t="str">
         <f ca="1" t="shared" ref="T120:T128" si="37">IF(K120=1,CONCATENATE("L3",$F120),"")</f>
-        <v/>
+        <v>L30606119</v>
       </c>
       <c r="U120" s="22" t="str">
         <f ca="1" t="shared" ref="U120:U128" si="38">IF(K120=1,CONCATENATE("What is the meaning of """,G120,""" ?"),"")</f>
-        <v/>
+        <v>What is the meaning of "He falls into a different category" ?</v>
       </c>
       <c r="V120" s="22" t="str">
         <f ca="1" t="shared" ref="V120:V128" si="39">IF(K120=0,"","wrong option1")</f>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W120" s="22" t="str">
         <f ca="1" t="shared" ref="W120:W128" si="40">IF(K120=0,"","wrong option2")</f>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X120" s="22" t="str">
         <f ca="1" t="shared" ref="X120:X128" si="41">IF(K120=0,"","wrong option3")</f>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y120" s="22" t="str">
         <f t="shared" ref="Y120:Y128" si="42">IF(L120=1,CONCATENATE("L4",$F120),"")</f>
@@ -15211,11 +15190,11 @@
       </c>
       <c r="J121" s="22">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K121" s="22">
         <f ca="1" t="shared" si="30"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L121" s="22">
         <f t="shared" si="31"/>
@@ -15229,43 +15208,43 @@
       </c>
       <c r="O121" s="22" t="str">
         <f ca="1" t="shared" si="32"/>
-        <v>L20606120</v>
+        <v/>
       </c>
       <c r="P121" s="22" t="str">
         <f ca="1" t="shared" si="33"/>
-        <v>What is the concept of "He fell silent" ?</v>
+        <v/>
       </c>
       <c r="Q121" s="22" t="str">
         <f ca="1" t="shared" si="34"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R121" s="22" t="str">
         <f ca="1" t="shared" si="35"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S121" s="22" t="str">
         <f ca="1" t="shared" si="36"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T121" s="22" t="str">
         <f ca="1" t="shared" si="37"/>
-        <v/>
+        <v>L30606120</v>
       </c>
       <c r="U121" s="22" t="str">
         <f ca="1" t="shared" si="38"/>
-        <v/>
+        <v>What is the meaning of "He fell silent" ?</v>
       </c>
       <c r="V121" s="22" t="str">
         <f ca="1" t="shared" si="39"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W121" s="22" t="str">
         <f ca="1" t="shared" si="40"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X121" s="22" t="str">
         <f ca="1" t="shared" si="41"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y121" s="22" t="str">
         <f t="shared" si="42"/>
@@ -15403,11 +15382,11 @@
       </c>
       <c r="J123" s="22">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K123" s="22">
         <f ca="1" t="shared" si="30"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L123" s="22">
         <f t="shared" si="31"/>
@@ -15421,43 +15400,43 @@
       </c>
       <c r="O123" s="22" t="str">
         <f ca="1" t="shared" si="32"/>
-        <v>L20606122</v>
+        <v/>
       </c>
       <c r="P123" s="22" t="str">
         <f ca="1" t="shared" si="33"/>
-        <v>What is the concept of "Kidnapping strikes terror into the hearts of parents" ?</v>
+        <v/>
       </c>
       <c r="Q123" s="22" t="str">
         <f ca="1" t="shared" si="34"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R123" s="22" t="str">
         <f ca="1" t="shared" si="35"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S123" s="22" t="str">
         <f ca="1" t="shared" si="36"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T123" s="22" t="str">
         <f ca="1" t="shared" si="37"/>
-        <v/>
+        <v>L30606122</v>
       </c>
       <c r="U123" s="22" t="str">
         <f ca="1" t="shared" si="38"/>
-        <v/>
+        <v>What is the meaning of "Kidnapping strikes terror into the hearts of parents" ?</v>
       </c>
       <c r="V123" s="22" t="str">
         <f ca="1" t="shared" si="39"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W123" s="22" t="str">
         <f ca="1" t="shared" si="40"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X123" s="22" t="str">
         <f ca="1" t="shared" si="41"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y123" s="22" t="str">
         <f t="shared" si="42"/>
@@ -15499,11 +15478,11 @@
       </c>
       <c r="J124" s="22">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K124" s="22">
         <f ca="1" t="shared" si="30"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L124" s="22">
         <f t="shared" si="31"/>
@@ -15517,43 +15496,43 @@
       </c>
       <c r="O124" s="22" t="str">
         <f ca="1" t="shared" si="32"/>
-        <v>L20606123</v>
+        <v/>
       </c>
       <c r="P124" s="22" t="str">
         <f ca="1" t="shared" si="33"/>
-        <v>What is the concept of "He struck up a conversation with her" ?</v>
+        <v/>
       </c>
       <c r="Q124" s="22" t="str">
         <f ca="1" t="shared" si="34"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R124" s="22" t="str">
         <f ca="1" t="shared" si="35"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S124" s="22" t="str">
         <f ca="1" t="shared" si="36"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T124" s="22" t="str">
         <f ca="1" t="shared" si="37"/>
-        <v/>
+        <v>L30606123</v>
       </c>
       <c r="U124" s="22" t="str">
         <f ca="1" t="shared" si="38"/>
-        <v/>
+        <v>What is the meaning of "He struck up a conversation with her" ?</v>
       </c>
       <c r="V124" s="22" t="str">
         <f ca="1" t="shared" si="39"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W124" s="22" t="str">
         <f ca="1" t="shared" si="40"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X124" s="22" t="str">
         <f ca="1" t="shared" si="41"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y124" s="22" t="str">
         <f t="shared" si="42"/>
@@ -15691,11 +15670,11 @@
       </c>
       <c r="J126" s="22">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K126" s="22">
         <f ca="1" t="shared" si="30"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L126" s="22">
         <f t="shared" si="31"/>
@@ -15709,43 +15688,43 @@
       </c>
       <c r="O126" s="22" t="str">
         <f ca="1" t="shared" si="32"/>
-        <v>L20606125</v>
+        <v/>
       </c>
       <c r="P126" s="22" t="str">
         <f ca="1" t="shared" si="33"/>
-        <v>What is the concept of "The information was fed into the system" ?</v>
+        <v/>
       </c>
       <c r="Q126" s="22" t="str">
         <f ca="1" t="shared" si="34"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R126" s="22" t="str">
         <f ca="1" t="shared" si="35"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S126" s="22" t="str">
         <f ca="1" t="shared" si="36"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T126" s="22" t="str">
         <f ca="1" t="shared" si="37"/>
-        <v/>
+        <v>L30606125</v>
       </c>
       <c r="U126" s="22" t="str">
         <f ca="1" t="shared" si="38"/>
-        <v/>
+        <v>What is the meaning of "The information was fed into the system" ?</v>
       </c>
       <c r="V126" s="22" t="str">
         <f ca="1" t="shared" si="39"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W126" s="22" t="str">
         <f ca="1" t="shared" si="40"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X126" s="22" t="str">
         <f ca="1" t="shared" si="41"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y126" s="22" t="str">
         <f t="shared" si="42"/>
@@ -15883,11 +15862,11 @@
       </c>
       <c r="J128" s="22">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K128" s="22">
         <f ca="1" t="shared" si="30"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L128" s="22">
         <f t="shared" si="31"/>
@@ -15901,43 +15880,43 @@
       </c>
       <c r="O128" s="22" t="str">
         <f ca="1" t="shared" si="32"/>
-        <v/>
+        <v>L20606127</v>
       </c>
       <c r="P128" s="22" t="str">
         <f ca="1" t="shared" si="33"/>
-        <v/>
+        <v>What is the concept of "He is pushing 50" ?</v>
       </c>
       <c r="Q128" s="22" t="str">
         <f ca="1" t="shared" si="34"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R128" s="22" t="str">
         <f ca="1" t="shared" si="35"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S128" s="22" t="str">
         <f ca="1" t="shared" si="36"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T128" s="22" t="str">
         <f ca="1" t="shared" si="37"/>
-        <v>L30606127</v>
+        <v/>
       </c>
       <c r="U128" s="22" t="str">
         <f ca="1" t="shared" si="38"/>
-        <v>What is the meaning of "He is pushing 50" ?</v>
+        <v/>
       </c>
       <c r="V128" s="22" t="str">
         <f ca="1" t="shared" si="39"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W128" s="22" t="str">
         <f ca="1" t="shared" si="40"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X128" s="22" t="str">
         <f ca="1" t="shared" si="41"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y128" s="22" t="str">
         <f t="shared" si="42"/>

--- a/miniproject/template/Lectures/Lecture 6.xlsx
+++ b/miniproject/template/Lectures/Lecture 6.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\towS2\Desktop\第四版\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\towS2\Desktop\第四版 final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB51D03-F960-40C7-A3E6-8E00836D0758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8EE373B-F84D-44FA-A485-2E215D01D857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2408,7 +2408,7 @@
   <dimension ref="A1:AB233"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="128" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="13"/>

--- a/miniproject/template/Lectures/Lecture 6.xlsx
+++ b/miniproject/template/Lectures/Lecture 6.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\towS2\Desktop\第四版 final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S_AGI\Documents\GitHub\AI_teaching_project\miniproject\template\Lectures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8EE373B-F84D-44FA-A485-2E215D01D857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C85E501F-9D7E-4367-8078-31FF99F0B067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,10 +19,19 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$W$128</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$C$1:$I$128</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -2127,7 +2136,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2407,29 +2416,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB233"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="128" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="64" zoomScaleNormal="128" workbookViewId="0">
+      <selection activeCell="F13" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="8.6328125" style="16"/>
-    <col min="2" max="2" width="8.6328125" style="17"/>
-    <col min="3" max="3" width="14.7265625" style="16" customWidth="1"/>
-    <col min="4" max="5" width="10.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="10.453125" style="19" customWidth="1"/>
-    <col min="7" max="7" width="25.81640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="37.54296875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="42.36328125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" style="16"/>
+    <col min="2" max="2" width="8.6640625" style="17"/>
+    <col min="3" max="3" width="14.77734375" style="16" customWidth="1"/>
+    <col min="4" max="5" width="10.44140625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" style="19" customWidth="1"/>
+    <col min="7" max="7" width="25.77734375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="37.5546875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="42.33203125" style="4" customWidth="1"/>
     <col min="10" max="14" width="8" style="22"/>
-    <col min="15" max="15" width="13.6328125" style="22" customWidth="1"/>
+    <col min="15" max="15" width="13.6640625" style="22" customWidth="1"/>
     <col min="16" max="16" width="26" style="22" customWidth="1"/>
-    <col min="17" max="17" width="15.08984375" style="22" customWidth="1"/>
-    <col min="18" max="18" width="23.26953125" style="22" customWidth="1"/>
+    <col min="17" max="17" width="15.109375" style="22" customWidth="1"/>
+    <col min="18" max="18" width="23.21875" style="22" customWidth="1"/>
     <col min="19" max="21" width="8" style="22"/>
-    <col min="22" max="22" width="13.54296875" style="22" customWidth="1"/>
-    <col min="23" max="23" width="20.453125" style="22" customWidth="1"/>
-    <col min="24" max="16384" width="8.6328125" style="4"/>
+    <col min="22" max="22" width="13.5546875" style="22" customWidth="1"/>
+    <col min="23" max="23" width="20.44140625" style="22" customWidth="1"/>
+    <col min="24" max="16384" width="8.6640625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="43" customFormat="1" ht="25.5" customHeight="1">
@@ -2508,7 +2517,7 @@
       <c r="AA1" s="42"/>
       <c r="AB1" s="42"/>
     </row>
-    <row r="2" spans="1:28" ht="39">
+    <row r="2" spans="1:28" ht="39.6">
       <c r="A2" s="16">
         <v>6</v>
       </c>
@@ -2589,7 +2598,7 @@
       <c r="AA2" s="3"/>
       <c r="AB2" s="3"/>
     </row>
-    <row r="3" spans="1:28" ht="52">
+    <row r="3" spans="1:28" ht="52.8">
       <c r="A3" s="16">
         <v>6</v>
       </c>
@@ -2670,7 +2679,7 @@
       <c r="AA3" s="3"/>
       <c r="AB3" s="3"/>
     </row>
-    <row r="4" spans="1:28" ht="26">
+    <row r="4" spans="1:28" ht="26.4">
       <c r="A4" s="16">
         <v>6</v>
       </c>
@@ -2751,7 +2760,7 @@
       <c r="AA4" s="3"/>
       <c r="AB4" s="3"/>
     </row>
-    <row r="5" spans="1:28" ht="39">
+    <row r="5" spans="1:28" ht="39.6">
       <c r="A5" s="16">
         <v>6</v>
       </c>
@@ -2832,7 +2841,7 @@
       <c r="AA5" s="3"/>
       <c r="AB5" s="3"/>
     </row>
-    <row r="6" spans="1:28" ht="39">
+    <row r="6" spans="1:28" ht="52.8">
       <c r="A6" s="16">
         <v>6</v>
       </c>
@@ -2913,7 +2922,7 @@
       <c r="AA6" s="3"/>
       <c r="AB6" s="3"/>
     </row>
-    <row r="7" spans="1:28" ht="26">
+    <row r="7" spans="1:28" ht="26.4">
       <c r="A7" s="16">
         <v>6</v>
       </c>
@@ -2994,7 +3003,7 @@
       <c r="AA7" s="3"/>
       <c r="AB7" s="3"/>
     </row>
-    <row r="8" spans="1:28" ht="39">
+    <row r="8" spans="1:28" ht="39.6">
       <c r="A8" s="16">
         <v>6</v>
       </c>
@@ -3075,7 +3084,7 @@
       <c r="AA8" s="3"/>
       <c r="AB8" s="3"/>
     </row>
-    <row r="9" spans="1:28" ht="39">
+    <row r="9" spans="1:28" ht="39.6">
       <c r="A9" s="16">
         <v>6</v>
       </c>
@@ -3156,7 +3165,7 @@
       <c r="AA9" s="3"/>
       <c r="AB9" s="3"/>
     </row>
-    <row r="10" spans="1:28" ht="26">
+    <row r="10" spans="1:28" ht="26.4">
       <c r="A10" s="16">
         <v>6</v>
       </c>
@@ -3237,7 +3246,7 @@
       <c r="AA10" s="3"/>
       <c r="AB10" s="3"/>
     </row>
-    <row r="11" spans="1:28" ht="26">
+    <row r="11" spans="1:28" ht="26.4">
       <c r="A11" s="16">
         <v>6</v>
       </c>
@@ -3318,7 +3327,7 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
     </row>
-    <row r="12" spans="1:28" ht="26">
+    <row r="12" spans="1:28" ht="26.4">
       <c r="A12" s="16">
         <v>6</v>
       </c>
@@ -3399,7 +3408,7 @@
       <c r="AA12" s="3"/>
       <c r="AB12" s="3"/>
     </row>
-    <row r="13" spans="1:28" ht="26">
+    <row r="13" spans="1:28" ht="26.4">
       <c r="A13" s="16">
         <v>6</v>
       </c>
@@ -3480,7 +3489,7 @@
       <c r="AA13" s="3"/>
       <c r="AB13" s="3"/>
     </row>
-    <row r="14" spans="1:28" ht="26">
+    <row r="14" spans="1:28" ht="39.6">
       <c r="A14" s="16">
         <v>6</v>
       </c>
@@ -3561,7 +3570,7 @@
       <c r="AA14" s="3"/>
       <c r="AB14" s="3"/>
     </row>
-    <row r="15" spans="1:28" ht="26">
+    <row r="15" spans="1:28" ht="26.4">
       <c r="A15" s="16">
         <v>6</v>
       </c>
@@ -3642,7 +3651,7 @@
       <c r="AA15" s="3"/>
       <c r="AB15" s="3"/>
     </row>
-    <row r="16" spans="1:28" ht="26">
+    <row r="16" spans="1:28" ht="39.6">
       <c r="A16" s="16">
         <v>6</v>
       </c>
@@ -3723,7 +3732,7 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
     </row>
-    <row r="17" spans="1:28" ht="39">
+    <row r="17" spans="1:28" ht="39.6">
       <c r="A17" s="16">
         <v>6</v>
       </c>
@@ -3804,7 +3813,7 @@
       <c r="AA17" s="3"/>
       <c r="AB17" s="3"/>
     </row>
-    <row r="18" spans="1:28" ht="26">
+    <row r="18" spans="1:28" ht="26.4">
       <c r="A18" s="16">
         <v>6</v>
       </c>
@@ -3885,7 +3894,7 @@
       <c r="AA18" s="3"/>
       <c r="AB18" s="3"/>
     </row>
-    <row r="19" spans="1:28" ht="26">
+    <row r="19" spans="1:28" ht="26.4">
       <c r="A19" s="16">
         <v>6</v>
       </c>
@@ -3966,7 +3975,7 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
     </row>
-    <row r="20" spans="1:28" ht="26">
+    <row r="20" spans="1:28" ht="26.4">
       <c r="A20" s="16">
         <v>6</v>
       </c>
@@ -4047,7 +4056,7 @@
       <c r="AA20" s="3"/>
       <c r="AB20" s="3"/>
     </row>
-    <row r="21" spans="1:28" ht="39">
+    <row r="21" spans="1:28" ht="39.6">
       <c r="A21" s="16">
         <v>6</v>
       </c>
@@ -4128,7 +4137,7 @@
       <c r="AA21" s="3"/>
       <c r="AB21" s="3"/>
     </row>
-    <row r="22" spans="1:28" ht="39">
+    <row r="22" spans="1:28" ht="39.6">
       <c r="A22" s="16">
         <v>6</v>
       </c>
@@ -4209,7 +4218,7 @@
       <c r="AA22" s="3"/>
       <c r="AB22" s="3"/>
     </row>
-    <row r="23" spans="1:28" ht="26">
+    <row r="23" spans="1:28" ht="26.4">
       <c r="A23" s="16">
         <v>6</v>
       </c>
@@ -4290,7 +4299,7 @@
       <c r="AA23" s="3"/>
       <c r="AB23" s="3"/>
     </row>
-    <row r="24" spans="1:28" ht="26">
+    <row r="24" spans="1:28" ht="39.6">
       <c r="A24" s="16">
         <v>6</v>
       </c>
@@ -4371,7 +4380,7 @@
       <c r="AA24" s="3"/>
       <c r="AB24" s="3"/>
     </row>
-    <row r="25" spans="1:28" ht="39">
+    <row r="25" spans="1:28" ht="39.6">
       <c r="A25" s="16">
         <v>6</v>
       </c>
@@ -4452,7 +4461,7 @@
       <c r="AA25" s="3"/>
       <c r="AB25" s="3"/>
     </row>
-    <row r="26" spans="1:28" ht="26">
+    <row r="26" spans="1:28" ht="39.6">
       <c r="A26" s="16">
         <v>6</v>
       </c>
@@ -4533,7 +4542,7 @@
       <c r="AA26" s="3"/>
       <c r="AB26" s="3"/>
     </row>
-    <row r="27" spans="1:28" ht="39">
+    <row r="27" spans="1:28" ht="39.6">
       <c r="A27" s="16">
         <v>6</v>
       </c>
@@ -4614,7 +4623,7 @@
       <c r="AA27" s="3"/>
       <c r="AB27" s="3"/>
     </row>
-    <row r="28" spans="1:28" ht="26">
+    <row r="28" spans="1:28" ht="26.4">
       <c r="A28" s="16">
         <v>6</v>
       </c>
@@ -4695,7 +4704,7 @@
       <c r="AA28" s="3"/>
       <c r="AB28" s="3"/>
     </row>
-    <row r="29" spans="1:28" ht="39">
+    <row r="29" spans="1:28" ht="39.6">
       <c r="A29" s="16">
         <v>6</v>
       </c>
@@ -4776,7 +4785,7 @@
       <c r="AA29" s="3"/>
       <c r="AB29" s="3"/>
     </row>
-    <row r="30" spans="1:28" ht="39">
+    <row r="30" spans="1:28" ht="39.6">
       <c r="A30" s="16">
         <v>6</v>
       </c>
@@ -4857,7 +4866,7 @@
       <c r="AA30" s="3"/>
       <c r="AB30" s="3"/>
     </row>
-    <row r="31" spans="1:28" ht="26">
+    <row r="31" spans="1:28" ht="39.6">
       <c r="A31" s="16">
         <v>6</v>
       </c>
@@ -4938,7 +4947,7 @@
       <c r="AA31" s="3"/>
       <c r="AB31" s="3"/>
     </row>
-    <row r="32" spans="1:28" ht="39">
+    <row r="32" spans="1:28" ht="39.6">
       <c r="A32" s="16">
         <v>6</v>
       </c>
@@ -5019,7 +5028,7 @@
       <c r="AA32" s="3"/>
       <c r="AB32" s="3"/>
     </row>
-    <row r="33" spans="1:28" ht="26">
+    <row r="33" spans="1:28" ht="39.6">
       <c r="A33" s="16">
         <v>6</v>
       </c>
@@ -5100,7 +5109,7 @@
       <c r="AA33" s="3"/>
       <c r="AB33" s="3"/>
     </row>
-    <row r="34" spans="1:28" ht="39">
+    <row r="34" spans="1:28" ht="39.6">
       <c r="A34" s="16">
         <v>6</v>
       </c>
@@ -5181,7 +5190,7 @@
       <c r="AA34" s="3"/>
       <c r="AB34" s="3"/>
     </row>
-    <row r="35" spans="1:28" ht="39">
+    <row r="35" spans="1:28" ht="39.6">
       <c r="A35" s="16">
         <v>6</v>
       </c>
@@ -5262,7 +5271,7 @@
       <c r="AA35" s="3"/>
       <c r="AB35" s="3"/>
     </row>
-    <row r="36" spans="1:28" ht="26">
+    <row r="36" spans="1:28" ht="26.4">
       <c r="A36" s="16">
         <v>6</v>
       </c>
@@ -5343,7 +5352,7 @@
       <c r="AA36" s="3"/>
       <c r="AB36" s="3"/>
     </row>
-    <row r="37" spans="1:28" ht="39">
+    <row r="37" spans="1:28" ht="39.6">
       <c r="A37" s="16">
         <v>6</v>
       </c>
@@ -5424,7 +5433,7 @@
       <c r="AA37" s="3"/>
       <c r="AB37" s="3"/>
     </row>
-    <row r="38" spans="1:28" ht="39">
+    <row r="38" spans="1:28" ht="39.6">
       <c r="A38" s="16">
         <v>6</v>
       </c>
@@ -5505,7 +5514,7 @@
       <c r="AA38" s="3"/>
       <c r="AB38" s="3"/>
     </row>
-    <row r="39" spans="1:28" ht="39">
+    <row r="39" spans="1:28" ht="39.6">
       <c r="A39" s="16">
         <v>6</v>
       </c>
@@ -5586,7 +5595,7 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
     </row>
-    <row r="40" spans="1:28" ht="26">
+    <row r="40" spans="1:28" ht="26.4">
       <c r="A40" s="16">
         <v>6</v>
       </c>
@@ -5667,7 +5676,7 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
     </row>
-    <row r="41" spans="1:28" ht="39">
+    <row r="41" spans="1:28" ht="39.6">
       <c r="A41" s="16">
         <v>6</v>
       </c>
@@ -5748,7 +5757,7 @@
       <c r="AA41" s="3"/>
       <c r="AB41" s="3"/>
     </row>
-    <row r="42" spans="1:28" ht="39">
+    <row r="42" spans="1:28" ht="39.6">
       <c r="A42" s="16">
         <v>6</v>
       </c>
@@ -5829,7 +5838,7 @@
       <c r="AA42" s="3"/>
       <c r="AB42" s="3"/>
     </row>
-    <row r="43" spans="1:28" ht="39">
+    <row r="43" spans="1:28" ht="39.6">
       <c r="A43" s="16">
         <v>6</v>
       </c>
@@ -5910,7 +5919,7 @@
       <c r="AA43" s="3"/>
       <c r="AB43" s="3"/>
     </row>
-    <row r="44" spans="1:28" ht="39">
+    <row r="44" spans="1:28" ht="39.6">
       <c r="A44" s="16">
         <v>6</v>
       </c>
@@ -5989,7 +5998,7 @@
       <c r="AA44" s="3"/>
       <c r="AB44" s="3"/>
     </row>
-    <row r="45" spans="1:28" ht="39">
+    <row r="45" spans="1:28" ht="39.6">
       <c r="A45" s="16">
         <v>6</v>
       </c>
@@ -6070,7 +6079,7 @@
       <c r="AA45" s="3"/>
       <c r="AB45" s="3"/>
     </row>
-    <row r="46" spans="1:28" ht="26">
+    <row r="46" spans="1:28" ht="26.4">
       <c r="A46" s="16">
         <v>6</v>
       </c>
@@ -6151,7 +6160,7 @@
       <c r="AA46" s="3"/>
       <c r="AB46" s="3"/>
     </row>
-    <row r="47" spans="1:28" ht="26">
+    <row r="47" spans="1:28" ht="26.4">
       <c r="A47" s="16">
         <v>6</v>
       </c>
@@ -6232,7 +6241,7 @@
       <c r="AA47" s="3"/>
       <c r="AB47" s="3"/>
     </row>
-    <row r="48" spans="1:28" ht="26">
+    <row r="48" spans="1:28" ht="26.4">
       <c r="A48" s="16">
         <v>6</v>
       </c>
@@ -6313,7 +6322,7 @@
       <c r="AA48" s="3"/>
       <c r="AB48" s="3"/>
     </row>
-    <row r="49" spans="1:28" ht="39">
+    <row r="49" spans="1:28" ht="39.6">
       <c r="A49" s="16">
         <v>6</v>
       </c>
@@ -6394,7 +6403,7 @@
       <c r="AA49" s="3"/>
       <c r="AB49" s="3"/>
     </row>
-    <row r="50" spans="1:28" ht="39">
+    <row r="50" spans="1:28" ht="52.8">
       <c r="A50" s="16">
         <v>6</v>
       </c>
@@ -6475,7 +6484,7 @@
       <c r="AA50" s="3"/>
       <c r="AB50" s="3"/>
     </row>
-    <row r="51" spans="1:28" ht="39">
+    <row r="51" spans="1:28" ht="39.6">
       <c r="A51" s="16">
         <v>6</v>
       </c>
@@ -6556,7 +6565,7 @@
       <c r="AA51" s="3"/>
       <c r="AB51" s="3"/>
     </row>
-    <row r="52" spans="1:28" ht="26">
+    <row r="52" spans="1:28" ht="26.4">
       <c r="A52" s="16">
         <v>6</v>
       </c>
@@ -6637,7 +6646,7 @@
       <c r="AA52" s="3"/>
       <c r="AB52" s="3"/>
     </row>
-    <row r="53" spans="1:28" ht="26">
+    <row r="53" spans="1:28" ht="26.4">
       <c r="A53" s="16">
         <v>6</v>
       </c>
@@ -6718,7 +6727,7 @@
       <c r="AA53" s="3"/>
       <c r="AB53" s="3"/>
     </row>
-    <row r="54" spans="1:28" ht="26">
+    <row r="54" spans="1:28" ht="39.6">
       <c r="A54" s="16">
         <v>6</v>
       </c>
@@ -6799,7 +6808,7 @@
       <c r="AA54" s="3"/>
       <c r="AB54" s="3"/>
     </row>
-    <row r="55" spans="1:28" ht="26">
+    <row r="55" spans="1:28" ht="26.4">
       <c r="A55" s="16">
         <v>6</v>
       </c>
@@ -6880,7 +6889,7 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
     </row>
-    <row r="56" spans="1:28" ht="39">
+    <row r="56" spans="1:28" ht="39.6">
       <c r="A56" s="16">
         <v>6</v>
       </c>
@@ -6961,7 +6970,7 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
     </row>
-    <row r="57" spans="1:28" ht="39">
+    <row r="57" spans="1:28" ht="39.6">
       <c r="A57" s="16">
         <v>6</v>
       </c>
@@ -7042,7 +7051,7 @@
       <c r="AA57" s="3"/>
       <c r="AB57" s="3"/>
     </row>
-    <row r="58" spans="1:28" ht="39">
+    <row r="58" spans="1:28" ht="39.6">
       <c r="A58" s="16">
         <v>6</v>
       </c>
@@ -7123,7 +7132,7 @@
       <c r="AA58" s="3"/>
       <c r="AB58" s="3"/>
     </row>
-    <row r="59" spans="1:28" ht="26">
+    <row r="59" spans="1:28" ht="26.4">
       <c r="A59" s="16">
         <v>6</v>
       </c>
@@ -7204,7 +7213,7 @@
       <c r="AA59" s="3"/>
       <c r="AB59" s="3"/>
     </row>
-    <row r="60" spans="1:28" ht="26">
+    <row r="60" spans="1:28" ht="26.4">
       <c r="A60" s="16">
         <v>6</v>
       </c>
@@ -7285,7 +7294,7 @@
       <c r="AA60" s="3"/>
       <c r="AB60" s="3"/>
     </row>
-    <row r="61" spans="1:28" ht="26">
+    <row r="61" spans="1:28" ht="26.4">
       <c r="A61" s="16">
         <v>6</v>
       </c>
@@ -7366,7 +7375,7 @@
       <c r="AA61" s="3"/>
       <c r="AB61" s="3"/>
     </row>
-    <row r="62" spans="1:28" ht="39">
+    <row r="62" spans="1:28" ht="39.6">
       <c r="A62" s="16">
         <v>6</v>
       </c>
@@ -7447,7 +7456,7 @@
       <c r="AA62" s="3"/>
       <c r="AB62" s="3"/>
     </row>
-    <row r="63" spans="1:28" ht="26">
+    <row r="63" spans="1:28" ht="26.4">
       <c r="A63" s="16">
         <v>6</v>
       </c>
@@ -7528,7 +7537,7 @@
       <c r="AA63" s="3"/>
       <c r="AB63" s="3"/>
     </row>
-    <row r="64" spans="1:28" ht="39">
+    <row r="64" spans="1:28" ht="39.6">
       <c r="A64" s="16">
         <v>6</v>
       </c>
@@ -7609,7 +7618,7 @@
       <c r="AA64" s="3"/>
       <c r="AB64" s="3"/>
     </row>
-    <row r="65" spans="1:28" ht="26">
+    <row r="65" spans="1:28" ht="26.4">
       <c r="A65" s="16">
         <v>6</v>
       </c>
@@ -7690,7 +7699,7 @@
       <c r="AA65" s="3"/>
       <c r="AB65" s="3"/>
     </row>
-    <row r="66" spans="1:28" ht="26">
+    <row r="66" spans="1:28" ht="26.4">
       <c r="A66" s="16">
         <v>6</v>
       </c>
@@ -7771,7 +7780,7 @@
       <c r="AA66" s="3"/>
       <c r="AB66" s="3"/>
     </row>
-    <row r="67" spans="1:28" ht="26">
+    <row r="67" spans="1:28" ht="26.4">
       <c r="A67" s="16">
         <v>6</v>
       </c>
@@ -7852,7 +7861,7 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
     </row>
-    <row r="68" spans="1:28" ht="39">
+    <row r="68" spans="1:28" ht="39.6">
       <c r="A68" s="16">
         <v>6</v>
       </c>
@@ -7933,7 +7942,7 @@
       <c r="AA68" s="3"/>
       <c r="AB68" s="3"/>
     </row>
-    <row r="69" spans="1:28" ht="39">
+    <row r="69" spans="1:28" ht="39.6">
       <c r="A69" s="16">
         <v>6</v>
       </c>
@@ -8014,7 +8023,7 @@
       <c r="AA69" s="3"/>
       <c r="AB69" s="3"/>
     </row>
-    <row r="70" spans="1:28" ht="26">
+    <row r="70" spans="1:28" ht="26.4">
       <c r="A70" s="16">
         <v>6</v>
       </c>
@@ -8095,7 +8104,7 @@
       <c r="AA70" s="3"/>
       <c r="AB70" s="3"/>
     </row>
-    <row r="71" spans="1:28" ht="39">
+    <row r="71" spans="1:28" ht="39.6">
       <c r="A71" s="16">
         <v>6</v>
       </c>
@@ -8176,7 +8185,7 @@
       <c r="AA71" s="3"/>
       <c r="AB71" s="3"/>
     </row>
-    <row r="72" spans="1:28" ht="26">
+    <row r="72" spans="1:28" ht="26.4">
       <c r="A72" s="16">
         <v>6</v>
       </c>
@@ -8257,7 +8266,7 @@
       <c r="AA72" s="3"/>
       <c r="AB72" s="3"/>
     </row>
-    <row r="73" spans="1:28" ht="39">
+    <row r="73" spans="1:28" ht="39.6">
       <c r="A73" s="16">
         <v>6</v>
       </c>
@@ -8338,7 +8347,7 @@
       <c r="AA73" s="3"/>
       <c r="AB73" s="3"/>
     </row>
-    <row r="74" spans="1:28" ht="39">
+    <row r="74" spans="1:28" ht="39.6">
       <c r="A74" s="16">
         <v>6</v>
       </c>
@@ -8419,7 +8428,7 @@
       <c r="AA74" s="3"/>
       <c r="AB74" s="3"/>
     </row>
-    <row r="75" spans="1:28" ht="26">
+    <row r="75" spans="1:28" ht="39.6">
       <c r="A75" s="16">
         <v>6</v>
       </c>
@@ -8500,7 +8509,7 @@
       <c r="AA75" s="3"/>
       <c r="AB75" s="3"/>
     </row>
-    <row r="76" spans="1:28" ht="26">
+    <row r="76" spans="1:28" ht="39.6">
       <c r="A76" s="16">
         <v>6</v>
       </c>
@@ -8581,7 +8590,7 @@
       <c r="AA76" s="3"/>
       <c r="AB76" s="3"/>
     </row>
-    <row r="77" spans="1:28" ht="39">
+    <row r="77" spans="1:28" ht="39.6">
       <c r="A77" s="16">
         <v>6</v>
       </c>
@@ -8662,7 +8671,7 @@
       <c r="AA77" s="3"/>
       <c r="AB77" s="3"/>
     </row>
-    <row r="78" spans="1:28" ht="26">
+    <row r="78" spans="1:28" ht="26.4">
       <c r="A78" s="16">
         <v>6</v>
       </c>
@@ -8743,7 +8752,7 @@
       <c r="AA78" s="3"/>
       <c r="AB78" s="3"/>
     </row>
-    <row r="79" spans="1:28" ht="39">
+    <row r="79" spans="1:28" ht="39.6">
       <c r="A79" s="16">
         <v>6</v>
       </c>
@@ -8824,7 +8833,7 @@
       <c r="AA79" s="3"/>
       <c r="AB79" s="3"/>
     </row>
-    <row r="80" spans="1:28" ht="39">
+    <row r="80" spans="1:28" ht="52.8">
       <c r="A80" s="16">
         <v>6</v>
       </c>
@@ -8905,7 +8914,7 @@
       <c r="AA80" s="3"/>
       <c r="AB80" s="3"/>
     </row>
-    <row r="81" spans="1:28" ht="26">
+    <row r="81" spans="1:28" ht="26.4">
       <c r="A81" s="16">
         <v>6</v>
       </c>
@@ -8986,7 +8995,7 @@
       <c r="AA81" s="3"/>
       <c r="AB81" s="3"/>
     </row>
-    <row r="82" spans="1:28" ht="26">
+    <row r="82" spans="1:28" ht="26.4">
       <c r="A82" s="16">
         <v>6</v>
       </c>
@@ -9067,7 +9076,7 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
     </row>
-    <row r="83" spans="1:28" ht="26">
+    <row r="83" spans="1:28" ht="26.4">
       <c r="A83" s="16">
         <v>6</v>
       </c>
@@ -9148,7 +9157,7 @@
       <c r="AA83" s="3"/>
       <c r="AB83" s="3"/>
     </row>
-    <row r="84" spans="1:28" ht="39">
+    <row r="84" spans="1:28" ht="39.6">
       <c r="A84" s="16">
         <v>6</v>
       </c>
@@ -9229,7 +9238,7 @@
       <c r="AA84" s="3"/>
       <c r="AB84" s="3"/>
     </row>
-    <row r="85" spans="1:28" ht="39">
+    <row r="85" spans="1:28" ht="39.6">
       <c r="A85" s="16">
         <v>6</v>
       </c>
@@ -9310,7 +9319,7 @@
       <c r="AA85" s="3"/>
       <c r="AB85" s="3"/>
     </row>
-    <row r="86" spans="1:28" ht="39">
+    <row r="86" spans="1:28" ht="39.6">
       <c r="A86" s="16">
         <v>6</v>
       </c>
@@ -9391,7 +9400,7 @@
       <c r="AA86" s="3"/>
       <c r="AB86" s="3"/>
     </row>
-    <row r="87" spans="1:28" ht="26">
+    <row r="87" spans="1:28" ht="39.6">
       <c r="A87" s="16">
         <v>6</v>
       </c>
@@ -9472,7 +9481,7 @@
       <c r="AA87" s="3"/>
       <c r="AB87" s="3"/>
     </row>
-    <row r="88" spans="1:28" ht="26">
+    <row r="88" spans="1:28" ht="26.4">
       <c r="A88" s="16">
         <v>6</v>
       </c>
@@ -9553,7 +9562,7 @@
       <c r="AA88" s="3"/>
       <c r="AB88" s="3"/>
     </row>
-    <row r="89" spans="1:28" ht="39">
+    <row r="89" spans="1:28" ht="39.6">
       <c r="A89" s="16">
         <v>6</v>
       </c>
@@ -9634,7 +9643,7 @@
       <c r="AA89" s="3"/>
       <c r="AB89" s="3"/>
     </row>
-    <row r="90" spans="1:28" ht="39">
+    <row r="90" spans="1:28" ht="39.6">
       <c r="A90" s="16">
         <v>6</v>
       </c>
@@ -9715,7 +9724,7 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
     </row>
-    <row r="91" spans="1:28" ht="39">
+    <row r="91" spans="1:28" ht="39.6">
       <c r="A91" s="16">
         <v>6</v>
       </c>
@@ -9795,7 +9804,7 @@
       <c r="AA91" s="3"/>
       <c r="AB91" s="3"/>
     </row>
-    <row r="92" spans="1:28" ht="52">
+    <row r="92" spans="1:28" ht="52.8">
       <c r="A92" s="16">
         <v>6</v>
       </c>
@@ -9876,7 +9885,7 @@
       <c r="AA92" s="3"/>
       <c r="AB92" s="3"/>
     </row>
-    <row r="93" spans="1:28" ht="26">
+    <row r="93" spans="1:28" ht="26.4">
       <c r="A93" s="16">
         <v>6</v>
       </c>
@@ -9957,7 +9966,7 @@
       <c r="AA93" s="3"/>
       <c r="AB93" s="3"/>
     </row>
-    <row r="94" spans="1:28" ht="26">
+    <row r="94" spans="1:28" ht="26.4">
       <c r="A94" s="16">
         <v>6</v>
       </c>
@@ -10038,7 +10047,7 @@
       <c r="AA94" s="3"/>
       <c r="AB94" s="3"/>
     </row>
-    <row r="95" spans="1:28" ht="26">
+    <row r="95" spans="1:28" ht="26.4">
       <c r="A95" s="16">
         <v>6</v>
       </c>
@@ -10119,7 +10128,7 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
     </row>
-    <row r="96" spans="1:28" ht="26">
+    <row r="96" spans="1:28" ht="26.4">
       <c r="A96" s="16">
         <v>6</v>
       </c>
@@ -10200,7 +10209,7 @@
       <c r="AA96" s="3"/>
       <c r="AB96" s="3"/>
     </row>
-    <row r="97" spans="1:28" ht="26">
+    <row r="97" spans="1:28" ht="26.4">
       <c r="A97" s="16">
         <v>6</v>
       </c>
@@ -10281,7 +10290,7 @@
       <c r="AA97" s="3"/>
       <c r="AB97" s="3"/>
     </row>
-    <row r="98" spans="1:28" ht="26">
+    <row r="98" spans="1:28" ht="26.4">
       <c r="A98" s="16">
         <v>6</v>
       </c>
@@ -10362,7 +10371,7 @@
       <c r="AA98" s="3"/>
       <c r="AB98" s="3"/>
     </row>
-    <row r="99" spans="1:28" ht="39">
+    <row r="99" spans="1:28" ht="39.6">
       <c r="A99" s="16">
         <v>6</v>
       </c>
@@ -10443,7 +10452,7 @@
       <c r="AA99" s="3"/>
       <c r="AB99" s="3"/>
     </row>
-    <row r="100" spans="1:28" ht="39">
+    <row r="100" spans="1:28" ht="39.6">
       <c r="A100" s="16">
         <v>6</v>
       </c>
@@ -10524,7 +10533,7 @@
       <c r="AA100" s="3"/>
       <c r="AB100" s="3"/>
     </row>
-    <row r="101" spans="1:28" ht="39">
+    <row r="101" spans="1:28" ht="39.6">
       <c r="A101" s="16">
         <v>6</v>
       </c>
@@ -10605,7 +10614,7 @@
       <c r="AA101" s="3"/>
       <c r="AB101" s="3"/>
     </row>
-    <row r="102" spans="1:28" ht="26">
+    <row r="102" spans="1:28" ht="39.6">
       <c r="A102" s="16">
         <v>6</v>
       </c>
@@ -10686,7 +10695,7 @@
       <c r="AA102" s="3"/>
       <c r="AB102" s="3"/>
     </row>
-    <row r="103" spans="1:28" ht="39">
+    <row r="103" spans="1:28" ht="39.6">
       <c r="A103" s="16">
         <v>6</v>
       </c>
@@ -10767,7 +10776,7 @@
       <c r="AA103" s="3"/>
       <c r="AB103" s="3"/>
     </row>
-    <row r="104" spans="1:28" ht="26">
+    <row r="104" spans="1:28" ht="26.4">
       <c r="A104" s="16">
         <v>6</v>
       </c>
@@ -10848,7 +10857,7 @@
       <c r="AA104" s="3"/>
       <c r="AB104" s="3"/>
     </row>
-    <row r="105" spans="1:28" ht="26">
+    <row r="105" spans="1:28" ht="26.4">
       <c r="A105" s="16">
         <v>6</v>
       </c>
@@ -10929,7 +10938,7 @@
       <c r="AA105" s="3"/>
       <c r="AB105" s="3"/>
     </row>
-    <row r="106" spans="1:28" ht="26">
+    <row r="106" spans="1:28" ht="26.4">
       <c r="A106" s="16">
         <v>6</v>
       </c>
@@ -11010,7 +11019,7 @@
       <c r="AA106" s="3"/>
       <c r="AB106" s="3"/>
     </row>
-    <row r="107" spans="1:28" ht="39">
+    <row r="107" spans="1:28" ht="39.6">
       <c r="A107" s="16">
         <v>6</v>
       </c>
@@ -11091,7 +11100,7 @@
       <c r="AA107" s="3"/>
       <c r="AB107" s="3"/>
     </row>
-    <row r="108" spans="1:28" ht="26">
+    <row r="108" spans="1:28" ht="26.4">
       <c r="A108" s="16">
         <v>6</v>
       </c>
@@ -11172,7 +11181,7 @@
       <c r="AA108" s="3"/>
       <c r="AB108" s="3"/>
     </row>
-    <row r="109" spans="1:28" ht="26">
+    <row r="109" spans="1:28" ht="26.4">
       <c r="A109" s="16">
         <v>6</v>
       </c>
@@ -11253,7 +11262,7 @@
       <c r="AA109" s="3"/>
       <c r="AB109" s="3"/>
     </row>
-    <row r="110" spans="1:28" ht="39">
+    <row r="110" spans="1:28" ht="39.6">
       <c r="A110" s="16">
         <v>6</v>
       </c>
@@ -11334,7 +11343,7 @@
       <c r="AA110" s="3"/>
       <c r="AB110" s="3"/>
     </row>
-    <row r="111" spans="1:28" ht="39">
+    <row r="111" spans="1:28" ht="39.6">
       <c r="A111" s="16">
         <v>6</v>
       </c>
@@ -11415,7 +11424,7 @@
       <c r="AA111" s="3"/>
       <c r="AB111" s="3"/>
     </row>
-    <row r="112" spans="1:28" ht="26">
+    <row r="112" spans="1:28" ht="26.4">
       <c r="A112" s="16">
         <v>6</v>
       </c>
@@ -11496,7 +11505,7 @@
       <c r="AA112" s="3"/>
       <c r="AB112" s="3"/>
     </row>
-    <row r="113" spans="1:28" ht="39">
+    <row r="113" spans="1:28" ht="39.6">
       <c r="A113" s="16">
         <v>6</v>
       </c>
@@ -11577,7 +11586,7 @@
       <c r="AA113" s="3"/>
       <c r="AB113" s="3"/>
     </row>
-    <row r="114" spans="1:28" ht="26">
+    <row r="114" spans="1:28" ht="26.4">
       <c r="A114" s="16">
         <v>6</v>
       </c>
@@ -11658,7 +11667,7 @@
       <c r="AA114" s="3"/>
       <c r="AB114" s="3"/>
     </row>
-    <row r="115" spans="1:28" ht="39">
+    <row r="115" spans="1:28" ht="39.6">
       <c r="A115" s="16">
         <v>6</v>
       </c>
@@ -11739,7 +11748,7 @@
       <c r="AA115" s="3"/>
       <c r="AB115" s="3"/>
     </row>
-    <row r="116" spans="1:28" ht="26">
+    <row r="116" spans="1:28" ht="26.4">
       <c r="A116" s="16">
         <v>6</v>
       </c>
@@ -11820,7 +11829,7 @@
       <c r="AA116" s="3"/>
       <c r="AB116" s="3"/>
     </row>
-    <row r="117" spans="1:28" ht="39">
+    <row r="117" spans="1:28" ht="39.6">
       <c r="A117" s="16">
         <v>6</v>
       </c>
@@ -11901,7 +11910,7 @@
       <c r="AA117" s="3"/>
       <c r="AB117" s="3"/>
     </row>
-    <row r="118" spans="1:28" ht="26">
+    <row r="118" spans="1:28" ht="26.4">
       <c r="A118" s="16">
         <v>6</v>
       </c>
@@ -11982,7 +11991,7 @@
       <c r="AA118" s="3"/>
       <c r="AB118" s="3"/>
     </row>
-    <row r="119" spans="1:28" ht="39">
+    <row r="119" spans="1:28" ht="39.6">
       <c r="A119" s="16">
         <v>6</v>
       </c>
@@ -12063,7 +12072,7 @@
       <c r="AA119" s="3"/>
       <c r="AB119" s="3"/>
     </row>
-    <row r="120" spans="1:28" ht="26">
+    <row r="120" spans="1:28" ht="26.4">
       <c r="A120" s="16">
         <v>6</v>
       </c>
@@ -12144,7 +12153,7 @@
       <c r="AA120" s="3"/>
       <c r="AB120" s="3"/>
     </row>
-    <row r="121" spans="1:28" ht="26">
+    <row r="121" spans="1:28" ht="26.4">
       <c r="A121" s="16">
         <v>6</v>
       </c>
@@ -12225,7 +12234,7 @@
       <c r="AA121" s="3"/>
       <c r="AB121" s="3"/>
     </row>
-    <row r="122" spans="1:28" ht="39">
+    <row r="122" spans="1:28" ht="39.6">
       <c r="A122" s="16">
         <v>6</v>
       </c>
@@ -12306,7 +12315,7 @@
       <c r="AA122" s="3"/>
       <c r="AB122" s="3"/>
     </row>
-    <row r="123" spans="1:28" ht="39">
+    <row r="123" spans="1:28" ht="39.6">
       <c r="A123" s="16">
         <v>6</v>
       </c>
@@ -12387,7 +12396,7 @@
       <c r="AA123" s="3"/>
       <c r="AB123" s="3"/>
     </row>
-    <row r="124" spans="1:28" ht="26">
+    <row r="124" spans="1:28" ht="39.6">
       <c r="A124" s="16">
         <v>6</v>
       </c>
@@ -12468,7 +12477,7 @@
       <c r="AA124" s="3"/>
       <c r="AB124" s="3"/>
     </row>
-    <row r="125" spans="1:28" ht="26">
+    <row r="125" spans="1:28" ht="26.4">
       <c r="A125" s="16">
         <v>6</v>
       </c>
@@ -12549,7 +12558,7 @@
       <c r="AA125" s="3"/>
       <c r="AB125" s="3"/>
     </row>
-    <row r="126" spans="1:28" ht="39">
+    <row r="126" spans="1:28" ht="39.6">
       <c r="A126" s="16">
         <v>6</v>
       </c>
@@ -12630,7 +12639,7 @@
       <c r="AA126" s="3"/>
       <c r="AB126" s="3"/>
     </row>
-    <row r="127" spans="1:28" ht="26">
+    <row r="127" spans="1:28" ht="26.4">
       <c r="A127" s="16">
         <v>6</v>
       </c>
@@ -12711,7 +12720,7 @@
       <c r="AA127" s="3"/>
       <c r="AB127" s="3"/>
     </row>
-    <row r="128" spans="1:28" ht="26">
+    <row r="128" spans="1:28" ht="26.4">
       <c r="A128" s="16">
         <v>6</v>
       </c>

--- a/miniproject/template/Lectures/Lecture 6.xlsx
+++ b/miniproject/template/Lectures/Lecture 6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S_AGI\Documents\GitHub\AI_teaching_project\miniproject\template\Lectures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C85E501F-9D7E-4367-8078-31FF99F0B067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0765B21-9457-4CC6-BE1B-89552D248050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
